--- a/out/relatorio_consolidado.xlsx
+++ b/out/relatorio_consolidado.xlsx
@@ -95,7 +95,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -119,6 +119,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -486,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S58"/>
+  <dimension ref="A1:V60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
@@ -518,6 +530,9 @@
       <c r="Q1" s="1" t="n"/>
       <c r="R1" s="1" t="n"/>
       <c r="S1" s="1" t="n"/>
+      <c r="T1" s="1" t="n"/>
+      <c r="U1" s="1" t="n"/>
+      <c r="V1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -547,6 +562,9 @@
       <c r="Q2" s="4" t="n"/>
       <c r="R2" s="3" t="n"/>
       <c r="S2" s="3" t="n"/>
+      <c r="T2" s="4" t="n"/>
+      <c r="U2" s="3" t="n"/>
+      <c r="V2" s="3" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -557,7 +575,7 @@
       <c r="B3" s="3" t="inlineStr"/>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>Miriam Ferreira J Dos Santos</t>
+          <t>Bruna Ferreira B. Da Silva</t>
         </is>
       </c>
       <c r="D3" s="3" t="n"/>
@@ -576,6 +594,9 @@
       <c r="Q3" s="4" t="n"/>
       <c r="R3" s="3" t="n"/>
       <c r="S3" s="3" t="n"/>
+      <c r="T3" s="4" t="n"/>
+      <c r="U3" s="3" t="n"/>
+      <c r="V3" s="3" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -586,7 +607,7 @@
       <c r="B4" s="3" t="inlineStr"/>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="D4" s="3" t="n"/>
@@ -605,6 +626,9 @@
       <c r="Q4" s="4" t="n"/>
       <c r="R4" s="3" t="n"/>
       <c r="S4" s="3" t="n"/>
+      <c r="T4" s="4" t="n"/>
+      <c r="U4" s="3" t="n"/>
+      <c r="V4" s="3" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -615,7 +639,7 @@
       <c r="B5" s="3" t="inlineStr"/>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D5" s="3" t="n"/>
@@ -634,6 +658,9 @@
       <c r="Q5" s="4" t="n"/>
       <c r="R5" s="3" t="n"/>
       <c r="S5" s="3" t="n"/>
+      <c r="T5" s="4" t="n"/>
+      <c r="U5" s="3" t="n"/>
+      <c r="V5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -644,7 +671,7 @@
       <c r="B6" s="3" t="inlineStr"/>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Andre Romeiro Rocha</t>
         </is>
       </c>
       <c r="D6" s="3" t="n"/>
@@ -663,6 +690,9 @@
       <c r="Q6" s="4" t="n"/>
       <c r="R6" s="3" t="n"/>
       <c r="S6" s="3" t="n"/>
+      <c r="T6" s="4" t="n"/>
+      <c r="U6" s="3" t="n"/>
+      <c r="V6" s="3" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
@@ -684,6 +714,9 @@
       <c r="Q7" s="1" t="n"/>
       <c r="R7" s="1" t="n"/>
       <c r="S7" s="1" t="n"/>
+      <c r="T7" s="1" t="n"/>
+      <c r="U7" s="1" t="n"/>
+      <c r="V7" s="1" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr"/>
@@ -714,17 +747,24 @@
       <c r="N8" s="5" t="inlineStr"/>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>Envoltório dos mínimos</t>
+          <t>Fornecedor 4</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr"/>
       <c r="Q8" s="5" t="inlineStr"/>
       <c r="R8" s="2" t="inlineStr">
         <is>
+          <t>Envoltório dos mínimos</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr"/>
+      <c r="T8" s="5" t="inlineStr"/>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
           <t>Fornecedor vencedor</t>
         </is>
       </c>
-      <c r="S8" s="3" t="n"/>
+      <c r="V8" s="3" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -738,30 +778,37 @@
       <c r="E9" s="4" t="inlineStr"/>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>Bimpavi Indústria E Comércio De Artefatos De Cimento Ltda</t>
+          <t>Galua Soluções Industriais Ltda</t>
         </is>
       </c>
       <c r="G9" s="3" t="inlineStr"/>
       <c r="H9" s="4" t="inlineStr"/>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>Pré-Moldados</t>
+          <t>Mi Comercio</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr"/>
       <c r="K9" s="4" t="inlineStr"/>
       <c r="L9" s="3" t="inlineStr">
         <is>
-          <t>Drenaltec Industria E Comercio Ltda</t>
+          <t>Temfer Material De Construção</t>
         </is>
       </c>
       <c r="M9" s="3" t="inlineStr"/>
       <c r="N9" s="4" t="inlineStr"/>
-      <c r="O9" s="3" t="n"/>
-      <c r="P9" s="3" t="n"/>
-      <c r="Q9" s="4" t="n"/>
+      <c r="O9" s="3" t="inlineStr">
+        <is>
+          <t>Comercial Vana Eireli</t>
+        </is>
+      </c>
+      <c r="P9" s="3" t="inlineStr"/>
+      <c r="Q9" s="4" t="inlineStr"/>
       <c r="R9" s="3" t="n"/>
       <c r="S9" s="3" t="n"/>
+      <c r="T9" s="4" t="n"/>
+      <c r="U9" s="3" t="n"/>
+      <c r="V9" s="3" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -775,7 +822,7 @@
       <c r="E10" s="4" t="inlineStr"/>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>47.980.156/0001-40</t>
+          <t>23.973.668/0001-10</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr"/>
@@ -789,16 +836,23 @@
       <c r="K10" s="4" t="inlineStr"/>
       <c r="L10" s="3" t="inlineStr">
         <is>
-          <t>14.989.343/0001-35</t>
+          <t>63022024000161</t>
         </is>
       </c>
       <c r="M10" s="3" t="inlineStr"/>
       <c r="N10" s="4" t="inlineStr"/>
-      <c r="O10" s="3" t="n"/>
-      <c r="P10" s="3" t="n"/>
-      <c r="Q10" s="4" t="n"/>
+      <c r="O10" s="3" t="inlineStr">
+        <is>
+          <t>17.891.648/0001-06</t>
+        </is>
+      </c>
+      <c r="P10" s="3" t="inlineStr"/>
+      <c r="Q10" s="4" t="inlineStr"/>
       <c r="R10" s="3" t="n"/>
       <c r="S10" s="3" t="n"/>
+      <c r="T10" s="4" t="n"/>
+      <c r="U10" s="3" t="n"/>
+      <c r="V10" s="3" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -812,30 +866,37 @@
       <c r="E11" s="4" t="inlineStr"/>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>(11) 4827-0290</t>
+          <t>(11) 99806-7738</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr"/>
       <c r="H11" s="4" t="inlineStr"/>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>(11)3813-8441</t>
+          <t>(11) 5031-303</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr"/>
       <c r="K11" s="4" t="inlineStr"/>
       <c r="L11" s="3" t="inlineStr">
         <is>
-          <t>(19) 3203-4307</t>
+          <t>1150918044</t>
         </is>
       </c>
       <c r="M11" s="3" t="inlineStr"/>
       <c r="N11" s="4" t="inlineStr"/>
-      <c r="O11" s="3" t="n"/>
-      <c r="P11" s="3" t="n"/>
-      <c r="Q11" s="4" t="n"/>
+      <c r="O11" s="3" t="inlineStr">
+        <is>
+          <t>(11) 99824-9861</t>
+        </is>
+      </c>
+      <c r="P11" s="3" t="inlineStr"/>
+      <c r="Q11" s="4" t="inlineStr"/>
       <c r="R11" s="3" t="n"/>
       <c r="S11" s="3" t="n"/>
+      <c r="T11" s="4" t="n"/>
+      <c r="U11" s="3" t="n"/>
+      <c r="V11" s="3" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -856,7 +917,7 @@
       <c r="H12" s="4" t="inlineStr"/>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>(11)940323502</t>
+          <t>null</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr"/>
@@ -868,11 +929,18 @@
       </c>
       <c r="M12" s="3" t="inlineStr"/>
       <c r="N12" s="4" t="inlineStr"/>
-      <c r="O12" s="3" t="n"/>
-      <c r="P12" s="3" t="n"/>
-      <c r="Q12" s="4" t="n"/>
+      <c r="O12" s="3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="P12" s="3" t="inlineStr"/>
+      <c r="Q12" s="4" t="inlineStr"/>
       <c r="R12" s="3" t="n"/>
       <c r="S12" s="3" t="n"/>
+      <c r="T12" s="4" t="n"/>
+      <c r="U12" s="3" t="n"/>
+      <c r="V12" s="3" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -893,23 +961,30 @@
       <c r="H13" s="4" t="inlineStr"/>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>saopaulo@tatu.com.br</t>
+          <t>novaconstru.mat@gmail.co</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr"/>
       <c r="K13" s="4" t="inlineStr"/>
       <c r="L13" s="3" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>temfercobranca@gmail.com</t>
         </is>
       </c>
       <c r="M13" s="3" t="inlineStr"/>
       <c r="N13" s="4" t="inlineStr"/>
-      <c r="O13" s="3" t="n"/>
-      <c r="P13" s="3" t="n"/>
-      <c r="Q13" s="4" t="n"/>
+      <c r="O13" s="3" t="inlineStr">
+        <is>
+          <t>adriana@cimentofort.com.br</t>
+        </is>
+      </c>
+      <c r="P13" s="3" t="inlineStr"/>
+      <c r="Q13" s="4" t="inlineStr"/>
       <c r="R13" s="3" t="n"/>
       <c r="S13" s="3" t="n"/>
+      <c r="T13" s="4" t="n"/>
+      <c r="U13" s="3" t="n"/>
+      <c r="V13" s="3" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -923,30 +998,37 @@
       <c r="E14" s="4" t="inlineStr"/>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>Erika</t>
+          <t>Bruno Bracetti</t>
         </is>
       </c>
       <c r="G14" s="3" t="inlineStr"/>
       <c r="H14" s="4" t="inlineStr"/>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>Marlene Barros</t>
+          <t>Joao Carlos</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr"/>
       <c r="K14" s="4" t="inlineStr"/>
       <c r="L14" s="3" t="inlineStr">
         <is>
-          <t>Bruna Cristina</t>
+          <t>Adilson Otavio Da Silva</t>
         </is>
       </c>
       <c r="M14" s="3" t="inlineStr"/>
       <c r="N14" s="4" t="inlineStr"/>
-      <c r="O14" s="3" t="n"/>
-      <c r="P14" s="3" t="n"/>
-      <c r="Q14" s="4" t="n"/>
+      <c r="O14" s="3" t="inlineStr">
+        <is>
+          <t>Adriana Corrêa</t>
+        </is>
+      </c>
+      <c r="P14" s="3" t="inlineStr"/>
+      <c r="Q14" s="4" t="inlineStr"/>
       <c r="R14" s="3" t="n"/>
       <c r="S14" s="3" t="n"/>
+      <c r="T14" s="4" t="n"/>
+      <c r="U14" s="3" t="n"/>
+      <c r="V14" s="3" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -968,6 +1050,9 @@
       <c r="Q15" s="1" t="n"/>
       <c r="R15" s="1" t="n"/>
       <c r="S15" s="1" t="n"/>
+      <c r="T15" s="1" t="n"/>
+      <c r="U15" s="1" t="n"/>
+      <c r="V15" s="1" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -1050,13 +1135,28 @@
           <t>R$ total</t>
         </is>
       </c>
-      <c r="Q16" s="5" t="inlineStr"/>
+      <c r="Q16" s="5" t="inlineStr">
+        <is>
+          <t>Semelhança</t>
+        </is>
+      </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
           <t>R$ unit</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>R$ total</t>
+        </is>
+      </c>
+      <c r="T16" s="5" t="inlineStr"/>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>R$ unit</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
         <is>
           <t>R$ total</t>
         </is>
@@ -1067,314 +1167,323 @@
       <c r="B17" s="6" t="inlineStr"/>
       <c r="C17" s="7" t="inlineStr">
         <is>
-          <t>descrição do produto: guia concreto-ruas/avenidas; tipo concreto: pre-moldado; modelo: reta; padrao: prefeitura sao paulo; altura: 20 cm; largura maior: 8 cm; comprimento: 40 cm</t>
+          <t>argamassa/rejunte industrializado; produto: argamassa assentamento; fabricante: ecomix; referencia: abnt nbr 14725:2012; cor: cinza; apresentacao: 50 kg</t>
         </is>
       </c>
       <c r="D17" s="8" t="n">
-        <v>1521.93</v>
+        <v>150000</v>
       </c>
       <c r="E17" s="9" t="inlineStr">
         <is>
-          <t>MT</t>
-        </is>
-      </c>
-      <c r="F17" s="6" t="inlineStr">
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="F17" s="10" t="n">
+        <v>36.91</v>
+      </c>
+      <c r="G17" s="8" t="n">
+        <v>5536499.999999999</v>
+      </c>
+      <c r="H17" s="9" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="I17" s="10" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="J17" s="8" t="n">
+        <v>4485000</v>
+      </c>
+      <c r="K17" s="9" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="L17" s="6" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="G17" s="6" t="inlineStr">
+      <c r="M17" s="6" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="H17" s="9" t="inlineStr">
-        <is>
-          <t>38%</t>
-        </is>
-      </c>
-      <c r="I17" s="10" t="n">
-        <v>20.032</v>
-      </c>
-      <c r="J17" s="8" t="n">
-        <v>30487.30176</v>
-      </c>
-      <c r="K17" s="9" t="inlineStr">
-        <is>
-          <t>43%</t>
-        </is>
-      </c>
-      <c r="L17" s="10" t="n">
-        <v>49</v>
-      </c>
-      <c r="M17" s="8" t="n">
-        <v>74574.57000000001</v>
-      </c>
       <c r="N17" s="9" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>null</t>
         </is>
       </c>
       <c r="O17" s="10" t="n">
-        <v>20.032</v>
+        <v>28</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>30487.30176</v>
-      </c>
-      <c r="Q17" s="9" t="inlineStr"/>
-      <c r="R17" s="6" t="inlineStr"/>
-      <c r="S17" s="6" t="inlineStr"/>
+        <v>4200000</v>
+      </c>
+      <c r="Q17" s="9" t="inlineStr">
+        <is>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="R17" s="10" t="n">
+        <v>28</v>
+      </c>
+      <c r="S17" s="8" t="n">
+        <v>4200000</v>
+      </c>
+      <c r="T17" s="9" t="inlineStr"/>
+      <c r="U17" s="6" t="inlineStr"/>
+      <c r="V17" s="6" t="inlineStr"/>
     </row>
     <row r="18" ht="65" customHeight="1">
       <c r="A18" s="6" t="inlineStr"/>
       <c r="B18" s="6" t="inlineStr"/>
       <c r="C18" s="7" t="inlineStr">
         <is>
-          <t>descrição do produto: guia concreto-ruas/avenidas; tipo concreto: armado; modelo: rebaixada; padrao: prefeitura sao paulo; altura: 30 cm; largura maior: 40 cm; comprimento: 60 cm; caracteristicas adicionais: cor cinza claro munsell n 6,5</t>
-        </is>
-      </c>
-      <c r="D18" s="10" t="n">
-        <v>50</v>
+          <t>argamassa/rejunte industrializado; produto: argamassa colante; fabricante: construcola; referencia: int/ext aciii; cor: cinza; apresentacao: 20 kg</t>
+        </is>
+      </c>
+      <c r="D18" s="8" t="n">
+        <v>800</v>
       </c>
       <c r="E18" s="9" t="inlineStr">
         <is>
-          <t>MT</t>
-        </is>
-      </c>
-      <c r="F18" s="6" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="G18" s="6" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F18" s="10" t="n">
+        <v>48.45</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>38760</v>
       </c>
       <c r="H18" s="9" t="inlineStr">
         <is>
-          <t>33%</t>
-        </is>
-      </c>
-      <c r="I18" s="6" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="J18" s="6" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+          <t>67%</t>
+        </is>
+      </c>
+      <c r="I18" s="10" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="J18" s="8" t="n">
+        <v>43920</v>
       </c>
       <c r="K18" s="9" t="inlineStr">
         <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="L18" s="8" t="n">
-        <v>120</v>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="L18" s="10" t="n">
+        <v>43.4</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>6000</v>
+        <v>34720</v>
       </c>
       <c r="N18" s="9" t="inlineStr">
         <is>
-          <t>44%</t>
-        </is>
-      </c>
-      <c r="O18" s="8" t="n">
-        <v>120</v>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="O18" s="10" t="n">
+        <v>33</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>6000</v>
-      </c>
-      <c r="Q18" s="9" t="inlineStr"/>
-      <c r="R18" s="6" t="inlineStr"/>
-      <c r="S18" s="6" t="inlineStr"/>
-    </row>
-    <row r="19" ht="65" customHeight="1">
+        <v>26400</v>
+      </c>
+      <c r="Q18" s="9" t="inlineStr">
+        <is>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="R18" s="10" t="n">
+        <v>33</v>
+      </c>
+      <c r="S18" s="8" t="n">
+        <v>26400</v>
+      </c>
+      <c r="T18" s="9" t="inlineStr"/>
+      <c r="U18" s="6" t="inlineStr"/>
+      <c r="V18" s="6" t="inlineStr"/>
+    </row>
+    <row r="19">
       <c r="A19" s="6" t="inlineStr"/>
       <c r="B19" s="6" t="inlineStr"/>
       <c r="C19" s="7" t="inlineStr">
         <is>
-          <t>descrição do produto: guia concreto-ruas/avenidas; tipo concreto: pre-moldado; modelo: reta; padrao: prefeitura sao paulo; altura: 30 cm; largura maior: 15 cm; comprimento: 100 cm</t>
-        </is>
-      </c>
-      <c r="D19" s="8" t="n">
-        <v>1433</v>
-      </c>
-      <c r="E19" s="9" t="inlineStr">
-        <is>
-          <t>MT</t>
-        </is>
-      </c>
-      <c r="F19" s="10" t="n">
-        <v>49</v>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D19" s="6" t="inlineStr"/>
+      <c r="E19" s="9" t="inlineStr"/>
+      <c r="F19" s="6" t="inlineStr"/>
       <c r="G19" s="8" t="n">
-        <v>70217</v>
-      </c>
-      <c r="H19" s="9" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="I19" s="10" t="n">
-        <v>41.763</v>
-      </c>
+        <v>5575259.999999999</v>
+      </c>
+      <c r="H19" s="9" t="inlineStr"/>
+      <c r="I19" s="6" t="inlineStr"/>
       <c r="J19" s="8" t="n">
-        <v>59846.379</v>
-      </c>
-      <c r="K19" s="9" t="inlineStr">
-        <is>
-          <t>57%</t>
-        </is>
-      </c>
-      <c r="L19" s="8" t="n">
-        <v>120</v>
-      </c>
-      <c r="M19" s="8" t="n">
-        <v>171960</v>
-      </c>
-      <c r="N19" s="9" t="inlineStr">
-        <is>
-          <t>88%</t>
-        </is>
-      </c>
-      <c r="O19" s="10" t="n">
-        <v>41.763</v>
-      </c>
+        <v>4528920</v>
+      </c>
+      <c r="K19" s="9" t="inlineStr"/>
+      <c r="L19" s="6" t="inlineStr"/>
+      <c r="M19" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N19" s="9" t="inlineStr"/>
+      <c r="O19" s="6" t="inlineStr"/>
       <c r="P19" s="8" t="n">
-        <v>59846.379</v>
+        <v>4226400</v>
       </c>
       <c r="Q19" s="9" t="inlineStr"/>
       <c r="R19" s="6" t="inlineStr"/>
-      <c r="S19" s="6" t="inlineStr"/>
+      <c r="S19" s="8" t="n">
+        <v>4226400</v>
+      </c>
+      <c r="T19" s="9" t="inlineStr"/>
+      <c r="U19" s="6" t="inlineStr"/>
+      <c r="V19" s="6" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="inlineStr"/>
-      <c r="B20" s="6" t="inlineStr"/>
-      <c r="C20" s="7" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D20" s="6" t="inlineStr"/>
-      <c r="E20" s="9" t="inlineStr"/>
-      <c r="F20" s="6" t="inlineStr"/>
-      <c r="G20" s="6" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="n"/>
+      <c r="C20" s="1" t="n"/>
+      <c r="D20" s="1" t="n"/>
+      <c r="E20" s="1" t="n"/>
+      <c r="F20" s="1" t="n"/>
+      <c r="G20" s="1" t="n"/>
+      <c r="H20" s="1" t="n"/>
+      <c r="I20" s="1" t="n"/>
+      <c r="J20" s="1" t="n"/>
+      <c r="K20" s="1" t="n"/>
+      <c r="L20" s="1" t="n"/>
+      <c r="M20" s="1" t="n"/>
+      <c r="N20" s="1" t="n"/>
+      <c r="O20" s="1" t="n"/>
+      <c r="P20" s="1" t="n"/>
+      <c r="Q20" s="1" t="n"/>
+      <c r="R20" s="1" t="n"/>
+      <c r="S20" s="1" t="n"/>
+      <c r="T20" s="1" t="n"/>
+      <c r="U20" s="1" t="n"/>
+      <c r="V20" s="1" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr"/>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>Condições comerciais</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="5" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="H21" s="11" t="n"/>
+      <c r="I21" s="2" t="inlineStr"/>
+      <c r="K21" s="11" t="n"/>
+      <c r="L21" s="2" t="inlineStr"/>
+      <c r="N21" s="11" t="n"/>
+      <c r="O21" s="2" t="inlineStr"/>
+      <c r="Q21" s="11" t="n"/>
+      <c r="R21" s="3" t="n"/>
+      <c r="S21" s="3" t="n"/>
+      <c r="T21" s="4" t="n"/>
+      <c r="U21" s="3" t="n"/>
+      <c r="V21" s="3" t="n"/>
+    </row>
+    <row r="22" ht="65" customHeight="1">
+      <c r="A22" s="7" t="inlineStr"/>
+      <c r="B22" s="7" t="inlineStr"/>
+      <c r="C22" s="7" t="inlineStr">
+        <is>
+          <t>Condições de pagamento</t>
+        </is>
+      </c>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="12" t="inlineStr"/>
+      <c r="F22" s="7" t="inlineStr">
+        <is>
+          <t>28 dias</t>
+        </is>
+      </c>
+      <c r="H22" s="11" t="n"/>
+      <c r="I22" s="7" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="H20" s="9" t="inlineStr"/>
-      <c r="I20" s="6" t="inlineStr"/>
-      <c r="J20" s="6" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="K20" s="9" t="inlineStr"/>
-      <c r="L20" s="6" t="inlineStr"/>
-      <c r="M20" s="8" t="n">
-        <v>252534.57</v>
-      </c>
-      <c r="N20" s="9" t="inlineStr"/>
-      <c r="O20" s="6" t="inlineStr"/>
-      <c r="P20" s="8" t="n">
-        <v>96333.68076</v>
-      </c>
-      <c r="Q20" s="9" t="inlineStr"/>
-      <c r="R20" s="6" t="inlineStr"/>
-      <c r="S20" s="6" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="n"/>
-      <c r="C21" s="1" t="n"/>
-      <c r="D21" s="1" t="n"/>
-      <c r="E21" s="1" t="n"/>
-      <c r="F21" s="1" t="n"/>
-      <c r="G21" s="1" t="n"/>
-      <c r="H21" s="1" t="n"/>
-      <c r="I21" s="1" t="n"/>
-      <c r="J21" s="1" t="n"/>
-      <c r="K21" s="1" t="n"/>
-      <c r="L21" s="1" t="n"/>
-      <c r="M21" s="1" t="n"/>
-      <c r="N21" s="1" t="n"/>
-      <c r="O21" s="1" t="n"/>
-      <c r="P21" s="1" t="n"/>
-      <c r="Q21" s="1" t="n"/>
-      <c r="R21" s="1" t="n"/>
-      <c r="S21" s="1" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>Item</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr"/>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>Condições comerciais</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="2" t="inlineStr"/>
-      <c r="H22" s="11" t="n"/>
-      <c r="I22" s="2" t="inlineStr"/>
       <c r="K22" s="11" t="n"/>
-      <c r="L22" s="2" t="inlineStr"/>
+      <c r="L22" s="7" t="inlineStr">
+        <is>
+          <t>Operante (transferencia) 01- 25/3/2025 - 208320,00</t>
+        </is>
+      </c>
       <c r="N22" s="11" t="n"/>
-      <c r="O22" s="3" t="n"/>
-      <c r="P22" s="3" t="n"/>
-      <c r="Q22" s="4" t="n"/>
+      <c r="O22" s="7" t="inlineStr">
+        <is>
+          <t>Boleto 28 dd</t>
+        </is>
+      </c>
+      <c r="Q22" s="11" t="n"/>
       <c r="R22" s="3" t="n"/>
       <c r="S22" s="3" t="n"/>
+      <c r="T22" s="4" t="n"/>
+      <c r="U22" s="3" t="n"/>
+      <c r="V22" s="3" t="n"/>
     </row>
     <row r="23" ht="65" customHeight="1">
       <c r="A23" s="7" t="inlineStr"/>
       <c r="B23" s="7" t="inlineStr"/>
       <c r="C23" s="7" t="inlineStr">
         <is>
-          <t>Condições de pagamento</t>
+          <t>Frete</t>
         </is>
       </c>
       <c r="D23" s="7" t="inlineStr"/>
       <c r="E23" s="12" t="inlineStr"/>
       <c r="F23" s="7" t="inlineStr">
         <is>
-          <t>Pagamento de 100% a vista; pagamento total em até 3 x no cartão de crédito sem juros; pagamento de 50% a vista (antecipado) e 50% faturado 28 dias, mediante análise.</t>
+          <t>Fob sp</t>
         </is>
       </c>
       <c r="H23" s="11" t="n"/>
       <c r="I23" s="7" t="inlineStr">
         <is>
-          <t>Carteira a vista, cartao de credito ou faturado</t>
+          <t>1990.00</t>
         </is>
       </c>
       <c r="K23" s="11" t="n"/>
       <c r="L23" s="7" t="inlineStr">
         <is>
-          <t>Para 28 dias</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="N23" s="11" t="n"/>
-      <c r="O23" s="3" t="n"/>
-      <c r="P23" s="3" t="n"/>
-      <c r="Q23" s="4" t="n"/>
+      <c r="O23" s="7" t="inlineStr">
+        <is>
+          <t>Cif</t>
+        </is>
+      </c>
+      <c r="Q23" s="11" t="n"/>
       <c r="R23" s="3" t="n"/>
       <c r="S23" s="3" t="n"/>
+      <c r="T23" s="4" t="n"/>
+      <c r="U23" s="3" t="n"/>
+      <c r="V23" s="3" t="n"/>
     </row>
     <row r="24" ht="65" customHeight="1">
       <c r="A24" s="7" t="inlineStr"/>
       <c r="B24" s="7" t="inlineStr"/>
       <c r="C24" s="7" t="inlineStr">
         <is>
-          <t>Data da proposta</t>
+          <t>Local de entrega</t>
         </is>
       </c>
       <c r="D24" s="7" t="inlineStr"/>
@@ -1393,29 +1502,35 @@
       <c r="K24" s="11" t="n"/>
       <c r="L24" s="7" t="inlineStr">
         <is>
-          <t>07/01/2025</t>
+          <t>null</t>
         </is>
       </c>
       <c r="N24" s="11" t="n"/>
-      <c r="O24" s="3" t="n"/>
-      <c r="P24" s="3" t="n"/>
-      <c r="Q24" s="4" t="n"/>
+      <c r="O24" s="7" t="inlineStr">
+        <is>
+          <t>Obra 17 linha ouro - (diversos)</t>
+        </is>
+      </c>
+      <c r="Q24" s="11" t="n"/>
       <c r="R24" s="3" t="n"/>
       <c r="S24" s="3" t="n"/>
+      <c r="T24" s="4" t="n"/>
+      <c r="U24" s="3" t="n"/>
+      <c r="V24" s="3" t="n"/>
     </row>
     <row r="25" ht="65" customHeight="1">
       <c r="A25" s="7" t="inlineStr"/>
       <c r="B25" s="7" t="inlineStr"/>
       <c r="C25" s="7" t="inlineStr">
         <is>
-          <t>Descarga</t>
+          <t>Prazo de entrega</t>
         </is>
       </c>
       <c r="D25" s="7" t="inlineStr"/>
       <c r="E25" s="12" t="inlineStr"/>
       <c r="F25" s="7" t="inlineStr">
         <is>
-          <t>Por conta do cliente</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H25" s="11" t="n"/>
@@ -1431,52 +1546,64 @@
         </is>
       </c>
       <c r="N25" s="11" t="n"/>
-      <c r="O25" s="3" t="n"/>
-      <c r="P25" s="3" t="n"/>
-      <c r="Q25" s="4" t="n"/>
+      <c r="O25" s="7" t="inlineStr">
+        <is>
+          <t>1 a 2 dias</t>
+        </is>
+      </c>
+      <c r="Q25" s="11" t="n"/>
       <c r="R25" s="3" t="n"/>
       <c r="S25" s="3" t="n"/>
+      <c r="T25" s="4" t="n"/>
+      <c r="U25" s="3" t="n"/>
+      <c r="V25" s="3" t="n"/>
     </row>
     <row r="26" ht="65" customHeight="1">
       <c r="A26" s="7" t="inlineStr"/>
       <c r="B26" s="7" t="inlineStr"/>
       <c r="C26" s="7" t="inlineStr">
         <is>
-          <t>Frete</t>
+          <t>Prazo para troca</t>
         </is>
       </c>
       <c r="D26" s="7" t="inlineStr"/>
       <c r="E26" s="12" t="inlineStr"/>
       <c r="F26" s="7" t="inlineStr">
         <is>
-          <t>Incluso no preço</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H26" s="11" t="n"/>
       <c r="I26" s="7" t="inlineStr">
         <is>
-          <t>Valores de frete para viagens completas, com descarga por conta do transportador. o frete será faturado diretamente do transportador, com emissão de nota de conhecimento de transporte.</t>
+          <t>null</t>
         </is>
       </c>
       <c r="K26" s="11" t="n"/>
       <c r="L26" s="7" t="inlineStr">
         <is>
-          <t>R$ 50.663,00 a pagar após entrega</t>
+          <t>7 dias</t>
         </is>
       </c>
       <c r="N26" s="11" t="n"/>
-      <c r="O26" s="3" t="n"/>
-      <c r="P26" s="3" t="n"/>
-      <c r="Q26" s="4" t="n"/>
+      <c r="O26" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="Q26" s="11" t="n"/>
       <c r="R26" s="3" t="n"/>
       <c r="S26" s="3" t="n"/>
+      <c r="T26" s="4" t="n"/>
+      <c r="U26" s="3" t="n"/>
+      <c r="V26" s="3" t="n"/>
     </row>
     <row r="27" ht="65" customHeight="1">
       <c r="A27" s="7" t="inlineStr"/>
       <c r="B27" s="7" t="inlineStr"/>
       <c r="C27" s="7" t="inlineStr">
         <is>
-          <t>Garantia</t>
+          <t>Prazo para utilização de créditos</t>
         </is>
       </c>
       <c r="D27" s="7" t="inlineStr"/>
@@ -1495,165 +1622,155 @@
       <c r="K27" s="11" t="n"/>
       <c r="L27" s="7" t="inlineStr">
         <is>
-          <t>90 dias da data da entrega do produto</t>
+          <t>90 dias</t>
         </is>
       </c>
       <c r="N27" s="11" t="n"/>
-      <c r="O27" s="3" t="n"/>
-      <c r="P27" s="3" t="n"/>
-      <c r="Q27" s="4" t="n"/>
+      <c r="O27" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="Q27" s="11" t="n"/>
       <c r="R27" s="3" t="n"/>
       <c r="S27" s="3" t="n"/>
+      <c r="T27" s="4" t="n"/>
+      <c r="U27" s="3" t="n"/>
+      <c r="V27" s="3" t="n"/>
     </row>
     <row r="28" ht="65" customHeight="1">
       <c r="A28" s="7" t="inlineStr"/>
       <c r="B28" s="7" t="inlineStr"/>
       <c r="C28" s="7" t="inlineStr">
         <is>
-          <t>Impostos</t>
+          <t>Validade da proposta</t>
         </is>
       </c>
       <c r="D28" s="7" t="inlineStr"/>
       <c r="E28" s="12" t="inlineStr"/>
       <c r="F28" s="7" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>10 dias</t>
         </is>
       </c>
       <c r="H28" s="11" t="n"/>
       <c r="I28" s="7" t="inlineStr">
         <is>
-          <t>Inclusos nos preços. quando o material for entregue fora do estado de são paulo a diferença dda aliquota de icms ficará por conta do cliente.</t>
+          <t>20/12/2023</t>
         </is>
       </c>
       <c r="K28" s="11" t="n"/>
       <c r="L28" s="7" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>01/04/2025</t>
         </is>
       </c>
       <c r="N28" s="11" t="n"/>
-      <c r="O28" s="3" t="n"/>
-      <c r="P28" s="3" t="n"/>
-      <c r="Q28" s="4" t="n"/>
+      <c r="O28" s="7" t="inlineStr">
+        <is>
+          <t>10 dias</t>
+        </is>
+      </c>
+      <c r="Q28" s="11" t="n"/>
       <c r="R28" s="3" t="n"/>
       <c r="S28" s="3" t="n"/>
-    </row>
-    <row r="29" ht="65" customHeight="1">
-      <c r="A29" s="7" t="inlineStr"/>
-      <c r="B29" s="7" t="inlineStr"/>
-      <c r="C29" s="7" t="inlineStr">
-        <is>
-          <t>Local de entrega</t>
-        </is>
-      </c>
-      <c r="D29" s="7" t="inlineStr"/>
-      <c r="E29" s="12" t="inlineStr"/>
-      <c r="F29" s="7" t="inlineStr">
-        <is>
-          <t>Campo-belo-sp</t>
-        </is>
-      </c>
-      <c r="H29" s="11" t="n"/>
-      <c r="I29" s="7" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="K29" s="11" t="n"/>
-      <c r="L29" s="7" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="N29" s="11" t="n"/>
-      <c r="O29" s="3" t="n"/>
-      <c r="P29" s="3" t="n"/>
-      <c r="Q29" s="4" t="n"/>
-      <c r="R29" s="3" t="n"/>
-      <c r="S29" s="3" t="n"/>
-    </row>
-    <row r="30" ht="65" customHeight="1">
-      <c r="A30" s="7" t="inlineStr"/>
-      <c r="B30" s="7" t="inlineStr"/>
-      <c r="C30" s="7" t="inlineStr">
-        <is>
-          <t>Política de cobrança de pallets</t>
-        </is>
-      </c>
-      <c r="D30" s="7" t="inlineStr"/>
-      <c r="E30" s="12" t="inlineStr"/>
-      <c r="F30" s="7" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
+      <c r="T28" s="4" t="n"/>
+      <c r="U28" s="3" t="n"/>
+      <c r="V28" s="3" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="1" t="n"/>
+      <c r="C29" s="1" t="n"/>
+      <c r="D29" s="1" t="n"/>
+      <c r="E29" s="1" t="n"/>
+      <c r="F29" s="1" t="n"/>
+      <c r="G29" s="1" t="n"/>
+      <c r="H29" s="1" t="n"/>
+      <c r="I29" s="1" t="n"/>
+      <c r="J29" s="1" t="n"/>
+      <c r="K29" s="1" t="n"/>
+      <c r="L29" s="1" t="n"/>
+      <c r="M29" s="1" t="n"/>
+      <c r="N29" s="1" t="n"/>
+      <c r="O29" s="1" t="n"/>
+      <c r="P29" s="1" t="n"/>
+      <c r="Q29" s="1" t="n"/>
+      <c r="R29" s="1" t="n"/>
+      <c r="S29" s="1" t="n"/>
+      <c r="T29" s="1" t="n"/>
+      <c r="U29" s="1" t="n"/>
+      <c r="V29" s="1" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Quadro de sócios e administradores</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr"/>
+      <c r="C30" s="2" t="inlineStr"/>
+      <c r="D30" s="2" t="inlineStr"/>
+      <c r="E30" s="5" t="inlineStr"/>
+      <c r="F30" s="2" t="inlineStr"/>
       <c r="H30" s="11" t="n"/>
-      <c r="I30" s="7" t="inlineStr">
-        <is>
-          <t>Caso o pallet fique retido na obra, haverá cobrança imediata no valor de r$ 55,00 por pallet. para vendas com retira, o valor será de r$ 55,00, com pagamento no momento da retirada.</t>
-        </is>
-      </c>
+      <c r="I30" s="2" t="inlineStr"/>
       <c r="K30" s="11" t="n"/>
-      <c r="L30" s="7" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
+      <c r="L30" s="2" t="inlineStr"/>
       <c r="N30" s="11" t="n"/>
-      <c r="O30" s="3" t="n"/>
-      <c r="P30" s="3" t="n"/>
-      <c r="Q30" s="4" t="n"/>
+      <c r="O30" s="2" t="inlineStr"/>
+      <c r="Q30" s="11" t="n"/>
       <c r="R30" s="3" t="n"/>
       <c r="S30" s="3" t="n"/>
-    </row>
-    <row r="31" ht="65" customHeight="1">
-      <c r="A31" s="7" t="inlineStr"/>
-      <c r="B31" s="7" t="inlineStr"/>
-      <c r="C31" s="7" t="inlineStr">
-        <is>
-          <t>Prazo de entrega</t>
-        </is>
-      </c>
-      <c r="D31" s="7" t="inlineStr"/>
-      <c r="E31" s="12" t="inlineStr"/>
-      <c r="F31" s="7" t="inlineStr">
-        <is>
-          <t>Em até 20 dias úteis após confirmação do pedido de compra</t>
+      <c r="T30" s="4" t="n"/>
+      <c r="U30" s="3" t="n"/>
+      <c r="V30" s="3" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>Este CNPJ tem sócio em comum com outro CNPJ ?</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr"/>
+      <c r="C31" s="3" t="inlineStr"/>
+      <c r="D31" s="3" t="inlineStr"/>
+      <c r="E31" s="4" t="inlineStr"/>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
       <c r="H31" s="11" t="n"/>
-      <c r="I31" s="7" t="inlineStr">
-        <is>
-          <t>15 dias úteis</t>
-        </is>
-      </c>
+      <c r="I31" s="3" t="inlineStr"/>
       <c r="K31" s="11" t="n"/>
-      <c r="L31" s="7" t="inlineStr">
-        <is>
-          <t>25 dias úteis</t>
+      <c r="L31" s="3" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
       <c r="N31" s="11" t="n"/>
-      <c r="O31" s="3" t="n"/>
-      <c r="P31" s="3" t="n"/>
-      <c r="Q31" s="4" t="n"/>
+      <c r="O31" s="3" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Q31" s="11" t="n"/>
       <c r="R31" s="3" t="n"/>
       <c r="S31" s="3" t="n"/>
-    </row>
-    <row r="32" ht="65" customHeight="1">
-      <c r="A32" s="7" t="inlineStr"/>
-      <c r="B32" s="7" t="inlineStr"/>
-      <c r="C32" s="7" t="inlineStr">
-        <is>
-          <t>Previsão de faturamento</t>
-        </is>
-      </c>
-      <c r="D32" s="7" t="inlineStr"/>
-      <c r="E32" s="12" t="inlineStr"/>
+      <c r="T31" s="4" t="n"/>
+      <c r="U31" s="3" t="n"/>
+      <c r="V31" s="3" t="n"/>
+    </row>
+    <row r="32" ht="30" customHeight="1">
+      <c r="A32" s="3" t="inlineStr"/>
+      <c r="B32" s="3" t="inlineStr"/>
+      <c r="C32" s="3" t="inlineStr"/>
+      <c r="D32" s="3" t="inlineStr"/>
+      <c r="E32" s="4" t="inlineStr"/>
       <c r="F32" s="7" t="inlineStr">
         <is>
-          <t>15/01/2025</t>
+          <t>Bruno Romeiro Bracetti, Sócio-administrador</t>
         </is>
       </c>
       <c r="H32" s="11" t="n"/>
@@ -1665,1021 +1782,1124 @@
       <c r="K32" s="11" t="n"/>
       <c r="L32" s="7" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Fabiano Carrieri, Sócio-administrador</t>
         </is>
       </c>
       <c r="N32" s="11" t="n"/>
-      <c r="O32" s="3" t="n"/>
-      <c r="P32" s="3" t="n"/>
-      <c r="Q32" s="4" t="n"/>
+      <c r="O32" s="7" t="inlineStr">
+        <is>
+          <t>Admir Nava Ferreira, Sócio-administrador</t>
+        </is>
+      </c>
+      <c r="Q32" s="11" t="n"/>
       <c r="R32" s="3" t="n"/>
       <c r="S32" s="3" t="n"/>
-    </row>
-    <row r="33" ht="65" customHeight="1">
-      <c r="A33" s="7" t="inlineStr"/>
-      <c r="B33" s="7" t="inlineStr"/>
-      <c r="C33" s="7" t="inlineStr">
-        <is>
-          <t>Reajuste</t>
-        </is>
-      </c>
-      <c r="D33" s="7" t="inlineStr"/>
-      <c r="E33" s="12" t="inlineStr"/>
-      <c r="F33" s="7" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
+      <c r="T32" s="4" t="n"/>
+      <c r="U32" s="3" t="n"/>
+      <c r="V32" s="3" t="n"/>
+    </row>
+    <row r="33" ht="30" customHeight="1">
+      <c r="A33" s="3" t="inlineStr"/>
+      <c r="B33" s="3" t="inlineStr"/>
+      <c r="C33" s="3" t="inlineStr"/>
+      <c r="D33" s="3" t="inlineStr"/>
+      <c r="E33" s="4" t="inlineStr"/>
+      <c r="F33" s="7" t="inlineStr"/>
       <c r="H33" s="11" t="n"/>
-      <c r="I33" s="7" t="inlineStr">
-        <is>
-          <t>Conforme variação do preço do cimento e agregados</t>
-        </is>
-      </c>
+      <c r="I33" s="7" t="inlineStr"/>
       <c r="K33" s="11" t="n"/>
       <c r="L33" s="7" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Jose Carlos Carrieri, Sócio-administrador</t>
         </is>
       </c>
       <c r="N33" s="11" t="n"/>
-      <c r="O33" s="3" t="n"/>
-      <c r="P33" s="3" t="n"/>
-      <c r="Q33" s="4" t="n"/>
+      <c r="O33" s="7" t="inlineStr"/>
+      <c r="Q33" s="11" t="n"/>
       <c r="R33" s="3" t="n"/>
       <c r="S33" s="3" t="n"/>
-    </row>
-    <row r="34" ht="65" customHeight="1">
-      <c r="A34" s="7" t="inlineStr"/>
-      <c r="B34" s="7" t="inlineStr"/>
-      <c r="C34" s="7" t="inlineStr">
-        <is>
-          <t>Validade da proposta</t>
-        </is>
-      </c>
-      <c r="D34" s="7" t="inlineStr"/>
-      <c r="E34" s="12" t="inlineStr"/>
-      <c r="F34" s="7" t="inlineStr">
-        <is>
-          <t>15 dias</t>
-        </is>
-      </c>
-      <c r="H34" s="11" t="n"/>
-      <c r="I34" s="7" t="inlineStr">
-        <is>
-          <t>1 dias</t>
-        </is>
-      </c>
-      <c r="K34" s="11" t="n"/>
-      <c r="L34" s="7" t="inlineStr">
-        <is>
-          <t>10 dias corridos, a partir de sua emissão</t>
-        </is>
-      </c>
-      <c r="N34" s="11" t="n"/>
-      <c r="O34" s="3" t="n"/>
-      <c r="P34" s="3" t="n"/>
-      <c r="Q34" s="4" t="n"/>
-      <c r="R34" s="3" t="n"/>
-      <c r="S34" s="3" t="n"/>
-    </row>
-    <row r="35" ht="65" customHeight="1">
-      <c r="A35" s="7" t="inlineStr"/>
-      <c r="B35" s="7" t="inlineStr"/>
-      <c r="C35" s="7" t="inlineStr">
-        <is>
-          <t>Vencimento</t>
-        </is>
-      </c>
-      <c r="D35" s="7" t="inlineStr"/>
-      <c r="E35" s="12" t="inlineStr"/>
-      <c r="F35" s="7" t="inlineStr">
-        <is>
-          <t>15/01/2025</t>
-        </is>
-      </c>
+      <c r="T33" s="4" t="n"/>
+      <c r="U33" s="3" t="n"/>
+      <c r="V33" s="3" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="1" t="n"/>
+      <c r="C34" s="1" t="n"/>
+      <c r="D34" s="1" t="n"/>
+      <c r="E34" s="1" t="n"/>
+      <c r="F34" s="1" t="n"/>
+      <c r="G34" s="1" t="n"/>
+      <c r="H34" s="1" t="n"/>
+      <c r="I34" s="1" t="n"/>
+      <c r="J34" s="1" t="n"/>
+      <c r="K34" s="1" t="n"/>
+      <c r="L34" s="1" t="n"/>
+      <c r="M34" s="1" t="n"/>
+      <c r="N34" s="1" t="n"/>
+      <c r="O34" s="1" t="n"/>
+      <c r="P34" s="1" t="n"/>
+      <c r="Q34" s="1" t="n"/>
+      <c r="R34" s="1" t="n"/>
+      <c r="S34" s="1" t="n"/>
+      <c r="T34" s="1" t="n"/>
+      <c r="U34" s="1" t="n"/>
+      <c r="V34" s="1" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*******IGNORE ESTA PARTE DO RELATORIO (ela sera eventualmente consultada pelos desenvolvedores deste aplicativo para esclarecer duvidas sobre o comportamento da IA) </t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr"/>
+      <c r="C35" s="2" t="inlineStr"/>
+      <c r="D35" s="2" t="inlineStr"/>
+      <c r="E35" s="5" t="inlineStr"/>
+      <c r="F35" s="13" t="inlineStr"/>
       <c r="H35" s="11" t="n"/>
-      <c r="I35" s="7" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
+      <c r="I35" s="13" t="inlineStr"/>
       <c r="K35" s="11" t="n"/>
-      <c r="L35" s="7" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
+      <c r="L35" s="13" t="inlineStr"/>
       <c r="N35" s="11" t="n"/>
-      <c r="O35" s="3" t="n"/>
-      <c r="P35" s="3" t="n"/>
-      <c r="Q35" s="4" t="n"/>
+      <c r="O35" s="13" t="inlineStr"/>
+      <c r="Q35" s="11" t="n"/>
       <c r="R35" s="3" t="n"/>
       <c r="S35" s="3" t="n"/>
+      <c r="T35" s="4" t="n"/>
+      <c r="U35" s="3" t="n"/>
+      <c r="V35" s="3" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
-      <c r="B36" s="1" t="n"/>
-      <c r="C36" s="1" t="n"/>
-      <c r="D36" s="1" t="n"/>
-      <c r="E36" s="1" t="n"/>
-      <c r="F36" s="1" t="n"/>
-      <c r="G36" s="1" t="n"/>
-      <c r="H36" s="1" t="n"/>
-      <c r="I36" s="1" t="n"/>
-      <c r="J36" s="1" t="n"/>
-      <c r="K36" s="1" t="n"/>
-      <c r="L36" s="1" t="n"/>
-      <c r="M36" s="1" t="n"/>
-      <c r="N36" s="1" t="n"/>
-      <c r="O36" s="1" t="n"/>
-      <c r="P36" s="1" t="n"/>
-      <c r="Q36" s="1" t="n"/>
-      <c r="R36" s="1" t="n"/>
-      <c r="S36" s="1" t="n"/>
+      <c r="A36" s="3" t="inlineStr"/>
+      <c r="B36" s="3" t="inlineStr"/>
+      <c r="C36" s="3" t="inlineStr"/>
+      <c r="D36" s="3" t="inlineStr"/>
+      <c r="E36" s="4" t="inlineStr"/>
+      <c r="F36" s="7" t="inlineStr"/>
+      <c r="H36" s="11" t="n"/>
+      <c r="I36" s="7" t="inlineStr"/>
+      <c r="K36" s="11" t="n"/>
+      <c r="L36" s="7" t="inlineStr"/>
+      <c r="N36" s="11" t="n"/>
+      <c r="O36" s="7" t="inlineStr"/>
+      <c r="Q36" s="11" t="n"/>
+      <c r="R36" s="3" t="n"/>
+      <c r="S36" s="3" t="n"/>
+      <c r="T36" s="4" t="n"/>
+      <c r="U36" s="3" t="n"/>
+      <c r="V36" s="3" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>Quadro de socios e administradores</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr"/>
-      <c r="C37" s="2" t="inlineStr"/>
-      <c r="D37" s="2" t="inlineStr"/>
-      <c r="E37" s="5" t="inlineStr"/>
-      <c r="F37" s="2" t="inlineStr"/>
+          <t>Produto 1</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr"/>
+      <c r="C37" s="3" t="inlineStr"/>
+      <c r="D37" s="3" t="inlineStr"/>
+      <c r="E37" s="4" t="inlineStr"/>
+      <c r="F37" s="7" t="inlineStr"/>
       <c r="H37" s="11" t="n"/>
-      <c r="I37" s="2" t="inlineStr"/>
+      <c r="I37" s="7" t="inlineStr"/>
       <c r="K37" s="11" t="n"/>
-      <c r="L37" s="2" t="inlineStr"/>
+      <c r="L37" s="7" t="inlineStr"/>
       <c r="N37" s="11" t="n"/>
-      <c r="O37" s="3" t="n"/>
-      <c r="P37" s="3" t="n"/>
-      <c r="Q37" s="4" t="n"/>
+      <c r="O37" s="7" t="inlineStr"/>
+      <c r="Q37" s="11" t="n"/>
       <c r="R37" s="3" t="n"/>
       <c r="S37" s="3" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="inlineStr">
-        <is>
-          <t>Propostas em que ha socios em comum :</t>
-        </is>
-      </c>
-      <c r="B38" s="3" t="inlineStr"/>
-      <c r="C38" s="3" t="inlineStr"/>
-      <c r="D38" s="3" t="inlineStr"/>
-      <c r="E38" s="4" t="inlineStr"/>
-      <c r="F38" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H38" s="11" t="n"/>
-      <c r="I38" s="3" t="inlineStr"/>
-      <c r="K38" s="11" t="n"/>
-      <c r="L38" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="N38" s="11" t="n"/>
-      <c r="O38" s="3" t="n"/>
-      <c r="P38" s="3" t="n"/>
-      <c r="Q38" s="4" t="n"/>
+      <c r="T37" s="4" t="n"/>
+      <c r="U37" s="3" t="n"/>
+      <c r="V37" s="3" t="n"/>
+    </row>
+    <row r="38" ht="90" customHeight="1">
+      <c r="A38" s="14" t="inlineStr">
+        <is>
+          <t>Descrição do produto demandado na requisição de compra</t>
+        </is>
+      </c>
+      <c r="B38" s="7" t="inlineStr"/>
+      <c r="C38" s="7" t="inlineStr"/>
+      <c r="D38" s="7" t="inlineStr"/>
+      <c r="E38" s="12" t="inlineStr"/>
+      <c r="F38" s="7" t="inlineStr">
+        <is>
+          <t>Descrição: Argamassa/Rejunte Industrializado; Produto: Argamassa Assentamento; Fabricante: Ecomix; Referencia: Abnt Nbr 14725:2012; Cor: Cinza; Apresentacao: 50 Kg</t>
+        </is>
+      </c>
+      <c r="G38" s="15" t="n"/>
+      <c r="H38" s="16" t="n"/>
+      <c r="I38" s="7" t="inlineStr">
+        <is>
+          <t>Descrição: Argamassa/Rejunte Industrializado; Produto: Argamassa Assentamento; Fabricante: Ecomix; Referencia: Abnt Nbr 14725:2012; Cor: Cinza; Apresentacao: 50 Kg</t>
+        </is>
+      </c>
+      <c r="J38" s="15" t="n"/>
+      <c r="K38" s="16" t="n"/>
+      <c r="L38" s="7" t="inlineStr">
+        <is>
+          <t>Descrição: Argamassa/Rejunte Industrializado; Produto: Argamassa Assentamento; Fabricante: Ecomix; Referencia: Abnt Nbr 14725:2012; Cor: Cinza; Apresentacao: 50 Kg</t>
+        </is>
+      </c>
+      <c r="M38" s="15" t="n"/>
+      <c r="N38" s="16" t="n"/>
+      <c r="O38" s="7" t="inlineStr">
+        <is>
+          <t>Descrição: Argamassa/Rejunte Industrializado; Produto: Argamassa Assentamento; Fabricante: Ecomix; Referencia: Abnt Nbr 14725:2012; Cor: Cinza; Apresentacao: 50 Kg</t>
+        </is>
+      </c>
+      <c r="P38" s="15" t="n"/>
+      <c r="Q38" s="16" t="n"/>
       <c r="R38" s="3" t="n"/>
       <c r="S38" s="3" t="n"/>
-    </row>
-    <row r="39" ht="30" customHeight="1">
-      <c r="A39" s="3" t="inlineStr"/>
-      <c r="B39" s="3" t="inlineStr"/>
-      <c r="C39" s="3" t="inlineStr"/>
-      <c r="D39" s="3" t="inlineStr"/>
-      <c r="E39" s="4" t="inlineStr"/>
+      <c r="T38" s="4" t="n"/>
+      <c r="U38" s="3" t="n"/>
+      <c r="V38" s="3" t="n"/>
+    </row>
+    <row r="39" ht="90" customHeight="1">
+      <c r="A39" s="14" t="inlineStr">
+        <is>
+          <t>Descrição do produto oferecido na proposta (que a IA associou a este produto demandado)</t>
+        </is>
+      </c>
+      <c r="B39" s="7" t="inlineStr"/>
+      <c r="C39" s="7" t="inlineStr"/>
+      <c r="D39" s="7" t="inlineStr"/>
+      <c r="E39" s="12" t="inlineStr"/>
       <c r="F39" s="7" t="inlineStr">
         <is>
-          <t>Anibal Vido, Sócio-administrador</t>
-        </is>
-      </c>
-      <c r="H39" s="11" t="n"/>
+          <t>Argamassa Ecomix 50 Kg</t>
+        </is>
+      </c>
+      <c r="G39" s="15" t="n"/>
+      <c r="H39" s="16" t="n"/>
       <c r="I39" s="7" t="inlineStr">
         <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="K39" s="11" t="n"/>
-      <c r="L39" s="7" t="inlineStr">
-        <is>
-          <t>Luciana Maria Silverio Gusmao, Sócio</t>
-        </is>
-      </c>
-      <c r="N39" s="11" t="n"/>
-      <c r="O39" s="3" t="n"/>
-      <c r="P39" s="3" t="n"/>
-      <c r="Q39" s="4" t="n"/>
+          <t>Votomassa Multiplo Uso 50Kg</t>
+        </is>
+      </c>
+      <c r="J39" s="15" t="n"/>
+      <c r="K39" s="16" t="n"/>
+      <c r="L39" s="7" t="inlineStr"/>
+      <c r="M39" s="15" t="n"/>
+      <c r="N39" s="16" t="n"/>
+      <c r="O39" s="7" t="inlineStr">
+        <is>
+          <t>Argamassa Colante Assentamento</t>
+        </is>
+      </c>
+      <c r="P39" s="15" t="n"/>
+      <c r="Q39" s="16" t="n"/>
       <c r="R39" s="3" t="n"/>
       <c r="S39" s="3" t="n"/>
-    </row>
-    <row r="40" ht="30" customHeight="1">
-      <c r="A40" s="3" t="inlineStr"/>
-      <c r="B40" s="3" t="inlineStr"/>
-      <c r="C40" s="3" t="inlineStr"/>
-      <c r="D40" s="3" t="inlineStr"/>
-      <c r="E40" s="4" t="inlineStr"/>
-      <c r="F40" s="7" t="inlineStr"/>
-      <c r="H40" s="11" t="n"/>
-      <c r="I40" s="7" t="inlineStr"/>
-      <c r="K40" s="11" t="n"/>
-      <c r="L40" s="7" t="inlineStr">
-        <is>
-          <t>Luis Fernando Andrade Da Silva, Sócio-administrador</t>
-        </is>
-      </c>
-      <c r="N40" s="11" t="n"/>
-      <c r="O40" s="3" t="n"/>
-      <c r="P40" s="3" t="n"/>
-      <c r="Q40" s="4" t="n"/>
+      <c r="T39" s="4" t="n"/>
+      <c r="U39" s="3" t="n"/>
+      <c r="V39" s="3" t="n"/>
+    </row>
+    <row r="40" ht="90" customHeight="1">
+      <c r="A40" s="14" t="inlineStr">
+        <is>
+          <t>Raciocinio usado pela IA para associar este produto demandado com este produto oferecido</t>
+        </is>
+      </c>
+      <c r="B40" s="7" t="inlineStr"/>
+      <c r="C40" s="7" t="inlineStr"/>
+      <c r="D40" s="7" t="inlineStr"/>
+      <c r="E40" s="12" t="inlineStr"/>
+      <c r="F40" s="7" t="inlineStr">
+        <is>
+          <t>A associação foi feita com base na semelhança do fabricante ('Ecomix'), tipo de produto ('Argamassa') e apresentação ('50 Kg').</t>
+        </is>
+      </c>
+      <c r="G40" s="15" t="n"/>
+      <c r="H40" s="16" t="n"/>
+      <c r="I40" s="7" t="inlineStr">
+        <is>
+          <t>A associação foi feita com base na similaridade do tipo de produto ('ARGAMASSA ASSENTAMENTO' vs 'VOTOMASSA MULTIPLO USO') e na apresentação (50KG). A quantidade ofertada (800 SC = 40.000 KG) é diferente da demandada (150.000 KG).</t>
+        </is>
+      </c>
+      <c r="J40" s="15" t="n"/>
+      <c r="K40" s="16" t="n"/>
+      <c r="L40" s="7" t="inlineStr"/>
+      <c r="M40" s="15" t="n"/>
+      <c r="N40" s="16" t="n"/>
+      <c r="O40" s="7" t="inlineStr">
+        <is>
+          <t>A associação foi feita com base na correspondência do fabricante (ECOMIX) e do tipo de produto (ARGAMASSA ASSENTAMENTO). A quantidade demandada de 150.000 KG é equivalente a 3.000 sacos de 50 KG, o que corresponde à quantidade ofertada de 3.000 unidades.</t>
+        </is>
+      </c>
+      <c r="P40" s="15" t="n"/>
+      <c r="Q40" s="16" t="n"/>
       <c r="R40" s="3" t="n"/>
       <c r="S40" s="3" t="n"/>
-    </row>
-    <row r="41" ht="30" customHeight="1">
-      <c r="A41" s="3" t="inlineStr"/>
+      <c r="T40" s="4" t="n"/>
+      <c r="U40" s="3" t="n"/>
+      <c r="V40" s="3" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>Semelhança entre o produto demandado e o produto oferecido</t>
+        </is>
+      </c>
       <c r="B41" s="3" t="inlineStr"/>
       <c r="C41" s="3" t="inlineStr"/>
       <c r="D41" s="3" t="inlineStr"/>
       <c r="E41" s="4" t="inlineStr"/>
-      <c r="F41" s="7" t="inlineStr"/>
+      <c r="F41" s="7" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
       <c r="H41" s="11" t="n"/>
-      <c r="I41" s="7" t="inlineStr"/>
+      <c r="I41" s="7" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
       <c r="K41" s="11" t="n"/>
-      <c r="L41" s="7" t="inlineStr">
-        <is>
-          <t>Valter Braz Gusmao, Sócio-administrador</t>
-        </is>
-      </c>
+      <c r="L41" s="7" t="inlineStr"/>
       <c r="N41" s="11" t="n"/>
-      <c r="O41" s="3" t="n"/>
-      <c r="P41" s="3" t="n"/>
-      <c r="Q41" s="4" t="n"/>
+      <c r="O41" s="7" t="inlineStr">
+        <is>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="Q41" s="11" t="n"/>
       <c r="R41" s="3" t="n"/>
       <c r="S41" s="3" t="n"/>
+      <c r="T41" s="4" t="n"/>
+      <c r="U41" s="3" t="n"/>
+      <c r="V41" s="3" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n"/>
-      <c r="B42" s="1" t="n"/>
-      <c r="C42" s="1" t="n"/>
-      <c r="D42" s="1" t="n"/>
-      <c r="E42" s="1" t="n"/>
-      <c r="F42" s="1" t="n"/>
-      <c r="G42" s="1" t="n"/>
-      <c r="H42" s="1" t="n"/>
-      <c r="I42" s="1" t="n"/>
-      <c r="J42" s="1" t="n"/>
-      <c r="K42" s="1" t="n"/>
-      <c r="L42" s="1" t="n"/>
-      <c r="M42" s="1" t="n"/>
-      <c r="N42" s="1" t="n"/>
-      <c r="O42" s="1" t="n"/>
-      <c r="P42" s="1" t="n"/>
-      <c r="Q42" s="1" t="n"/>
-      <c r="R42" s="1" t="n"/>
-      <c r="S42" s="1" t="n"/>
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>Quantidade demandada na requisicao de compra</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="inlineStr"/>
+      <c r="C42" s="3" t="inlineStr"/>
+      <c r="D42" s="3" t="inlineStr"/>
+      <c r="E42" s="4" t="inlineStr"/>
+      <c r="F42" s="7" t="inlineStr">
+        <is>
+          <t>150000</t>
+        </is>
+      </c>
+      <c r="H42" s="11" t="n"/>
+      <c r="I42" s="7" t="inlineStr">
+        <is>
+          <t>150000</t>
+        </is>
+      </c>
+      <c r="K42" s="11" t="n"/>
+      <c r="L42" s="7" t="inlineStr">
+        <is>
+          <t>150000</t>
+        </is>
+      </c>
+      <c r="N42" s="11" t="n"/>
+      <c r="O42" s="7" t="inlineStr">
+        <is>
+          <t>150000</t>
+        </is>
+      </c>
+      <c r="Q42" s="11" t="n"/>
+      <c r="R42" s="3" t="n"/>
+      <c r="S42" s="3" t="n"/>
+      <c r="T42" s="4" t="n"/>
+      <c r="U42" s="3" t="n"/>
+      <c r="V42" s="3" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">*******IGNORE ESTA PARTE DO RELATORIO (ela será eventualmente consultada pelos desenvolvedores deste aplicativo para esclarecer duvidas sobre o comportamento da IA) </t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr"/>
-      <c r="C43" s="2" t="inlineStr"/>
-      <c r="D43" s="2" t="inlineStr"/>
-      <c r="E43" s="5" t="inlineStr"/>
-      <c r="F43" s="2" t="inlineStr"/>
-      <c r="G43" s="2" t="inlineStr"/>
-      <c r="H43" s="5" t="inlineStr"/>
-      <c r="I43" s="2" t="inlineStr"/>
-      <c r="J43" s="2" t="inlineStr"/>
-      <c r="K43" s="4" t="n"/>
-      <c r="L43" s="3" t="n"/>
-      <c r="M43" s="3" t="n"/>
-      <c r="N43" s="4" t="n"/>
-      <c r="O43" s="3" t="n"/>
-      <c r="P43" s="3" t="n"/>
-      <c r="Q43" s="4" t="n"/>
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>Quantidade oferecida na proposta</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr"/>
+      <c r="C43" s="3" t="inlineStr"/>
+      <c r="D43" s="3" t="inlineStr"/>
+      <c r="E43" s="4" t="inlineStr"/>
+      <c r="F43" s="7" t="inlineStr">
+        <is>
+          <t>3000.0</t>
+        </is>
+      </c>
+      <c r="H43" s="11" t="n"/>
+      <c r="I43" s="7" t="inlineStr">
+        <is>
+          <t>800.0</t>
+        </is>
+      </c>
+      <c r="K43" s="11" t="n"/>
+      <c r="L43" s="7" t="inlineStr"/>
+      <c r="N43" s="11" t="n"/>
+      <c r="O43" s="7" t="inlineStr">
+        <is>
+          <t>3000.0</t>
+        </is>
+      </c>
+      <c r="Q43" s="11" t="n"/>
       <c r="R43" s="3" t="n"/>
       <c r="S43" s="3" t="n"/>
+      <c r="T43" s="4" t="n"/>
+      <c r="U43" s="3" t="n"/>
+      <c r="V43" s="3" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>Cod Produto</t>
-        </is>
-      </c>
-      <c r="B44" s="3" t="inlineStr">
-        <is>
-          <t>Fornecedor</t>
-        </is>
-      </c>
-      <c r="C44" s="3" t="inlineStr">
-        <is>
-          <t>Preço_unitario</t>
-        </is>
-      </c>
-      <c r="D44" s="3" t="inlineStr">
-        <is>
-          <t>Quantidade</t>
-        </is>
-      </c>
-      <c r="E44" s="4" t="inlineStr">
-        <is>
-          <t>Semelhança</t>
-        </is>
-      </c>
-      <c r="F44" s="3" t="inlineStr">
-        <is>
-          <t>Descrição</t>
-        </is>
-      </c>
-      <c r="G44" s="3" t="inlineStr">
-        <is>
-          <t>Num_ordem</t>
-        </is>
-      </c>
-      <c r="H44" s="4" t="inlineStr">
-        <is>
-          <t>Reasoning</t>
-        </is>
-      </c>
-      <c r="I44" s="3" t="inlineStr"/>
-      <c r="J44" s="3" t="inlineStr"/>
-      <c r="K44" s="4" t="n"/>
-      <c r="L44" s="3" t="n"/>
-      <c r="M44" s="3" t="n"/>
-      <c r="N44" s="4" t="n"/>
-      <c r="O44" s="3" t="n"/>
-      <c r="P44" s="3" t="n"/>
-      <c r="Q44" s="4" t="n"/>
+          <t>Unidade da quantidade demandada na requisicao de compra</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="inlineStr"/>
+      <c r="C44" s="3" t="inlineStr"/>
+      <c r="D44" s="3" t="inlineStr"/>
+      <c r="E44" s="4" t="inlineStr"/>
+      <c r="F44" s="7" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H44" s="11" t="n"/>
+      <c r="I44" s="7" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="K44" s="11" t="n"/>
+      <c r="L44" s="7" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="N44" s="11" t="n"/>
+      <c r="O44" s="7" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="Q44" s="11" t="n"/>
       <c r="R44" s="3" t="n"/>
       <c r="S44" s="3" t="n"/>
+      <c r="T44" s="4" t="n"/>
+      <c r="U44" s="3" t="n"/>
+      <c r="V44" s="3" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="n"/>
-      <c r="B45" s="3" t="n"/>
-      <c r="C45" s="3" t="n"/>
-      <c r="D45" s="3" t="n"/>
-      <c r="E45" s="4" t="n"/>
-      <c r="F45" s="3" t="n"/>
-      <c r="G45" s="3" t="n"/>
-      <c r="H45" s="4" t="n"/>
-      <c r="I45" s="3" t="n"/>
-      <c r="J45" s="3" t="n"/>
-      <c r="K45" s="4" t="n"/>
-      <c r="L45" s="3" t="n"/>
-      <c r="M45" s="3" t="n"/>
-      <c r="N45" s="4" t="n"/>
-      <c r="O45" s="3" t="n"/>
-      <c r="P45" s="3" t="n"/>
-      <c r="Q45" s="4" t="n"/>
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>Unidade da quantidade oferecida na proposta</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="inlineStr"/>
+      <c r="C45" s="3" t="inlineStr"/>
+      <c r="D45" s="3" t="inlineStr"/>
+      <c r="E45" s="4" t="inlineStr"/>
+      <c r="F45" s="7" t="inlineStr"/>
+      <c r="H45" s="11" t="n"/>
+      <c r="I45" s="7" t="inlineStr"/>
+      <c r="K45" s="11" t="n"/>
+      <c r="L45" s="7" t="inlineStr"/>
+      <c r="N45" s="11" t="n"/>
+      <c r="O45" s="7" t="inlineStr"/>
+      <c r="Q45" s="11" t="n"/>
       <c r="R45" s="3" t="n"/>
       <c r="S45" s="3" t="n"/>
+      <c r="T45" s="4" t="n"/>
+      <c r="U45" s="3" t="n"/>
+      <c r="V45" s="3" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>PDC1</t>
-        </is>
-      </c>
-      <c r="B46" s="3" t="inlineStr">
-        <is>
-          <t>RFP</t>
-        </is>
-      </c>
+          <t>Preço unitario oferecido na proposta</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="inlineStr"/>
       <c r="C46" s="3" t="inlineStr"/>
-      <c r="D46" s="3" t="inlineStr">
-        <is>
-          <t>1521.93</t>
-        </is>
-      </c>
+      <c r="D46" s="3" t="inlineStr"/>
       <c r="E46" s="4" t="inlineStr"/>
-      <c r="F46" s="3" t="inlineStr">
-        <is>
-          <t>Descrição do Produto: GUIA CONCRETO-RUAS/AVENIDAS | TIPO CONCRETO: PRE-MOLDADO | MODELO: RETA | PADRAO: PREFEITURA SAO PAULO | ALTURA: 20 CM | LARGURA MAIOR: 8 CM | COMPRIMENTO: 40 CM</t>
-        </is>
-      </c>
-      <c r="G46" s="3" t="inlineStr"/>
-      <c r="H46" s="4" t="inlineStr"/>
-      <c r="I46" s="3" t="inlineStr"/>
-      <c r="J46" s="3" t="inlineStr"/>
-      <c r="K46" s="4" t="n"/>
-      <c r="L46" s="3" t="n"/>
-      <c r="M46" s="3" t="n"/>
-      <c r="N46" s="4" t="n"/>
-      <c r="O46" s="3" t="n"/>
-      <c r="P46" s="3" t="n"/>
-      <c r="Q46" s="4" t="n"/>
+      <c r="F46" s="7" t="inlineStr">
+        <is>
+          <t>36.91</t>
+        </is>
+      </c>
+      <c r="H46" s="11" t="n"/>
+      <c r="I46" s="7" t="inlineStr">
+        <is>
+          <t>29.9</t>
+        </is>
+      </c>
+      <c r="K46" s="11" t="n"/>
+      <c r="L46" s="7" t="inlineStr"/>
+      <c r="N46" s="11" t="n"/>
+      <c r="O46" s="7" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="Q46" s="11" t="n"/>
       <c r="R46" s="3" t="n"/>
       <c r="S46" s="3" t="n"/>
+      <c r="T46" s="4" t="n"/>
+      <c r="U46" s="3" t="n"/>
+      <c r="V46" s="3" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>PDC1</t>
-        </is>
-      </c>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t>Bimpavi indústria e comércio de artefatos de cimento ltda</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="D47" s="3" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="E47" s="4" t="inlineStr">
-        <is>
-          <t>38%</t>
-        </is>
-      </c>
-      <c r="F47" s="3" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="G47" s="3" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="H47" s="4" t="inlineStr">
-        <is>
-          <t>A similaridade de 37.5% (3 de 8 especificações correspondentes) é inferior ao mínimo de 39% para associação. As dimensões (20x8x40 cm vs 100x30x15 cm) e a quantidade (1521.93 MT vs 1433 MT) são divergentes.</t>
-        </is>
-      </c>
-      <c r="I47" s="3" t="inlineStr"/>
-      <c r="J47" s="3" t="inlineStr"/>
-      <c r="K47" s="4" t="n"/>
-      <c r="L47" s="3" t="n"/>
-      <c r="M47" s="3" t="n"/>
-      <c r="N47" s="4" t="n"/>
-      <c r="O47" s="3" t="n"/>
-      <c r="P47" s="3" t="n"/>
-      <c r="Q47" s="4" t="n"/>
+          <t>Posição em que o produto aparece na proposta</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="inlineStr"/>
+      <c r="C47" s="3" t="inlineStr"/>
+      <c r="D47" s="3" t="inlineStr"/>
+      <c r="E47" s="4" t="inlineStr"/>
+      <c r="F47" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H47" s="11" t="n"/>
+      <c r="I47" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K47" s="11" t="n"/>
+      <c r="L47" s="7" t="inlineStr"/>
+      <c r="N47" s="11" t="n"/>
+      <c r="O47" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q47" s="11" t="n"/>
       <c r="R47" s="3" t="n"/>
       <c r="S47" s="3" t="n"/>
+      <c r="T47" s="4" t="n"/>
+      <c r="U47" s="3" t="n"/>
+      <c r="V47" s="3" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="inlineStr">
-        <is>
-          <t>PDC1</t>
-        </is>
-      </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>Pré-moldados</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t>20.032</t>
-        </is>
-      </c>
-      <c r="D48" s="3" t="inlineStr">
-        <is>
-          <t>84.0</t>
-        </is>
-      </c>
-      <c r="E48" s="4" t="inlineStr">
-        <is>
-          <t>43%</t>
-        </is>
-      </c>
-      <c r="F48" s="3" t="inlineStr">
-        <is>
-          <t>GUIA DE CONCRETO 6,5X20X60 CM</t>
-        </is>
-      </c>
-      <c r="G48" s="3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H48" s="4" t="inlineStr">
-        <is>
-          <t>A associação foi feita com base na correspondência da descrição do produto ('GUIA DE CONCRETO'), tipo de concreto (assumido como 'PRE-MOLDADO' pelo nome da empresa) e altura (20 cm). A similaridade calculada foi de 3/7 (43%). As especificações de largura, comprimento e quantidade não são correspondentes.</t>
-        </is>
-      </c>
-      <c r="I48" s="3" t="inlineStr"/>
-      <c r="J48" s="3" t="inlineStr"/>
-      <c r="K48" s="4" t="n"/>
-      <c r="L48" s="3" t="n"/>
-      <c r="M48" s="3" t="n"/>
-      <c r="N48" s="4" t="n"/>
-      <c r="O48" s="3" t="n"/>
-      <c r="P48" s="3" t="n"/>
-      <c r="Q48" s="4" t="n"/>
+      <c r="A48" s="3" t="inlineStr"/>
+      <c r="B48" s="3" t="inlineStr"/>
+      <c r="C48" s="3" t="inlineStr"/>
+      <c r="D48" s="3" t="inlineStr"/>
+      <c r="E48" s="4" t="inlineStr"/>
+      <c r="F48" s="7" t="inlineStr"/>
+      <c r="H48" s="11" t="n"/>
+      <c r="I48" s="7" t="inlineStr"/>
+      <c r="K48" s="11" t="n"/>
+      <c r="L48" s="7" t="inlineStr"/>
+      <c r="N48" s="11" t="n"/>
+      <c r="O48" s="7" t="inlineStr"/>
+      <c r="Q48" s="11" t="n"/>
       <c r="R48" s="3" t="n"/>
       <c r="S48" s="3" t="n"/>
+      <c r="T48" s="4" t="n"/>
+      <c r="U48" s="3" t="n"/>
+      <c r="V48" s="3" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="inlineStr">
-        <is>
-          <t>PDC1</t>
-        </is>
-      </c>
-      <c r="B49" s="3" t="inlineStr">
-        <is>
-          <t>Drenaltec industria e comercio ltda</t>
-        </is>
-      </c>
-      <c r="C49" s="3" t="inlineStr">
-        <is>
-          <t>49.0</t>
-        </is>
-      </c>
-      <c r="D49" s="3" t="inlineStr">
-        <is>
-          <t>1521.93</t>
-        </is>
-      </c>
-      <c r="E49" s="4" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="F49" s="3" t="inlineStr">
-        <is>
-          <t>MINI GUIA CLASSICO 50 X 20 X 4 &gt;&gt; CINZA NATURAL 120S</t>
-        </is>
-      </c>
-      <c r="G49" s="3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H49" s="4" t="inlineStr">
-        <is>
-          <t>A associação foi feita com base na similaridade de 50% (4/8). Os campos que correspondem são: 'Descrição do Produto' (GUIA), 'TIPO CONCRETO' (PRE-MOLDADO vs CLASSICO), 'ALTURA' (20cm) e 'quantidade_demandada' (1521.93 MT).</t>
-        </is>
-      </c>
-      <c r="I49" s="3" t="inlineStr"/>
-      <c r="J49" s="3" t="inlineStr"/>
-      <c r="K49" s="4" t="n"/>
-      <c r="L49" s="3" t="n"/>
-      <c r="M49" s="3" t="n"/>
-      <c r="N49" s="4" t="n"/>
-      <c r="O49" s="3" t="n"/>
-      <c r="P49" s="3" t="n"/>
-      <c r="Q49" s="4" t="n"/>
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>Produto 2</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="inlineStr"/>
+      <c r="C49" s="3" t="inlineStr"/>
+      <c r="D49" s="3" t="inlineStr"/>
+      <c r="E49" s="4" t="inlineStr"/>
+      <c r="F49" s="7" t="inlineStr"/>
+      <c r="H49" s="11" t="n"/>
+      <c r="I49" s="7" t="inlineStr"/>
+      <c r="K49" s="11" t="n"/>
+      <c r="L49" s="7" t="inlineStr"/>
+      <c r="N49" s="11" t="n"/>
+      <c r="O49" s="7" t="inlineStr"/>
+      <c r="Q49" s="11" t="n"/>
       <c r="R49" s="3" t="n"/>
       <c r="S49" s="3" t="n"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="3" t="n"/>
-      <c r="B50" s="3" t="n"/>
-      <c r="C50" s="3" t="n"/>
-      <c r="D50" s="3" t="n"/>
-      <c r="E50" s="4" t="n"/>
-      <c r="F50" s="3" t="n"/>
-      <c r="G50" s="3" t="n"/>
-      <c r="H50" s="4" t="n"/>
-      <c r="I50" s="3" t="n"/>
-      <c r="J50" s="3" t="n"/>
-      <c r="K50" s="4" t="n"/>
-      <c r="L50" s="3" t="n"/>
-      <c r="M50" s="3" t="n"/>
-      <c r="N50" s="4" t="n"/>
-      <c r="O50" s="3" t="n"/>
-      <c r="P50" s="3" t="n"/>
-      <c r="Q50" s="4" t="n"/>
+      <c r="T49" s="4" t="n"/>
+      <c r="U49" s="3" t="n"/>
+      <c r="V49" s="3" t="n"/>
+    </row>
+    <row r="50" ht="90" customHeight="1">
+      <c r="A50" s="14" t="inlineStr">
+        <is>
+          <t>Descrição do produto demandado na requisição de compra</t>
+        </is>
+      </c>
+      <c r="B50" s="7" t="inlineStr"/>
+      <c r="C50" s="7" t="inlineStr"/>
+      <c r="D50" s="7" t="inlineStr"/>
+      <c r="E50" s="12" t="inlineStr"/>
+      <c r="F50" s="7" t="inlineStr">
+        <is>
+          <t>Descrição: Argamassa/Rejunte Industrializado; Produto: Argamassa Colante; Fabricante: Construcola; Referencia: Int/Ext Aciii; Cor: Cinza; Apresentacao: 20 Kg</t>
+        </is>
+      </c>
+      <c r="G50" s="15" t="n"/>
+      <c r="H50" s="16" t="n"/>
+      <c r="I50" s="7" t="inlineStr">
+        <is>
+          <t>Descrição: Argamassa/Rejunte Industrializado; Produto: Argamassa Colante; Fabricante: Construcola; Referencia: Int/Ext Aciii; Cor: Cinza; Apresentacao: 20 Kg</t>
+        </is>
+      </c>
+      <c r="J50" s="15" t="n"/>
+      <c r="K50" s="16" t="n"/>
+      <c r="L50" s="7" t="inlineStr">
+        <is>
+          <t>Descrição: Argamassa/Rejunte Industrializado; Produto: Argamassa Colante; Fabricante: Construcola; Referencia: Int/Ext Aciii; Cor: Cinza; Apresentacao: 20 Kg</t>
+        </is>
+      </c>
+      <c r="M50" s="15" t="n"/>
+      <c r="N50" s="16" t="n"/>
+      <c r="O50" s="7" t="inlineStr">
+        <is>
+          <t>Descrição: Argamassa/Rejunte Industrializado; Produto: Argamassa Colante; Fabricante: Construcola; Referencia: Int/Ext Aciii; Cor: Cinza; Apresentacao: 20 Kg</t>
+        </is>
+      </c>
+      <c r="P50" s="15" t="n"/>
+      <c r="Q50" s="16" t="n"/>
       <c r="R50" s="3" t="n"/>
       <c r="S50" s="3" t="n"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="3" t="inlineStr">
-        <is>
-          <t>PDC2</t>
-        </is>
-      </c>
-      <c r="B51" s="3" t="inlineStr">
-        <is>
-          <t>RFP</t>
-        </is>
-      </c>
-      <c r="C51" s="3" t="inlineStr"/>
-      <c r="D51" s="3" t="inlineStr">
-        <is>
-          <t>50.00</t>
-        </is>
-      </c>
-      <c r="E51" s="4" t="inlineStr"/>
-      <c r="F51" s="3" t="inlineStr">
-        <is>
-          <t>Descrição do Produto: GUIA CONCRETO-RUAS/AVENIDAS | TIPO CONCRETO: ARMADO | MODELO: REBAIXADA | PADRAO: PREFEITURA SAO PAULO | ALTURA: 30 CM | LARGURA MAIOR: 40 CM | COMPRIMENTO: 60 CM | CARACTERISTICAS ADICIONAIS: COR CINZA CLARO MUNSELL N 6,5</t>
-        </is>
-      </c>
-      <c r="G51" s="3" t="inlineStr"/>
-      <c r="H51" s="4" t="inlineStr"/>
-      <c r="I51" s="3" t="inlineStr"/>
-      <c r="J51" s="3" t="inlineStr"/>
-      <c r="K51" s="4" t="n"/>
-      <c r="L51" s="3" t="n"/>
-      <c r="M51" s="3" t="n"/>
-      <c r="N51" s="4" t="n"/>
-      <c r="O51" s="3" t="n"/>
-      <c r="P51" s="3" t="n"/>
-      <c r="Q51" s="4" t="n"/>
+      <c r="T50" s="4" t="n"/>
+      <c r="U50" s="3" t="n"/>
+      <c r="V50" s="3" t="n"/>
+    </row>
+    <row r="51" ht="90" customHeight="1">
+      <c r="A51" s="14" t="inlineStr">
+        <is>
+          <t>Descrição do produto oferecido na proposta (que a IA associou a este produto demandado)</t>
+        </is>
+      </c>
+      <c r="B51" s="7" t="inlineStr"/>
+      <c r="C51" s="7" t="inlineStr"/>
+      <c r="D51" s="7" t="inlineStr"/>
+      <c r="E51" s="12" t="inlineStr"/>
+      <c r="F51" s="7" t="inlineStr">
+        <is>
+          <t>Argamassa Quartzolit Cinza 20 Kg</t>
+        </is>
+      </c>
+      <c r="G51" s="15" t="n"/>
+      <c r="H51" s="16" t="n"/>
+      <c r="I51" s="7" t="inlineStr">
+        <is>
+          <t>Argam.Aciii Votorantim Cinza Flexivel 20Kg</t>
+        </is>
+      </c>
+      <c r="J51" s="15" t="n"/>
+      <c r="K51" s="16" t="n"/>
+      <c r="L51" s="7" t="inlineStr">
+        <is>
+          <t>Arg.Votoran Aciii Colante.Cinza 20Kg $</t>
+        </is>
+      </c>
+      <c r="M51" s="15" t="n"/>
+      <c r="N51" s="16" t="n"/>
+      <c r="O51" s="7" t="inlineStr">
+        <is>
+          <t>Aciii Arg. Assent. Super Cinza</t>
+        </is>
+      </c>
+      <c r="P51" s="15" t="n"/>
+      <c r="Q51" s="16" t="n"/>
       <c r="R51" s="3" t="n"/>
       <c r="S51" s="3" t="n"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="3" t="inlineStr">
-        <is>
-          <t>PDC2</t>
-        </is>
-      </c>
-      <c r="B52" s="3" t="inlineStr">
-        <is>
-          <t>Bimpavi indústria e comércio de artefatos de cimento ltda</t>
-        </is>
-      </c>
-      <c r="C52" s="3" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="D52" s="3" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="E52" s="4" t="inlineStr">
-        <is>
-          <t>33%</t>
-        </is>
-      </c>
-      <c r="F52" s="3" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="G52" s="3" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="H52" s="4" t="inlineStr">
-        <is>
-          <t>A similaridade de 33.3% (3 de 9 especificações correspondentes) é inferior ao mínimo de 39% para associação. O modelo ('REBAIXADA' vs 'reta'), as dimensões e a quantidade são divergentes.</t>
-        </is>
-      </c>
-      <c r="I52" s="3" t="inlineStr"/>
-      <c r="J52" s="3" t="inlineStr"/>
-      <c r="K52" s="4" t="n"/>
-      <c r="L52" s="3" t="n"/>
-      <c r="M52" s="3" t="n"/>
-      <c r="N52" s="4" t="n"/>
-      <c r="O52" s="3" t="n"/>
-      <c r="P52" s="3" t="n"/>
-      <c r="Q52" s="4" t="n"/>
+      <c r="T51" s="4" t="n"/>
+      <c r="U51" s="3" t="n"/>
+      <c r="V51" s="3" t="n"/>
+    </row>
+    <row r="52" ht="90" customHeight="1">
+      <c r="A52" s="14" t="inlineStr">
+        <is>
+          <t>Raciocinio usado pela IA para associar este produto demandado com este produto oferecido</t>
+        </is>
+      </c>
+      <c r="B52" s="7" t="inlineStr"/>
+      <c r="C52" s="7" t="inlineStr"/>
+      <c r="D52" s="7" t="inlineStr"/>
+      <c r="E52" s="12" t="inlineStr"/>
+      <c r="F52" s="7" t="inlineStr">
+        <is>
+          <t>A associação foi feita com base na semelhança da cor ('Cinza'), apresentação ('20 kg'), quantidade (800 unidades) e tipo de produto ('Argamassa').</t>
+        </is>
+      </c>
+      <c r="G52" s="15" t="n"/>
+      <c r="H52" s="16" t="n"/>
+      <c r="I52" s="7" t="inlineStr">
+        <is>
+          <t>A associação foi feita pela alta similaridade nas especificações: tipo de produto ('ARGAMASSA COLANTE' vs 'ARGAM.ACIII'), referência ('ACIII'), cor ('CINZA') e apresentação ('20KG'). A quantidade ofertada (2000 SC) é diferente da demandada (800 SC).</t>
+        </is>
+      </c>
+      <c r="J52" s="15" t="n"/>
+      <c r="K52" s="16" t="n"/>
+      <c r="L52" s="7" t="inlineStr">
+        <is>
+          <t>A associação foi feita com base na alta semelhança (71%) entre as especificações. O produto oferecido 'ARG.VOTORAN ACIII COLANTE.CINZA 20KG' corresponde ao demandado 'ARGAMASSA COLANTE', referência 'ACIII', cor 'CINZA' e apresentação '20 KG'. Apenas o fabricante ('VOTORAN' vs 'CONSTRUCOLA') e a quantidade (4800 vs 800) são diferentes.</t>
+        </is>
+      </c>
+      <c r="M52" s="15" t="n"/>
+      <c r="N52" s="16" t="n"/>
+      <c r="O52" s="7" t="inlineStr">
+        <is>
+          <t>A associação foi feita com base na correspondência da quantidade (800), referência (ACIII), cor (CINZA) e tipo de produto (ARGAMASSA COLANTE). A única divergência foi o fabricante (ofertado MINERCOLA vs. solicitado CONSTRUCOLA).</t>
+        </is>
+      </c>
+      <c r="P52" s="15" t="n"/>
+      <c r="Q52" s="16" t="n"/>
       <c r="R52" s="3" t="n"/>
       <c r="S52" s="3" t="n"/>
+      <c r="T52" s="4" t="n"/>
+      <c r="U52" s="3" t="n"/>
+      <c r="V52" s="3" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>PDC2</t>
-        </is>
-      </c>
-      <c r="B53" s="3" t="inlineStr">
-        <is>
-          <t>Drenaltec industria e comercio ltda</t>
-        </is>
-      </c>
-      <c r="C53" s="3" t="inlineStr">
-        <is>
-          <t>120.0</t>
-        </is>
-      </c>
-      <c r="D53" s="3" t="inlineStr">
-        <is>
-          <t>1433.0</t>
-        </is>
-      </c>
-      <c r="E53" s="4" t="inlineStr">
-        <is>
-          <t>44%</t>
-        </is>
-      </c>
-      <c r="F53" s="3" t="inlineStr">
-        <is>
-          <t>GUIA PADRÃO PREFEITURA MON 100 X 30 X 15 &gt;&gt; CINZA NATURAL 120S</t>
-        </is>
-      </c>
-      <c r="G53" s="3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H53" s="4" t="inlineStr">
-        <is>
-          <t>A associação foi feita com base na similaridade de 44% (4/9). Os campos que correspondem são: 'Descrição do Produto' (GUIA), 'PADRAO' (PREFEITURA), 'ALTURA' (30cm) e 'CARACTERISTICAS ADICIONAIS' (CINZA CLARO vs CINZA NATURAL).</t>
-        </is>
-      </c>
-      <c r="I53" s="3" t="inlineStr"/>
-      <c r="J53" s="3" t="inlineStr"/>
-      <c r="K53" s="4" t="n"/>
-      <c r="L53" s="3" t="n"/>
-      <c r="M53" s="3" t="n"/>
-      <c r="N53" s="4" t="n"/>
-      <c r="O53" s="3" t="n"/>
-      <c r="P53" s="3" t="n"/>
-      <c r="Q53" s="4" t="n"/>
+          <t>Semelhança entre o produto demandado e o produto oferecido</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="inlineStr"/>
+      <c r="C53" s="3" t="inlineStr"/>
+      <c r="D53" s="3" t="inlineStr"/>
+      <c r="E53" s="4" t="inlineStr"/>
+      <c r="F53" s="7" t="inlineStr">
+        <is>
+          <t>67%</t>
+        </is>
+      </c>
+      <c r="H53" s="11" t="n"/>
+      <c r="I53" s="7" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="K53" s="11" t="n"/>
+      <c r="L53" s="7" t="inlineStr">
+        <is>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="N53" s="11" t="n"/>
+      <c r="O53" s="7" t="inlineStr">
+        <is>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="Q53" s="11" t="n"/>
       <c r="R53" s="3" t="n"/>
       <c r="S53" s="3" t="n"/>
+      <c r="T53" s="4" t="n"/>
+      <c r="U53" s="3" t="n"/>
+      <c r="V53" s="3" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="n"/>
-      <c r="B54" s="3" t="n"/>
-      <c r="C54" s="3" t="n"/>
-      <c r="D54" s="3" t="n"/>
-      <c r="E54" s="4" t="n"/>
-      <c r="F54" s="3" t="n"/>
-      <c r="G54" s="3" t="n"/>
-      <c r="H54" s="4" t="n"/>
-      <c r="I54" s="3" t="n"/>
-      <c r="J54" s="3" t="n"/>
-      <c r="K54" s="4" t="n"/>
-      <c r="L54" s="3" t="n"/>
-      <c r="M54" s="3" t="n"/>
-      <c r="N54" s="4" t="n"/>
-      <c r="O54" s="3" t="n"/>
-      <c r="P54" s="3" t="n"/>
-      <c r="Q54" s="4" t="n"/>
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>Quantidade demandada na requisicao de compra</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="inlineStr"/>
+      <c r="C54" s="3" t="inlineStr"/>
+      <c r="D54" s="3" t="inlineStr"/>
+      <c r="E54" s="4" t="inlineStr"/>
+      <c r="F54" s="7" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="H54" s="11" t="n"/>
+      <c r="I54" s="7" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="K54" s="11" t="n"/>
+      <c r="L54" s="7" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="N54" s="11" t="n"/>
+      <c r="O54" s="7" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="Q54" s="11" t="n"/>
       <c r="R54" s="3" t="n"/>
       <c r="S54" s="3" t="n"/>
+      <c r="T54" s="4" t="n"/>
+      <c r="U54" s="3" t="n"/>
+      <c r="V54" s="3" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>PDC3</t>
-        </is>
-      </c>
-      <c r="B55" s="3" t="inlineStr">
-        <is>
-          <t>RFP</t>
-        </is>
-      </c>
+          <t>Quantidade oferecida na proposta</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="inlineStr"/>
       <c r="C55" s="3" t="inlineStr"/>
-      <c r="D55" s="3" t="inlineStr">
-        <is>
-          <t>1433.00</t>
-        </is>
-      </c>
+      <c r="D55" s="3" t="inlineStr"/>
       <c r="E55" s="4" t="inlineStr"/>
-      <c r="F55" s="3" t="inlineStr">
-        <is>
-          <t>Descrição do Produto: GUIA CONCRETO-RUAS/AVENIDAS | TIPO CONCRETO: PRE-MOLDADO | MODELO: RETA | PADRAO: PREFEITURA SAO PAULO | ALTURA: 30 CM | LARGURA MAIOR: 15 CM | COMPRIMENTO: 100 CM</t>
-        </is>
-      </c>
-      <c r="G55" s="3" t="inlineStr"/>
-      <c r="H55" s="4" t="inlineStr"/>
-      <c r="I55" s="3" t="inlineStr"/>
-      <c r="J55" s="3" t="inlineStr"/>
-      <c r="K55" s="4" t="n"/>
-      <c r="L55" s="3" t="n"/>
-      <c r="M55" s="3" t="n"/>
-      <c r="N55" s="4" t="n"/>
-      <c r="O55" s="3" t="n"/>
-      <c r="P55" s="3" t="n"/>
-      <c r="Q55" s="4" t="n"/>
+      <c r="F55" s="7" t="inlineStr">
+        <is>
+          <t>800.0</t>
+        </is>
+      </c>
+      <c r="H55" s="11" t="n"/>
+      <c r="I55" s="7" t="inlineStr">
+        <is>
+          <t>2000.0</t>
+        </is>
+      </c>
+      <c r="K55" s="11" t="n"/>
+      <c r="L55" s="7" t="inlineStr">
+        <is>
+          <t>4800.0</t>
+        </is>
+      </c>
+      <c r="N55" s="11" t="n"/>
+      <c r="O55" s="7" t="inlineStr">
+        <is>
+          <t>800.0</t>
+        </is>
+      </c>
+      <c r="Q55" s="11" t="n"/>
       <c r="R55" s="3" t="n"/>
       <c r="S55" s="3" t="n"/>
+      <c r="T55" s="4" t="n"/>
+      <c r="U55" s="3" t="n"/>
+      <c r="V55" s="3" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>PDC3</t>
-        </is>
-      </c>
-      <c r="B56" s="3" t="inlineStr">
-        <is>
-          <t>Bimpavi indústria e comércio de artefatos de cimento ltda</t>
-        </is>
-      </c>
-      <c r="C56" s="3" t="inlineStr">
-        <is>
-          <t>49.0</t>
-        </is>
-      </c>
-      <c r="D56" s="3" t="inlineStr">
-        <is>
-          <t>1433.0</t>
-        </is>
-      </c>
-      <c r="E56" s="4" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F56" s="3" t="inlineStr">
-        <is>
-          <t>Guia de concreto reta padrão PMSP 100x30x15cm - AF</t>
-        </is>
-      </c>
-      <c r="G56" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H56" s="4" t="inlineStr">
-        <is>
-          <t>A similaridade é de 100%. A descrição ('Guia de concreto'), modelo ('reta'), padrão ('PMSP'), dimensões ('100x30x15cm') e quantidade (1433) do produto ofertado correspondem exatamente às especificações do produto demandado. A unidade de medida da quantidade demandada (MT) é equivalente à unidade ofertada (PC), pois cada peça tem 1 metro de comprimento.</t>
-        </is>
-      </c>
-      <c r="I56" s="3" t="inlineStr"/>
-      <c r="J56" s="3" t="inlineStr"/>
-      <c r="K56" s="4" t="n"/>
-      <c r="L56" s="3" t="n"/>
-      <c r="M56" s="3" t="n"/>
-      <c r="N56" s="4" t="n"/>
-      <c r="O56" s="3" t="n"/>
-      <c r="P56" s="3" t="n"/>
-      <c r="Q56" s="4" t="n"/>
+          <t>Unidade da quantidade demandada na requisicao de compra</t>
+        </is>
+      </c>
+      <c r="B56" s="3" t="inlineStr"/>
+      <c r="C56" s="3" t="inlineStr"/>
+      <c r="D56" s="3" t="inlineStr"/>
+      <c r="E56" s="4" t="inlineStr"/>
+      <c r="F56" s="7" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="H56" s="11" t="n"/>
+      <c r="I56" s="7" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="K56" s="11" t="n"/>
+      <c r="L56" s="7" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="N56" s="11" t="n"/>
+      <c r="O56" s="7" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="Q56" s="11" t="n"/>
       <c r="R56" s="3" t="n"/>
       <c r="S56" s="3" t="n"/>
+      <c r="T56" s="4" t="n"/>
+      <c r="U56" s="3" t="n"/>
+      <c r="V56" s="3" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>PDC3</t>
-        </is>
-      </c>
-      <c r="B57" s="3" t="inlineStr">
-        <is>
-          <t>Pré-moldados</t>
-        </is>
-      </c>
-      <c r="C57" s="3" t="inlineStr">
-        <is>
-          <t>41.763</t>
-        </is>
-      </c>
-      <c r="D57" s="3" t="inlineStr">
-        <is>
-          <t>1433.0</t>
-        </is>
-      </c>
-      <c r="E57" s="4" t="inlineStr">
-        <is>
-          <t>57%</t>
-        </is>
-      </c>
-      <c r="F57" s="3" t="inlineStr">
-        <is>
-          <t>GUIA DE CONCRETO 14X26X100</t>
-        </is>
-      </c>
-      <c r="G57" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H57" s="4" t="inlineStr">
-        <is>
-          <t>A associação foi feita com base na correspondência da descrição do produto ('GUIA DE CONCRETO'), tipo de concreto (assumido como 'PRE-MOLDADO'), comprimento (100 cm) e quantidade (1433 peças, que equivale a 1433 metros lineares). A similaridade calculada foi de 4/7 (57%). As especificações de altura e largura não são correspondentes.</t>
-        </is>
-      </c>
-      <c r="I57" s="3" t="inlineStr"/>
-      <c r="J57" s="3" t="inlineStr"/>
-      <c r="K57" s="4" t="n"/>
-      <c r="L57" s="3" t="n"/>
-      <c r="M57" s="3" t="n"/>
-      <c r="N57" s="4" t="n"/>
-      <c r="O57" s="3" t="n"/>
-      <c r="P57" s="3" t="n"/>
-      <c r="Q57" s="4" t="n"/>
+          <t>Unidade da quantidade oferecida na proposta</t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="inlineStr"/>
+      <c r="C57" s="3" t="inlineStr"/>
+      <c r="D57" s="3" t="inlineStr"/>
+      <c r="E57" s="4" t="inlineStr"/>
+      <c r="F57" s="7" t="inlineStr"/>
+      <c r="H57" s="11" t="n"/>
+      <c r="I57" s="7" t="inlineStr"/>
+      <c r="K57" s="11" t="n"/>
+      <c r="L57" s="7" t="inlineStr"/>
+      <c r="N57" s="11" t="n"/>
+      <c r="O57" s="7" t="inlineStr"/>
+      <c r="Q57" s="11" t="n"/>
       <c r="R57" s="3" t="n"/>
       <c r="S57" s="3" t="n"/>
+      <c r="T57" s="4" t="n"/>
+      <c r="U57" s="3" t="n"/>
+      <c r="V57" s="3" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>PDC3</t>
-        </is>
-      </c>
-      <c r="B58" s="3" t="inlineStr">
-        <is>
-          <t>Drenaltec industria e comercio ltda</t>
-        </is>
-      </c>
-      <c r="C58" s="3" t="inlineStr">
-        <is>
-          <t>120.0</t>
-        </is>
-      </c>
-      <c r="D58" s="3" t="inlineStr">
-        <is>
-          <t>1433.0</t>
-        </is>
-      </c>
-      <c r="E58" s="4" t="inlineStr">
-        <is>
-          <t>88%</t>
-        </is>
-      </c>
-      <c r="F58" s="3" t="inlineStr">
-        <is>
-          <t>GUIA PADRÃO PREFEITURA MON 100 X 30 X 15 &gt;&gt; CINZA NATURAL 120S</t>
-        </is>
-      </c>
-      <c r="G58" s="3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H58" s="4" t="inlineStr">
-        <is>
-          <t>A associação foi feita com base na similaridade de 88% (7/8). Os campos que correspondem são: 'Descrição do Produto' (GUIA), 'TIPO CONCRETO' (PRE-MOLDADO), 'PADRAO' (PREFEITURA), 'ALTURA' (30cm), 'LARGURA MAIOR' (15cm), 'COMPRIMENTO' (100cm) e 'quantidade_demandada' (1433 MT).</t>
-        </is>
-      </c>
-      <c r="I58" s="3" t="inlineStr"/>
-      <c r="J58" s="3" t="inlineStr"/>
-      <c r="K58" s="4" t="n"/>
-      <c r="L58" s="3" t="n"/>
-      <c r="M58" s="3" t="n"/>
-      <c r="N58" s="4" t="n"/>
-      <c r="O58" s="3" t="n"/>
-      <c r="P58" s="3" t="n"/>
-      <c r="Q58" s="4" t="n"/>
+          <t>Preço unitario oferecido na proposta</t>
+        </is>
+      </c>
+      <c r="B58" s="3" t="inlineStr"/>
+      <c r="C58" s="3" t="inlineStr"/>
+      <c r="D58" s="3" t="inlineStr"/>
+      <c r="E58" s="4" t="inlineStr"/>
+      <c r="F58" s="7" t="inlineStr">
+        <is>
+          <t>48.45</t>
+        </is>
+      </c>
+      <c r="H58" s="11" t="n"/>
+      <c r="I58" s="7" t="inlineStr">
+        <is>
+          <t>54.9</t>
+        </is>
+      </c>
+      <c r="K58" s="11" t="n"/>
+      <c r="L58" s="7" t="inlineStr">
+        <is>
+          <t>43.4</t>
+        </is>
+      </c>
+      <c r="N58" s="11" t="n"/>
+      <c r="O58" s="7" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="Q58" s="11" t="n"/>
       <c r="R58" s="3" t="n"/>
       <c r="S58" s="3" t="n"/>
+      <c r="T58" s="4" t="n"/>
+      <c r="U58" s="3" t="n"/>
+      <c r="V58" s="3" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>Posição em que o produto aparece na proposta</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="inlineStr"/>
+      <c r="C59" s="3" t="inlineStr"/>
+      <c r="D59" s="3" t="inlineStr"/>
+      <c r="E59" s="4" t="inlineStr"/>
+      <c r="F59" s="7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H59" s="11" t="n"/>
+      <c r="I59" s="7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K59" s="11" t="n"/>
+      <c r="L59" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N59" s="11" t="n"/>
+      <c r="O59" s="7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q59" s="11" t="n"/>
+      <c r="R59" s="3" t="n"/>
+      <c r="S59" s="3" t="n"/>
+      <c r="T59" s="4" t="n"/>
+      <c r="U59" s="3" t="n"/>
+      <c r="V59" s="3" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="inlineStr"/>
+      <c r="B60" s="3" t="inlineStr"/>
+      <c r="C60" s="3" t="inlineStr"/>
+      <c r="D60" s="3" t="inlineStr"/>
+      <c r="E60" s="4" t="inlineStr"/>
+      <c r="F60" s="7" t="inlineStr"/>
+      <c r="H60" s="11" t="n"/>
+      <c r="I60" s="7" t="inlineStr"/>
+      <c r="K60" s="11" t="n"/>
+      <c r="L60" s="7" t="inlineStr"/>
+      <c r="N60" s="11" t="n"/>
+      <c r="O60" s="7" t="inlineStr"/>
+      <c r="Q60" s="11" t="n"/>
+      <c r="R60" s="3" t="n"/>
+      <c r="S60" s="3" t="n"/>
+      <c r="T60" s="4" t="n"/>
+      <c r="U60" s="3" t="n"/>
+      <c r="V60" s="3" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="I41:K41"/>
+  <mergeCells count="152">
+    <mergeCell ref="I54:K54"/>
     <mergeCell ref="I32:K32"/>
     <mergeCell ref="L33:N33"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="O44:Q44"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="O51:Q51"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="O47:Q47"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="O56:Q56"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="I59:K59"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="I47:K47"/>
     <mergeCell ref="L24:N24"/>
     <mergeCell ref="I22:K22"/>
     <mergeCell ref="I28:K28"/>
-    <mergeCell ref="F33:H33"/>
     <mergeCell ref="F41:H41"/>
     <mergeCell ref="I37:K37"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="F26:H26"/>
     <mergeCell ref="F35:H35"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I21:K21"/>
     <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="O59:Q59"/>
     <mergeCell ref="L41:N41"/>
-    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="O46:Q46"/>
+    <mergeCell ref="L50:N50"/>
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="I23:K23"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="O52:Q52"/>
+    <mergeCell ref="O48:Q48"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="F49:H49"/>
     <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="O24:Q24"/>
     <mergeCell ref="I27:K27"/>
     <mergeCell ref="L28:N28"/>
     <mergeCell ref="L37:N37"/>
     <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="O49:Q49"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="O43:Q43"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="O42:Q42"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="O53:Q53"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="L53:N53"/>
     <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I57:K57"/>
     <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="O54:Q54"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="I58:K58"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="O55:Q55"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O58:Q58"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="O60:Q60"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O57:Q57"/>
+    <mergeCell ref="I60:K60"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="O45:Q45"/>
+    <mergeCell ref="L43:N43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/out/relatorio_consolidado.xlsx
+++ b/out/relatorio_consolidado.xlsx
@@ -34,12 +34,18 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -95,9 +101,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -121,6 +127,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -498,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V60"/>
+  <dimension ref="A1:Y136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
@@ -533,6 +540,9 @@
       <c r="T1" s="1" t="n"/>
       <c r="U1" s="1" t="n"/>
       <c r="V1" s="1" t="n"/>
+      <c r="W1" s="1" t="n"/>
+      <c r="X1" s="1" t="n"/>
+      <c r="Y1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -565,6 +575,9 @@
       <c r="T2" s="4" t="n"/>
       <c r="U2" s="3" t="n"/>
       <c r="V2" s="3" t="n"/>
+      <c r="W2" s="4" t="n"/>
+      <c r="X2" s="3" t="n"/>
+      <c r="Y2" s="3" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -575,7 +588,7 @@
       <c r="B3" s="3" t="inlineStr"/>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>Bruna Ferreira B. Da Silva</t>
+          <t>Miriam Ferreira J Dos Santos</t>
         </is>
       </c>
       <c r="D3" s="3" t="n"/>
@@ -597,6 +610,9 @@
       <c r="T3" s="4" t="n"/>
       <c r="U3" s="3" t="n"/>
       <c r="V3" s="3" t="n"/>
+      <c r="W3" s="4" t="n"/>
+      <c r="X3" s="3" t="n"/>
+      <c r="Y3" s="3" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -607,7 +623,7 @@
       <c r="B4" s="3" t="inlineStr"/>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="D4" s="3" t="n"/>
@@ -629,6 +645,9 @@
       <c r="T4" s="4" t="n"/>
       <c r="U4" s="3" t="n"/>
       <c r="V4" s="3" t="n"/>
+      <c r="W4" s="4" t="n"/>
+      <c r="X4" s="3" t="n"/>
+      <c r="Y4" s="3" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -639,7 +658,7 @@
       <c r="B5" s="3" t="inlineStr"/>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="D5" s="3" t="n"/>
@@ -661,6 +680,9 @@
       <c r="T5" s="4" t="n"/>
       <c r="U5" s="3" t="n"/>
       <c r="V5" s="3" t="n"/>
+      <c r="W5" s="4" t="n"/>
+      <c r="X5" s="3" t="n"/>
+      <c r="Y5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -671,7 +693,7 @@
       <c r="B6" s="3" t="inlineStr"/>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>Andre Romeiro Rocha</t>
+          <t>null</t>
         </is>
       </c>
       <c r="D6" s="3" t="n"/>
@@ -693,6 +715,9 @@
       <c r="T6" s="4" t="n"/>
       <c r="U6" s="3" t="n"/>
       <c r="V6" s="3" t="n"/>
+      <c r="W6" s="4" t="n"/>
+      <c r="X6" s="3" t="n"/>
+      <c r="Y6" s="3" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
@@ -717,6 +742,9 @@
       <c r="T7" s="1" t="n"/>
       <c r="U7" s="1" t="n"/>
       <c r="V7" s="1" t="n"/>
+      <c r="W7" s="1" t="n"/>
+      <c r="X7" s="1" t="n"/>
+      <c r="Y7" s="1" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr"/>
@@ -754,17 +782,24 @@
       <c r="Q8" s="5" t="inlineStr"/>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Envoltório dos mínimos</t>
+          <t>Fornecedor 5</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr"/>
       <c r="T8" s="5" t="inlineStr"/>
       <c r="U8" s="2" t="inlineStr">
         <is>
+          <t>Envoltório dos mínimos</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr"/>
+      <c r="W8" s="5" t="inlineStr"/>
+      <c r="X8" s="2" t="inlineStr">
+        <is>
           <t>Fornecedor vencedor</t>
         </is>
       </c>
-      <c r="V8" s="3" t="n"/>
+      <c r="Y8" s="3" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -778,37 +813,44 @@
       <c r="E9" s="4" t="inlineStr"/>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>Galua Soluções Industriais Ltda</t>
+          <t>Top Master Import E Distribuiçao De Equipamentos Ltda - Epp</t>
         </is>
       </c>
       <c r="G9" s="3" t="inlineStr"/>
       <c r="H9" s="4" t="inlineStr"/>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>Mi Comercio</t>
+          <t>Top Master Import E Distribuiçao De Equipamentos Ltda - Epp</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr"/>
       <c r="K9" s="4" t="inlineStr"/>
       <c r="L9" s="3" t="inlineStr">
         <is>
-          <t>Temfer Material De Construção</t>
+          <t>Plastolandia Hidraulica E Plasticos Industriais Lt</t>
         </is>
       </c>
       <c r="M9" s="3" t="inlineStr"/>
       <c r="N9" s="4" t="inlineStr"/>
       <c r="O9" s="3" t="inlineStr">
         <is>
-          <t>Comercial Vana Eireli</t>
+          <t>Ff Guarulhos</t>
         </is>
       </c>
       <c r="P9" s="3" t="inlineStr"/>
       <c r="Q9" s="4" t="inlineStr"/>
-      <c r="R9" s="3" t="n"/>
-      <c r="S9" s="3" t="n"/>
-      <c r="T9" s="4" t="n"/>
+      <c r="R9" s="3" t="inlineStr">
+        <is>
+          <t>Plastolândia</t>
+        </is>
+      </c>
+      <c r="S9" s="3" t="inlineStr"/>
+      <c r="T9" s="4" t="inlineStr"/>
       <c r="U9" s="3" t="n"/>
       <c r="V9" s="3" t="n"/>
+      <c r="W9" s="4" t="n"/>
+      <c r="X9" s="3" t="n"/>
+      <c r="Y9" s="3" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -822,37 +864,44 @@
       <c r="E10" s="4" t="inlineStr"/>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>23.973.668/0001-10</t>
+          <t>09.269.781/0001-99</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr"/>
       <c r="H10" s="4" t="inlineStr"/>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>09.269.781/0001-99</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr"/>
       <c r="K10" s="4" t="inlineStr"/>
       <c r="L10" s="3" t="inlineStr">
         <is>
-          <t>63022024000161</t>
+          <t>43.235.522/0001-85</t>
         </is>
       </c>
       <c r="M10" s="3" t="inlineStr"/>
       <c r="N10" s="4" t="inlineStr"/>
       <c r="O10" s="3" t="inlineStr">
         <is>
-          <t>17.891.648/0001-06</t>
+          <t>07.716.473/0001-39</t>
         </is>
       </c>
       <c r="P10" s="3" t="inlineStr"/>
       <c r="Q10" s="4" t="inlineStr"/>
-      <c r="R10" s="3" t="n"/>
-      <c r="S10" s="3" t="n"/>
-      <c r="T10" s="4" t="n"/>
+      <c r="R10" s="3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="S10" s="3" t="inlineStr"/>
+      <c r="T10" s="4" t="inlineStr"/>
       <c r="U10" s="3" t="n"/>
       <c r="V10" s="3" t="n"/>
+      <c r="W10" s="4" t="n"/>
+      <c r="X10" s="3" t="n"/>
+      <c r="Y10" s="3" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -866,37 +915,44 @@
       <c r="E11" s="4" t="inlineStr"/>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>(11) 99806-7738</t>
+          <t>12-21120282</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr"/>
       <c r="H11" s="4" t="inlineStr"/>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>(11) 5031-303</t>
+          <t>12-21120282</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr"/>
       <c r="K11" s="4" t="inlineStr"/>
       <c r="L11" s="3" t="inlineStr">
         <is>
-          <t>1150918044</t>
+          <t>(11) 21688533</t>
         </is>
       </c>
       <c r="M11" s="3" t="inlineStr"/>
       <c r="N11" s="4" t="inlineStr"/>
       <c r="O11" s="3" t="inlineStr">
         <is>
-          <t>(11) 99824-9861</t>
+          <t>11 +2453-6847</t>
         </is>
       </c>
       <c r="P11" s="3" t="inlineStr"/>
       <c r="Q11" s="4" t="inlineStr"/>
-      <c r="R11" s="3" t="n"/>
-      <c r="S11" s="3" t="n"/>
-      <c r="T11" s="4" t="n"/>
+      <c r="R11" s="3" t="inlineStr">
+        <is>
+          <t>(11) 2168.8512</t>
+        </is>
+      </c>
+      <c r="S11" s="3" t="inlineStr"/>
+      <c r="T11" s="4" t="inlineStr"/>
       <c r="U11" s="3" t="n"/>
       <c r="V11" s="3" t="n"/>
+      <c r="W11" s="4" t="n"/>
+      <c r="X11" s="3" t="n"/>
+      <c r="Y11" s="3" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -936,11 +992,18 @@
       </c>
       <c r="P12" s="3" t="inlineStr"/>
       <c r="Q12" s="4" t="inlineStr"/>
-      <c r="R12" s="3" t="n"/>
-      <c r="S12" s="3" t="n"/>
-      <c r="T12" s="4" t="n"/>
+      <c r="R12" s="3" t="inlineStr">
+        <is>
+          <t>(11) 98391.2514</t>
+        </is>
+      </c>
+      <c r="S12" s="3" t="inlineStr"/>
+      <c r="T12" s="4" t="inlineStr"/>
       <c r="U12" s="3" t="n"/>
       <c r="V12" s="3" t="n"/>
+      <c r="W12" s="4" t="n"/>
+      <c r="X12" s="3" t="n"/>
+      <c r="Y12" s="3" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -961,30 +1024,37 @@
       <c r="H13" s="4" t="inlineStr"/>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>novaconstru.mat@gmail.co</t>
+          <t>null</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr"/>
       <c r="K13" s="4" t="inlineStr"/>
       <c r="L13" s="3" t="inlineStr">
         <is>
-          <t>temfercobranca@gmail.com</t>
+          <t>plastolandia@plastolandia.com.br</t>
         </is>
       </c>
       <c r="M13" s="3" t="inlineStr"/>
       <c r="N13" s="4" t="inlineStr"/>
       <c r="O13" s="3" t="inlineStr">
         <is>
-          <t>adriana@cimentofort.com.br</t>
+          <t>marcio@ffguarulhos.com.br</t>
         </is>
       </c>
       <c r="P13" s="3" t="inlineStr"/>
       <c r="Q13" s="4" t="inlineStr"/>
-      <c r="R13" s="3" t="n"/>
-      <c r="S13" s="3" t="n"/>
-      <c r="T13" s="4" t="n"/>
+      <c r="R13" s="3" t="inlineStr">
+        <is>
+          <t>felipe@plastolandia.com.br</t>
+        </is>
+      </c>
+      <c r="S13" s="3" t="inlineStr"/>
+      <c r="T13" s="4" t="inlineStr"/>
       <c r="U13" s="3" t="n"/>
       <c r="V13" s="3" t="n"/>
+      <c r="W13" s="4" t="n"/>
+      <c r="X13" s="3" t="n"/>
+      <c r="Y13" s="3" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -998,37 +1068,44 @@
       <c r="E14" s="4" t="inlineStr"/>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>Bruno Bracetti</t>
+          <t>Padrão</t>
         </is>
       </c>
       <c r="G14" s="3" t="inlineStr"/>
       <c r="H14" s="4" t="inlineStr"/>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>Joao Carlos</t>
+          <t>Padrão</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr"/>
       <c r="K14" s="4" t="inlineStr"/>
       <c r="L14" s="3" t="inlineStr">
         <is>
-          <t>Adilson Otavio Da Silva</t>
+          <t>Felipe Dias Andrade</t>
         </is>
       </c>
       <c r="M14" s="3" t="inlineStr"/>
       <c r="N14" s="4" t="inlineStr"/>
       <c r="O14" s="3" t="inlineStr">
         <is>
-          <t>Adriana Corrêa</t>
+          <t>Marcio</t>
         </is>
       </c>
       <c r="P14" s="3" t="inlineStr"/>
       <c r="Q14" s="4" t="inlineStr"/>
-      <c r="R14" s="3" t="n"/>
-      <c r="S14" s="3" t="n"/>
-      <c r="T14" s="4" t="n"/>
+      <c r="R14" s="3" t="inlineStr">
+        <is>
+          <t>Felipe Andrade</t>
+        </is>
+      </c>
+      <c r="S14" s="3" t="inlineStr"/>
+      <c r="T14" s="4" t="inlineStr"/>
       <c r="U14" s="3" t="n"/>
       <c r="V14" s="3" t="n"/>
+      <c r="W14" s="4" t="n"/>
+      <c r="X14" s="3" t="n"/>
+      <c r="Y14" s="3" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -1053,6 +1130,9 @@
       <c r="T15" s="1" t="n"/>
       <c r="U15" s="1" t="n"/>
       <c r="V15" s="1" t="n"/>
+      <c r="W15" s="1" t="n"/>
+      <c r="X15" s="1" t="n"/>
+      <c r="Y15" s="1" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -1150,13 +1230,28 @@
           <t>R$ total</t>
         </is>
       </c>
-      <c r="T16" s="5" t="inlineStr"/>
+      <c r="T16" s="5" t="inlineStr">
+        <is>
+          <t>Semelhança</t>
+        </is>
+      </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
           <t>R$ unit</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>R$ total</t>
+        </is>
+      </c>
+      <c r="W16" s="5" t="inlineStr"/>
+      <c r="X16" s="2" t="inlineStr">
+        <is>
+          <t>R$ unit</t>
+        </is>
+      </c>
+      <c r="Y16" s="2" t="inlineStr">
         <is>
           <t>R$ total</t>
         </is>
@@ -1167,610 +1262,965 @@
       <c r="B17" s="6" t="inlineStr"/>
       <c r="C17" s="7" t="inlineStr">
         <is>
-          <t>argamassa/rejunte industrializado; produto: argamassa assentamento; fabricante: ecomix; referencia: abnt nbr 14725:2012; cor: cinza; apresentacao: 50 kg</t>
+          <t>tubo pvc serie reforcada para esgoto; diametro nominal: 100 mm; comprimento: 6 m; unidade medida: metro linear; cor: branco; norma: nbr 5688, nbr 8160</t>
         </is>
       </c>
       <c r="D17" s="8" t="n">
-        <v>150000</v>
+        <v>480</v>
       </c>
       <c r="E17" s="9" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="F17" s="10" t="n">
-        <v>36.91</v>
+        <v>39.05</v>
       </c>
       <c r="G17" s="8" t="n">
-        <v>5536499.999999999</v>
+        <v>18744</v>
       </c>
       <c r="H17" s="9" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="I17" s="10" t="n">
-        <v>29.9</v>
+        <v>37.1</v>
       </c>
       <c r="J17" s="8" t="n">
-        <v>4485000</v>
+        <v>17808</v>
       </c>
       <c r="K17" s="9" t="inlineStr">
         <is>
-          <t>42%</t>
-        </is>
-      </c>
-      <c r="L17" s="6" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="M17" s="6" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="L17" s="8" t="n">
+        <v>124.31</v>
+      </c>
+      <c r="M17" s="8" t="n">
+        <v>59668.8</v>
       </c>
       <c r="N17" s="9" t="inlineStr">
         <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="O17" s="10" t="n">
-        <v>28</v>
+          <t>43%</t>
+        </is>
+      </c>
+      <c r="O17" s="8" t="n">
+        <v>158.063</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>4200000</v>
+        <v>75870.23999999999</v>
       </c>
       <c r="Q17" s="9" t="inlineStr">
         <is>
           <t>71%</t>
         </is>
       </c>
-      <c r="R17" s="10" t="n">
-        <v>28</v>
-      </c>
-      <c r="S17" s="8" t="n">
-        <v>4200000</v>
-      </c>
-      <c r="T17" s="9" t="inlineStr"/>
-      <c r="U17" s="6" t="inlineStr"/>
-      <c r="V17" s="6" t="inlineStr"/>
+      <c r="R17" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="S17" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T17" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="U17" s="10" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="V17" s="8" t="n">
+        <v>17808</v>
+      </c>
+      <c r="W17" s="9" t="inlineStr"/>
+      <c r="X17" s="6" t="inlineStr"/>
+      <c r="Y17" s="6" t="inlineStr"/>
     </row>
     <row r="18" ht="65" customHeight="1">
       <c r="A18" s="6" t="inlineStr"/>
       <c r="B18" s="6" t="inlineStr"/>
       <c r="C18" s="7" t="inlineStr">
         <is>
-          <t>argamassa/rejunte industrializado; produto: argamassa colante; fabricante: construcola; referencia: int/ext aciii; cor: cinza; apresentacao: 20 kg</t>
+          <t>tubo pvc serie reforcada para esgoto; diametro nominal: 150 mm; comprimento: 6 m; unidade medida: metro linear; cor: branco; norma: nbr 5688, nbr 8160</t>
         </is>
       </c>
       <c r="D18" s="8" t="n">
-        <v>800</v>
+        <v>530</v>
       </c>
       <c r="E18" s="9" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="F18" s="10" t="n">
-        <v>48.45</v>
+        <v>75.94</v>
       </c>
       <c r="G18" s="8" t="n">
-        <v>38760</v>
+        <v>40248.2</v>
       </c>
       <c r="H18" s="9" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="I18" s="10" t="n">
-        <v>54.9</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="J18" s="8" t="n">
-        <v>43920</v>
+        <v>38239.5</v>
       </c>
       <c r="K18" s="9" t="inlineStr">
         <is>
-          <t>80%</t>
-        </is>
-      </c>
-      <c r="L18" s="10" t="n">
-        <v>43.4</v>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="L18" s="8" t="n">
+        <v>256.88</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>34720</v>
+        <v>136146.4</v>
       </c>
       <c r="N18" s="9" t="inlineStr">
         <is>
+          <t>43%</t>
+        </is>
+      </c>
+      <c r="O18" s="8" t="n">
+        <v>318.82</v>
+      </c>
+      <c r="P18" s="8" t="n">
+        <v>168974.6</v>
+      </c>
+      <c r="Q18" s="9" t="inlineStr">
+        <is>
           <t>71%</t>
         </is>
       </c>
-      <c r="O18" s="10" t="n">
-        <v>33</v>
-      </c>
-      <c r="P18" s="8" t="n">
-        <v>26400</v>
-      </c>
-      <c r="Q18" s="9" t="inlineStr">
-        <is>
-          <t>71%</t>
-        </is>
-      </c>
-      <c r="R18" s="10" t="n">
-        <v>33</v>
-      </c>
-      <c r="S18" s="8" t="n">
-        <v>26400</v>
-      </c>
-      <c r="T18" s="9" t="inlineStr"/>
-      <c r="U18" s="6" t="inlineStr"/>
-      <c r="V18" s="6" t="inlineStr"/>
-    </row>
-    <row r="19">
+      <c r="R18" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="S18" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T18" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="U18" s="10" t="n">
+        <v>72.15000000000001</v>
+      </c>
+      <c r="V18" s="8" t="n">
+        <v>38239.5</v>
+      </c>
+      <c r="W18" s="9" t="inlineStr"/>
+      <c r="X18" s="6" t="inlineStr"/>
+      <c r="Y18" s="6" t="inlineStr"/>
+    </row>
+    <row r="19" ht="65" customHeight="1">
       <c r="A19" s="6" t="inlineStr"/>
       <c r="B19" s="6" t="inlineStr"/>
       <c r="C19" s="7" t="inlineStr">
         <is>
+          <t>tubo pvc serie reforcada para esgoto; diametro nominal: 200 mm; comprimento: 6 m; unidade medida: metro linear; cor: branco; norma: nbr 5688, nbr 8160</t>
+        </is>
+      </c>
+      <c r="D19" s="10" t="n">
+        <v>48</v>
+      </c>
+      <c r="E19" s="9" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="n">
+        <v>137.4</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>6595.200000000001</v>
+      </c>
+      <c r="H19" s="9" t="inlineStr">
+        <is>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>130.53</v>
+      </c>
+      <c r="J19" s="8" t="n">
+        <v>6265.440000000001</v>
+      </c>
+      <c r="K19" s="9" t="inlineStr">
+        <is>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="L19" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="M19" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N19" s="9" t="inlineStr">
+        <is>
+          <t>29%</t>
+        </is>
+      </c>
+      <c r="O19" s="8" t="n">
+        <v>433.386</v>
+      </c>
+      <c r="P19" s="8" t="n">
+        <v>20802.528</v>
+      </c>
+      <c r="Q19" s="9" t="inlineStr">
+        <is>
+          <t>43%</t>
+        </is>
+      </c>
+      <c r="R19" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="S19" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T19" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="U19" s="8" t="n">
+        <v>130.53</v>
+      </c>
+      <c r="V19" s="8" t="n">
+        <v>6265.440000000001</v>
+      </c>
+      <c r="W19" s="9" t="inlineStr"/>
+      <c r="X19" s="6" t="inlineStr"/>
+      <c r="Y19" s="6" t="inlineStr"/>
+    </row>
+    <row r="20" ht="65" customHeight="1">
+      <c r="A20" s="6" t="inlineStr"/>
+      <c r="B20" s="6" t="inlineStr"/>
+      <c r="C20" s="7" t="inlineStr">
+        <is>
+          <t>tubo esgoto; material: pvc; diametro nominal: 150 mm; cor: ocre; conexao: jei; norma: nbr 7362; fabricante: tigre</t>
+        </is>
+      </c>
+      <c r="D20" s="8" t="n">
+        <v>310</v>
+      </c>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="F20" s="10" t="n">
+        <v>65.86</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>20416.6</v>
+      </c>
+      <c r="H20" s="9" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="I20" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="J20" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="K20" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>304.14</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>94283.39999999999</v>
+      </c>
+      <c r="N20" s="9" t="inlineStr">
+        <is>
+          <t>63%</t>
+        </is>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>302.637</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>93817.47</v>
+      </c>
+      <c r="Q20" s="9" t="inlineStr">
+        <is>
+          <t>63%</t>
+        </is>
+      </c>
+      <c r="R20" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="S20" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T20" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="U20" s="10" t="n">
+        <v>65.86</v>
+      </c>
+      <c r="V20" s="8" t="n">
+        <v>20416.6</v>
+      </c>
+      <c r="W20" s="9" t="inlineStr"/>
+      <c r="X20" s="6" t="inlineStr"/>
+      <c r="Y20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21" ht="65" customHeight="1">
+      <c r="A21" s="6" t="inlineStr"/>
+      <c r="B21" s="6" t="inlineStr"/>
+      <c r="C21" s="7" t="inlineStr">
+        <is>
+          <t>tubo esgoto; material: pvc; diametro nominal: 200 mm; cor: ocre; conexao: jei; norma: nbr 7362; fabricante: tigre</t>
+        </is>
+      </c>
+      <c r="D21" s="8" t="n">
+        <v>216</v>
+      </c>
+      <c r="E21" s="9" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="n">
+        <v>112.26</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>24248.16</v>
+      </c>
+      <c r="H21" s="9" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="I21" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="J21" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="K21" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="L21" s="8" t="n">
+        <v>435.4</v>
+      </c>
+      <c r="M21" s="8" t="n">
+        <v>94046.39999999999</v>
+      </c>
+      <c r="N21" s="9" t="inlineStr">
+        <is>
+          <t>63%</t>
+        </is>
+      </c>
+      <c r="O21" s="8" t="n">
+        <v>433.386</v>
+      </c>
+      <c r="P21" s="8" t="n">
+        <v>93611.376</v>
+      </c>
+      <c r="Q21" s="9" t="inlineStr">
+        <is>
+          <t>63%</t>
+        </is>
+      </c>
+      <c r="R21" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="S21" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T21" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="U21" s="8" t="n">
+        <v>112.26</v>
+      </c>
+      <c r="V21" s="8" t="n">
+        <v>24248.16</v>
+      </c>
+      <c r="W21" s="9" t="inlineStr"/>
+      <c r="X21" s="6" t="inlineStr"/>
+      <c r="Y21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22" ht="65" customHeight="1">
+      <c r="A22" s="6" t="inlineStr"/>
+      <c r="B22" s="6" t="inlineStr"/>
+      <c r="C22" s="7" t="inlineStr">
+        <is>
+          <t>tubo esgoto; material: pvc; diametro nominal: 250 mm; cor: ocre; conexao: jei; norma: nbr 7362; fabricante: tigre</t>
+        </is>
+      </c>
+      <c r="D22" s="8" t="n">
+        <v>150</v>
+      </c>
+      <c r="E22" s="9" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="F22" s="8" t="n">
+        <v>196.81</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>29521.5</v>
+      </c>
+      <c r="H22" s="9" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="I22" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="J22" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="K22" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>729.26</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>109389</v>
+      </c>
+      <c r="N22" s="9" t="inlineStr">
+        <is>
+          <t>63%</t>
+        </is>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>725.818</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>108872.7</v>
+      </c>
+      <c r="Q22" s="9" t="inlineStr">
+        <is>
+          <t>63%</t>
+        </is>
+      </c>
+      <c r="R22" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="S22" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T22" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="U22" s="8" t="n">
+        <v>196.81</v>
+      </c>
+      <c r="V22" s="8" t="n">
+        <v>29521.5</v>
+      </c>
+      <c r="W22" s="9" t="inlineStr"/>
+      <c r="X22" s="6" t="inlineStr"/>
+      <c r="Y22" s="6" t="inlineStr"/>
+    </row>
+    <row r="23" ht="65" customHeight="1">
+      <c r="A23" s="6" t="inlineStr"/>
+      <c r="B23" s="6" t="inlineStr"/>
+      <c r="C23" s="7" t="inlineStr">
+        <is>
+          <t>tubo esgoto; material: pvc; diametro nominal: 300 mm; cor: ocre; conexao: jei; norma: nbr 7362; fabricante: tigre</t>
+        </is>
+      </c>
+      <c r="D23" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="E23" s="9" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="F23" s="8" t="n">
+        <v>312.28</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>9368.4</v>
+      </c>
+      <c r="H23" s="9" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="I23" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="J23" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="K23" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>1118.43</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>33552.9</v>
+      </c>
+      <c r="N23" s="9" t="inlineStr">
+        <is>
+          <t>63%</t>
+        </is>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>1113.281</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>33398.43</v>
+      </c>
+      <c r="Q23" s="9" t="inlineStr">
+        <is>
+          <t>63%</t>
+        </is>
+      </c>
+      <c r="R23" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="S23" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T23" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="U23" s="8" t="n">
+        <v>312.28</v>
+      </c>
+      <c r="V23" s="8" t="n">
+        <v>9368.4</v>
+      </c>
+      <c r="W23" s="9" t="inlineStr"/>
+      <c r="X23" s="6" t="inlineStr"/>
+      <c r="Y23" s="6" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr"/>
+      <c r="B24" s="6" t="inlineStr"/>
+      <c r="C24" s="7" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="D19" s="6" t="inlineStr"/>
-      <c r="E19" s="9" t="inlineStr"/>
-      <c r="F19" s="6" t="inlineStr"/>
-      <c r="G19" s="8" t="n">
-        <v>5575259.999999999</v>
-      </c>
-      <c r="H19" s="9" t="inlineStr"/>
-      <c r="I19" s="6" t="inlineStr"/>
-      <c r="J19" s="8" t="n">
-        <v>4528920</v>
-      </c>
-      <c r="K19" s="9" t="inlineStr"/>
-      <c r="L19" s="6" t="inlineStr"/>
-      <c r="M19" s="6" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="N19" s="9" t="inlineStr"/>
-      <c r="O19" s="6" t="inlineStr"/>
-      <c r="P19" s="8" t="n">
-        <v>4226400</v>
-      </c>
-      <c r="Q19" s="9" t="inlineStr"/>
-      <c r="R19" s="6" t="inlineStr"/>
-      <c r="S19" s="8" t="n">
-        <v>4226400</v>
-      </c>
-      <c r="T19" s="9" t="inlineStr"/>
-      <c r="U19" s="6" t="inlineStr"/>
-      <c r="V19" s="6" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="n"/>
-      <c r="C20" s="1" t="n"/>
-      <c r="D20" s="1" t="n"/>
-      <c r="E20" s="1" t="n"/>
-      <c r="F20" s="1" t="n"/>
-      <c r="G20" s="1" t="n"/>
-      <c r="H20" s="1" t="n"/>
-      <c r="I20" s="1" t="n"/>
-      <c r="J20" s="1" t="n"/>
-      <c r="K20" s="1" t="n"/>
-      <c r="L20" s="1" t="n"/>
-      <c r="M20" s="1" t="n"/>
-      <c r="N20" s="1" t="n"/>
-      <c r="O20" s="1" t="n"/>
-      <c r="P20" s="1" t="n"/>
-      <c r="Q20" s="1" t="n"/>
-      <c r="R20" s="1" t="n"/>
-      <c r="S20" s="1" t="n"/>
-      <c r="T20" s="1" t="n"/>
-      <c r="U20" s="1" t="n"/>
-      <c r="V20" s="1" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="D24" s="6" t="inlineStr"/>
+      <c r="E24" s="9" t="inlineStr"/>
+      <c r="F24" s="6" t="inlineStr"/>
+      <c r="G24" s="8" t="n">
+        <v>149142.06</v>
+      </c>
+      <c r="H24" s="9" t="inlineStr"/>
+      <c r="I24" s="6" t="inlineStr"/>
+      <c r="J24" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="K24" s="9" t="inlineStr"/>
+      <c r="L24" s="6" t="inlineStr"/>
+      <c r="M24" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N24" s="9" t="inlineStr"/>
+      <c r="O24" s="6" t="inlineStr"/>
+      <c r="P24" s="8" t="n">
+        <v>595347.344</v>
+      </c>
+      <c r="Q24" s="9" t="inlineStr"/>
+      <c r="R24" s="6" t="inlineStr"/>
+      <c r="S24" s="6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T24" s="9" t="inlineStr"/>
+      <c r="U24" s="6" t="inlineStr"/>
+      <c r="V24" s="8" t="n">
+        <v>145867.6</v>
+      </c>
+      <c r="W24" s="9" t="inlineStr"/>
+      <c r="X24" s="6" t="inlineStr"/>
+      <c r="Y24" s="6" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="n"/>
+      <c r="C25" s="1" t="n"/>
+      <c r="D25" s="1" t="n"/>
+      <c r="E25" s="1" t="n"/>
+      <c r="F25" s="1" t="n"/>
+      <c r="G25" s="1" t="n"/>
+      <c r="H25" s="1" t="n"/>
+      <c r="I25" s="1" t="n"/>
+      <c r="J25" s="1" t="n"/>
+      <c r="K25" s="1" t="n"/>
+      <c r="L25" s="1" t="n"/>
+      <c r="M25" s="1" t="n"/>
+      <c r="N25" s="1" t="n"/>
+      <c r="O25" s="1" t="n"/>
+      <c r="P25" s="1" t="n"/>
+      <c r="Q25" s="1" t="n"/>
+      <c r="R25" s="1" t="n"/>
+      <c r="S25" s="1" t="n"/>
+      <c r="T25" s="1" t="n"/>
+      <c r="U25" s="1" t="n"/>
+      <c r="V25" s="1" t="n"/>
+      <c r="W25" s="1" t="n"/>
+      <c r="X25" s="1" t="n"/>
+      <c r="Y25" s="1" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr"/>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr"/>
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>Condições comerciais</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr"/>
-      <c r="H21" s="11" t="n"/>
-      <c r="I21" s="2" t="inlineStr"/>
-      <c r="K21" s="11" t="n"/>
-      <c r="L21" s="2" t="inlineStr"/>
-      <c r="N21" s="11" t="n"/>
-      <c r="O21" s="2" t="inlineStr"/>
-      <c r="Q21" s="11" t="n"/>
-      <c r="R21" s="3" t="n"/>
-      <c r="S21" s="3" t="n"/>
-      <c r="T21" s="4" t="n"/>
-      <c r="U21" s="3" t="n"/>
-      <c r="V21" s="3" t="n"/>
-    </row>
-    <row r="22" ht="65" customHeight="1">
-      <c r="A22" s="7" t="inlineStr"/>
-      <c r="B22" s="7" t="inlineStr"/>
-      <c r="C22" s="7" t="inlineStr">
-        <is>
-          <t>Condições de pagamento</t>
-        </is>
-      </c>
-      <c r="D22" s="7" t="inlineStr"/>
-      <c r="E22" s="12" t="inlineStr"/>
-      <c r="F22" s="7" t="inlineStr">
-        <is>
-          <t>28 dias</t>
-        </is>
-      </c>
-      <c r="H22" s="11" t="n"/>
-      <c r="I22" s="7" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="K22" s="11" t="n"/>
-      <c r="L22" s="7" t="inlineStr">
-        <is>
-          <t>Operante (transferencia) 01- 25/3/2025 - 208320,00</t>
-        </is>
-      </c>
-      <c r="N22" s="11" t="n"/>
-      <c r="O22" s="7" t="inlineStr">
-        <is>
-          <t>Boleto 28 dd</t>
-        </is>
-      </c>
-      <c r="Q22" s="11" t="n"/>
-      <c r="R22" s="3" t="n"/>
-      <c r="S22" s="3" t="n"/>
-      <c r="T22" s="4" t="n"/>
-      <c r="U22" s="3" t="n"/>
-      <c r="V22" s="3" t="n"/>
-    </row>
-    <row r="23" ht="65" customHeight="1">
-      <c r="A23" s="7" t="inlineStr"/>
-      <c r="B23" s="7" t="inlineStr"/>
-      <c r="C23" s="7" t="inlineStr">
-        <is>
-          <t>Frete</t>
-        </is>
-      </c>
-      <c r="D23" s="7" t="inlineStr"/>
-      <c r="E23" s="12" t="inlineStr"/>
-      <c r="F23" s="7" t="inlineStr">
-        <is>
-          <t>Fob sp</t>
-        </is>
-      </c>
-      <c r="H23" s="11" t="n"/>
-      <c r="I23" s="7" t="inlineStr">
-        <is>
-          <t>1990.00</t>
-        </is>
-      </c>
-      <c r="K23" s="11" t="n"/>
-      <c r="L23" s="7" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="N23" s="11" t="n"/>
-      <c r="O23" s="7" t="inlineStr">
-        <is>
-          <t>Cif</t>
-        </is>
-      </c>
-      <c r="Q23" s="11" t="n"/>
-      <c r="R23" s="3" t="n"/>
-      <c r="S23" s="3" t="n"/>
-      <c r="T23" s="4" t="n"/>
-      <c r="U23" s="3" t="n"/>
-      <c r="V23" s="3" t="n"/>
-    </row>
-    <row r="24" ht="65" customHeight="1">
-      <c r="A24" s="7" t="inlineStr"/>
-      <c r="B24" s="7" t="inlineStr"/>
-      <c r="C24" s="7" t="inlineStr">
-        <is>
-          <t>Local de entrega</t>
-        </is>
-      </c>
-      <c r="D24" s="7" t="inlineStr"/>
-      <c r="E24" s="12" t="inlineStr"/>
-      <c r="F24" s="7" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="H24" s="11" t="n"/>
-      <c r="I24" s="7" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="K24" s="11" t="n"/>
-      <c r="L24" s="7" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="N24" s="11" t="n"/>
-      <c r="O24" s="7" t="inlineStr">
-        <is>
-          <t>Obra 17 linha ouro - (diversos)</t>
-        </is>
-      </c>
-      <c r="Q24" s="11" t="n"/>
-      <c r="R24" s="3" t="n"/>
-      <c r="S24" s="3" t="n"/>
-      <c r="T24" s="4" t="n"/>
-      <c r="U24" s="3" t="n"/>
-      <c r="V24" s="3" t="n"/>
-    </row>
-    <row r="25" ht="65" customHeight="1">
-      <c r="A25" s="7" t="inlineStr"/>
-      <c r="B25" s="7" t="inlineStr"/>
-      <c r="C25" s="7" t="inlineStr">
-        <is>
-          <t>Prazo de entrega</t>
-        </is>
-      </c>
-      <c r="D25" s="7" t="inlineStr"/>
-      <c r="E25" s="12" t="inlineStr"/>
-      <c r="F25" s="7" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="H25" s="11" t="n"/>
-      <c r="I25" s="7" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="K25" s="11" t="n"/>
-      <c r="L25" s="7" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="N25" s="11" t="n"/>
-      <c r="O25" s="7" t="inlineStr">
-        <is>
-          <t>1 a 2 dias</t>
-        </is>
-      </c>
-      <c r="Q25" s="11" t="n"/>
-      <c r="R25" s="3" t="n"/>
-      <c r="S25" s="3" t="n"/>
-      <c r="T25" s="4" t="n"/>
-      <c r="U25" s="3" t="n"/>
-      <c r="V25" s="3" t="n"/>
-    </row>
-    <row r="26" ht="65" customHeight="1">
-      <c r="A26" s="7" t="inlineStr"/>
-      <c r="B26" s="7" t="inlineStr"/>
-      <c r="C26" s="7" t="inlineStr">
-        <is>
-          <t>Prazo para troca</t>
-        </is>
-      </c>
-      <c r="D26" s="7" t="inlineStr"/>
-      <c r="E26" s="12" t="inlineStr"/>
-      <c r="F26" s="7" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
+      <c r="D26" s="2" t="inlineStr"/>
+      <c r="E26" s="5" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr"/>
       <c r="H26" s="11" t="n"/>
-      <c r="I26" s="7" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
+      <c r="I26" s="2" t="inlineStr"/>
       <c r="K26" s="11" t="n"/>
-      <c r="L26" s="7" t="inlineStr">
-        <is>
-          <t>7 dias</t>
-        </is>
-      </c>
+      <c r="L26" s="2" t="inlineStr"/>
       <c r="N26" s="11" t="n"/>
-      <c r="O26" s="7" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
+      <c r="O26" s="2" t="inlineStr"/>
       <c r="Q26" s="11" t="n"/>
-      <c r="R26" s="3" t="n"/>
-      <c r="S26" s="3" t="n"/>
-      <c r="T26" s="4" t="n"/>
+      <c r="R26" s="2" t="inlineStr"/>
+      <c r="T26" s="11" t="n"/>
       <c r="U26" s="3" t="n"/>
       <c r="V26" s="3" t="n"/>
+      <c r="W26" s="4" t="n"/>
+      <c r="X26" s="3" t="n"/>
+      <c r="Y26" s="3" t="n"/>
     </row>
     <row r="27" ht="65" customHeight="1">
       <c r="A27" s="7" t="inlineStr"/>
       <c r="B27" s="7" t="inlineStr"/>
       <c r="C27" s="7" t="inlineStr">
         <is>
-          <t>Prazo para utilização de créditos</t>
+          <t>Condições de pagamento</t>
         </is>
       </c>
       <c r="D27" s="7" t="inlineStr"/>
       <c r="E27" s="12" t="inlineStr"/>
       <c r="F27" s="7" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>A combinar</t>
         </is>
       </c>
       <c r="H27" s="11" t="n"/>
       <c r="I27" s="7" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>A combinar</t>
         </is>
       </c>
       <c r="K27" s="11" t="n"/>
       <c r="L27" s="7" t="inlineStr">
         <is>
-          <t>90 dias</t>
+          <t>28/56 ddl</t>
         </is>
       </c>
       <c r="N27" s="11" t="n"/>
       <c r="O27" s="7" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>28 ddl</t>
         </is>
       </c>
       <c r="Q27" s="11" t="n"/>
-      <c r="R27" s="3" t="n"/>
-      <c r="S27" s="3" t="n"/>
-      <c r="T27" s="4" t="n"/>
+      <c r="R27" s="7" t="inlineStr">
+        <is>
+          <t>50% a vista e 50% faturado</t>
+        </is>
+      </c>
+      <c r="T27" s="11" t="n"/>
       <c r="U27" s="3" t="n"/>
       <c r="V27" s="3" t="n"/>
+      <c r="W27" s="4" t="n"/>
+      <c r="X27" s="3" t="n"/>
+      <c r="Y27" s="3" t="n"/>
     </row>
     <row r="28" ht="65" customHeight="1">
       <c r="A28" s="7" t="inlineStr"/>
       <c r="B28" s="7" t="inlineStr"/>
       <c r="C28" s="7" t="inlineStr">
         <is>
-          <t>Validade da proposta</t>
+          <t>Data da proposta</t>
         </is>
       </c>
       <c r="D28" s="7" t="inlineStr"/>
       <c r="E28" s="12" t="inlineStr"/>
       <c r="F28" s="7" t="inlineStr">
         <is>
-          <t>10 dias</t>
+          <t>05/03/2025</t>
         </is>
       </c>
       <c r="H28" s="11" t="n"/>
       <c r="I28" s="7" t="inlineStr">
         <is>
-          <t>20/12/2023</t>
+          <t>11/03/2025</t>
         </is>
       </c>
       <c r="K28" s="11" t="n"/>
       <c r="L28" s="7" t="inlineStr">
         <is>
-          <t>01/04/2025</t>
+          <t>null</t>
         </is>
       </c>
       <c r="N28" s="11" t="n"/>
       <c r="O28" s="7" t="inlineStr">
         <is>
-          <t>10 dias</t>
+          <t>null</t>
         </is>
       </c>
       <c r="Q28" s="11" t="n"/>
-      <c r="R28" s="3" t="n"/>
-      <c r="S28" s="3" t="n"/>
-      <c r="T28" s="4" t="n"/>
+      <c r="R28" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T28" s="11" t="n"/>
       <c r="U28" s="3" t="n"/>
       <c r="V28" s="3" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n"/>
-      <c r="B29" s="1" t="n"/>
-      <c r="C29" s="1" t="n"/>
-      <c r="D29" s="1" t="n"/>
-      <c r="E29" s="1" t="n"/>
-      <c r="F29" s="1" t="n"/>
-      <c r="G29" s="1" t="n"/>
-      <c r="H29" s="1" t="n"/>
-      <c r="I29" s="1" t="n"/>
-      <c r="J29" s="1" t="n"/>
-      <c r="K29" s="1" t="n"/>
-      <c r="L29" s="1" t="n"/>
-      <c r="M29" s="1" t="n"/>
-      <c r="N29" s="1" t="n"/>
-      <c r="O29" s="1" t="n"/>
-      <c r="P29" s="1" t="n"/>
-      <c r="Q29" s="1" t="n"/>
-      <c r="R29" s="1" t="n"/>
-      <c r="S29" s="1" t="n"/>
-      <c r="T29" s="1" t="n"/>
-      <c r="U29" s="1" t="n"/>
-      <c r="V29" s="1" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>Quadro de sócios e administradores</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr"/>
-      <c r="C30" s="2" t="inlineStr"/>
-      <c r="D30" s="2" t="inlineStr"/>
-      <c r="E30" s="5" t="inlineStr"/>
-      <c r="F30" s="2" t="inlineStr"/>
+      <c r="W28" s="4" t="n"/>
+      <c r="X28" s="3" t="n"/>
+      <c r="Y28" s="3" t="n"/>
+    </row>
+    <row r="29" ht="65" customHeight="1">
+      <c r="A29" s="7" t="inlineStr"/>
+      <c r="B29" s="7" t="inlineStr"/>
+      <c r="C29" s="7" t="inlineStr">
+        <is>
+          <t>Desconto</t>
+        </is>
+      </c>
+      <c r="D29" s="7" t="inlineStr"/>
+      <c r="E29" s="12" t="inlineStr"/>
+      <c r="F29" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H29" s="11" t="n"/>
+      <c r="I29" s="7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="K29" s="11" t="n"/>
+      <c r="L29" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N29" s="11" t="n"/>
+      <c r="O29" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="Q29" s="11" t="n"/>
+      <c r="R29" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T29" s="11" t="n"/>
+      <c r="U29" s="3" t="n"/>
+      <c r="V29" s="3" t="n"/>
+      <c r="W29" s="4" t="n"/>
+      <c r="X29" s="3" t="n"/>
+      <c r="Y29" s="3" t="n"/>
+    </row>
+    <row r="30" ht="65" customHeight="1">
+      <c r="A30" s="7" t="inlineStr"/>
+      <c r="B30" s="7" t="inlineStr"/>
+      <c r="C30" s="7" t="inlineStr">
+        <is>
+          <t>Frete</t>
+        </is>
+      </c>
+      <c r="D30" s="7" t="inlineStr"/>
+      <c r="E30" s="12" t="inlineStr"/>
+      <c r="F30" s="7" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
       <c r="H30" s="11" t="n"/>
-      <c r="I30" s="2" t="inlineStr"/>
+      <c r="I30" s="7" t="inlineStr">
+        <is>
+          <t>Por conta do emitente (valor: 0.00)</t>
+        </is>
+      </c>
       <c r="K30" s="11" t="n"/>
-      <c r="L30" s="2" t="inlineStr"/>
+      <c r="L30" s="7" t="inlineStr">
+        <is>
+          <t>R$ 0,00 (tipo: destinatário)</t>
+        </is>
+      </c>
       <c r="N30" s="11" t="n"/>
-      <c r="O30" s="2" t="inlineStr"/>
+      <c r="O30" s="7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="Q30" s="11" t="n"/>
-      <c r="R30" s="3" t="n"/>
-      <c r="S30" s="3" t="n"/>
-      <c r="T30" s="4" t="n"/>
+      <c r="R30" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T30" s="11" t="n"/>
       <c r="U30" s="3" t="n"/>
       <c r="V30" s="3" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="inlineStr">
-        <is>
-          <t>Este CNPJ tem sócio em comum com outro CNPJ ?</t>
-        </is>
-      </c>
-      <c r="B31" s="3" t="inlineStr"/>
-      <c r="C31" s="3" t="inlineStr"/>
-      <c r="D31" s="3" t="inlineStr"/>
-      <c r="E31" s="4" t="inlineStr"/>
-      <c r="F31" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="W30" s="4" t="n"/>
+      <c r="X30" s="3" t="n"/>
+      <c r="Y30" s="3" t="n"/>
+    </row>
+    <row r="31" ht="65" customHeight="1">
+      <c r="A31" s="7" t="inlineStr"/>
+      <c r="B31" s="7" t="inlineStr"/>
+      <c r="C31" s="7" t="inlineStr">
+        <is>
+          <t>Observações</t>
+        </is>
+      </c>
+      <c r="D31" s="7" t="inlineStr"/>
+      <c r="E31" s="12" t="inlineStr"/>
+      <c r="F31" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
         </is>
       </c>
       <c r="H31" s="11" t="n"/>
-      <c r="I31" s="3" t="inlineStr"/>
+      <c r="I31" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="K31" s="11" t="n"/>
-      <c r="L31" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="L31" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
         </is>
       </c>
       <c r="N31" s="11" t="n"/>
-      <c r="O31" s="3" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="O31" s="7" t="inlineStr">
+        <is>
+          <t>Devido a variação do mercado os preços desta cotação são validos somente para materiais em estoque, consulte o vendedor antes de fechar o pedido.</t>
         </is>
       </c>
       <c r="Q31" s="11" t="n"/>
-      <c r="R31" s="3" t="n"/>
-      <c r="S31" s="3" t="n"/>
-      <c r="T31" s="4" t="n"/>
+      <c r="R31" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T31" s="11" t="n"/>
       <c r="U31" s="3" t="n"/>
       <c r="V31" s="3" t="n"/>
-    </row>
-    <row r="32" ht="30" customHeight="1">
-      <c r="A32" s="3" t="inlineStr"/>
-      <c r="B32" s="3" t="inlineStr"/>
-      <c r="C32" s="3" t="inlineStr"/>
-      <c r="D32" s="3" t="inlineStr"/>
-      <c r="E32" s="4" t="inlineStr"/>
+      <c r="W31" s="4" t="n"/>
+      <c r="X31" s="3" t="n"/>
+      <c r="Y31" s="3" t="n"/>
+    </row>
+    <row r="32" ht="65" customHeight="1">
+      <c r="A32" s="7" t="inlineStr"/>
+      <c r="B32" s="7" t="inlineStr"/>
+      <c r="C32" s="7" t="inlineStr">
+        <is>
+          <t>Prazo de entrega</t>
+        </is>
+      </c>
+      <c r="D32" s="7" t="inlineStr"/>
+      <c r="E32" s="12" t="inlineStr"/>
       <c r="F32" s="7" t="inlineStr">
         <is>
-          <t>Bruno Romeiro Bracetti, Sócio-administrador</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H32" s="11" t="n"/>
@@ -1782,420 +2232,448 @@
       <c r="K32" s="11" t="n"/>
       <c r="L32" s="7" t="inlineStr">
         <is>
-          <t>Fabiano Carrieri, Sócio-administrador</t>
+          <t>27/02/2025</t>
         </is>
       </c>
       <c r="N32" s="11" t="n"/>
       <c r="O32" s="7" t="inlineStr">
         <is>
-          <t>Admir Nava Ferreira, Sócio-administrador</t>
+          <t>Itens de estoque em até 2 dias para a grande são paulo após a confirmação do pedido.</t>
         </is>
       </c>
       <c r="Q32" s="11" t="n"/>
-      <c r="R32" s="3" t="n"/>
-      <c r="S32" s="3" t="n"/>
-      <c r="T32" s="4" t="n"/>
+      <c r="R32" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T32" s="11" t="n"/>
       <c r="U32" s="3" t="n"/>
       <c r="V32" s="3" t="n"/>
-    </row>
-    <row r="33" ht="30" customHeight="1">
-      <c r="A33" s="3" t="inlineStr"/>
-      <c r="B33" s="3" t="inlineStr"/>
-      <c r="C33" s="3" t="inlineStr"/>
-      <c r="D33" s="3" t="inlineStr"/>
-      <c r="E33" s="4" t="inlineStr"/>
-      <c r="F33" s="7" t="inlineStr"/>
+      <c r="W32" s="4" t="n"/>
+      <c r="X32" s="3" t="n"/>
+      <c r="Y32" s="3" t="n"/>
+    </row>
+    <row r="33" ht="65" customHeight="1">
+      <c r="A33" s="7" t="inlineStr"/>
+      <c r="B33" s="7" t="inlineStr"/>
+      <c r="C33" s="7" t="inlineStr">
+        <is>
+          <t>Validade da proposta</t>
+        </is>
+      </c>
+      <c r="D33" s="7" t="inlineStr"/>
+      <c r="E33" s="12" t="inlineStr"/>
+      <c r="F33" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="H33" s="11" t="n"/>
-      <c r="I33" s="7" t="inlineStr"/>
+      <c r="I33" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="K33" s="11" t="n"/>
       <c r="L33" s="7" t="inlineStr">
         <is>
-          <t>Jose Carlos Carrieri, Sócio-administrador</t>
+          <t>28/02/2025</t>
         </is>
       </c>
       <c r="N33" s="11" t="n"/>
-      <c r="O33" s="7" t="inlineStr"/>
+      <c r="O33" s="7" t="inlineStr">
+        <is>
+          <t>18/03/2025</t>
+        </is>
+      </c>
       <c r="Q33" s="11" t="n"/>
-      <c r="R33" s="3" t="n"/>
-      <c r="S33" s="3" t="n"/>
-      <c r="T33" s="4" t="n"/>
+      <c r="R33" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T33" s="11" t="n"/>
       <c r="U33" s="3" t="n"/>
       <c r="V33" s="3" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n"/>
-      <c r="B34" s="1" t="n"/>
-      <c r="C34" s="1" t="n"/>
-      <c r="D34" s="1" t="n"/>
-      <c r="E34" s="1" t="n"/>
-      <c r="F34" s="1" t="n"/>
-      <c r="G34" s="1" t="n"/>
-      <c r="H34" s="1" t="n"/>
-      <c r="I34" s="1" t="n"/>
-      <c r="J34" s="1" t="n"/>
-      <c r="K34" s="1" t="n"/>
-      <c r="L34" s="1" t="n"/>
-      <c r="M34" s="1" t="n"/>
-      <c r="N34" s="1" t="n"/>
-      <c r="O34" s="1" t="n"/>
-      <c r="P34" s="1" t="n"/>
-      <c r="Q34" s="1" t="n"/>
-      <c r="R34" s="1" t="n"/>
-      <c r="S34" s="1" t="n"/>
-      <c r="T34" s="1" t="n"/>
-      <c r="U34" s="1" t="n"/>
-      <c r="V34" s="1" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">*******IGNORE ESTA PARTE DO RELATORIO (ela sera eventualmente consultada pelos desenvolvedores deste aplicativo para esclarecer duvidas sobre o comportamento da IA) </t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr"/>
-      <c r="C35" s="2" t="inlineStr"/>
-      <c r="D35" s="2" t="inlineStr"/>
-      <c r="E35" s="5" t="inlineStr"/>
-      <c r="F35" s="13" t="inlineStr"/>
+      <c r="W33" s="4" t="n"/>
+      <c r="X33" s="3" t="n"/>
+      <c r="Y33" s="3" t="n"/>
+    </row>
+    <row r="34" ht="65" customHeight="1">
+      <c r="A34" s="7" t="inlineStr"/>
+      <c r="B34" s="7" t="inlineStr"/>
+      <c r="C34" s="7" t="inlineStr">
+        <is>
+          <t>Valor ipi</t>
+        </is>
+      </c>
+      <c r="D34" s="7" t="inlineStr"/>
+      <c r="E34" s="12" t="inlineStr"/>
+      <c r="F34" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H34" s="11" t="n"/>
+      <c r="I34" s="7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="K34" s="11" t="n"/>
+      <c r="L34" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N34" s="11" t="n"/>
+      <c r="O34" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="Q34" s="11" t="n"/>
+      <c r="R34" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T34" s="11" t="n"/>
+      <c r="U34" s="3" t="n"/>
+      <c r="V34" s="3" t="n"/>
+      <c r="W34" s="4" t="n"/>
+      <c r="X34" s="3" t="n"/>
+      <c r="Y34" s="3" t="n"/>
+    </row>
+    <row r="35" ht="65" customHeight="1">
+      <c r="A35" s="7" t="inlineStr"/>
+      <c r="B35" s="7" t="inlineStr"/>
+      <c r="C35" s="7" t="inlineStr">
+        <is>
+          <t>Valor total da proposta</t>
+        </is>
+      </c>
+      <c r="D35" s="7" t="inlineStr"/>
+      <c r="E35" s="12" t="inlineStr"/>
+      <c r="F35" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="H35" s="11" t="n"/>
-      <c r="I35" s="13" t="inlineStr"/>
+      <c r="I35" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="K35" s="11" t="n"/>
-      <c r="L35" s="13" t="inlineStr"/>
+      <c r="L35" s="7" t="inlineStr">
+        <is>
+          <t>91.346,77</t>
+        </is>
+      </c>
       <c r="N35" s="11" t="n"/>
-      <c r="O35" s="13" t="inlineStr"/>
+      <c r="O35" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="Q35" s="11" t="n"/>
-      <c r="R35" s="3" t="n"/>
-      <c r="S35" s="3" t="n"/>
-      <c r="T35" s="4" t="n"/>
+      <c r="R35" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T35" s="11" t="n"/>
       <c r="U35" s="3" t="n"/>
       <c r="V35" s="3" t="n"/>
+      <c r="W35" s="4" t="n"/>
+      <c r="X35" s="3" t="n"/>
+      <c r="Y35" s="3" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="inlineStr"/>
-      <c r="B36" s="3" t="inlineStr"/>
-      <c r="C36" s="3" t="inlineStr"/>
-      <c r="D36" s="3" t="inlineStr"/>
-      <c r="E36" s="4" t="inlineStr"/>
-      <c r="F36" s="7" t="inlineStr"/>
-      <c r="H36" s="11" t="n"/>
-      <c r="I36" s="7" t="inlineStr"/>
-      <c r="K36" s="11" t="n"/>
-      <c r="L36" s="7" t="inlineStr"/>
-      <c r="N36" s="11" t="n"/>
-      <c r="O36" s="7" t="inlineStr"/>
-      <c r="Q36" s="11" t="n"/>
-      <c r="R36" s="3" t="n"/>
-      <c r="S36" s="3" t="n"/>
-      <c r="T36" s="4" t="n"/>
-      <c r="U36" s="3" t="n"/>
-      <c r="V36" s="3" t="n"/>
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="1" t="n"/>
+      <c r="C36" s="1" t="n"/>
+      <c r="D36" s="1" t="n"/>
+      <c r="E36" s="1" t="n"/>
+      <c r="F36" s="1" t="n"/>
+      <c r="G36" s="1" t="n"/>
+      <c r="H36" s="1" t="n"/>
+      <c r="I36" s="1" t="n"/>
+      <c r="J36" s="1" t="n"/>
+      <c r="K36" s="1" t="n"/>
+      <c r="L36" s="1" t="n"/>
+      <c r="M36" s="1" t="n"/>
+      <c r="N36" s="1" t="n"/>
+      <c r="O36" s="1" t="n"/>
+      <c r="P36" s="1" t="n"/>
+      <c r="Q36" s="1" t="n"/>
+      <c r="R36" s="1" t="n"/>
+      <c r="S36" s="1" t="n"/>
+      <c r="T36" s="1" t="n"/>
+      <c r="U36" s="1" t="n"/>
+      <c r="V36" s="1" t="n"/>
+      <c r="W36" s="1" t="n"/>
+      <c r="X36" s="1" t="n"/>
+      <c r="Y36" s="1" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>Produto 1</t>
-        </is>
-      </c>
-      <c r="B37" s="3" t="inlineStr"/>
-      <c r="C37" s="3" t="inlineStr"/>
-      <c r="D37" s="3" t="inlineStr"/>
-      <c r="E37" s="4" t="inlineStr"/>
-      <c r="F37" s="7" t="inlineStr"/>
+          <t>Quadro de sócios e administradores</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr"/>
+      <c r="C37" s="2" t="inlineStr"/>
+      <c r="D37" s="2" t="inlineStr"/>
+      <c r="E37" s="5" t="inlineStr"/>
+      <c r="F37" s="2" t="inlineStr"/>
       <c r="H37" s="11" t="n"/>
-      <c r="I37" s="7" t="inlineStr"/>
+      <c r="I37" s="2" t="inlineStr"/>
       <c r="K37" s="11" t="n"/>
-      <c r="L37" s="7" t="inlineStr"/>
+      <c r="L37" s="2" t="inlineStr"/>
       <c r="N37" s="11" t="n"/>
-      <c r="O37" s="7" t="inlineStr"/>
+      <c r="O37" s="2" t="inlineStr"/>
       <c r="Q37" s="11" t="n"/>
-      <c r="R37" s="3" t="n"/>
-      <c r="S37" s="3" t="n"/>
-      <c r="T37" s="4" t="n"/>
+      <c r="R37" s="2" t="inlineStr"/>
+      <c r="T37" s="11" t="n"/>
       <c r="U37" s="3" t="n"/>
       <c r="V37" s="3" t="n"/>
-    </row>
-    <row r="38" ht="90" customHeight="1">
-      <c r="A38" s="14" t="inlineStr">
-        <is>
-          <t>Descrição do produto demandado na requisição de compra</t>
-        </is>
-      </c>
-      <c r="B38" s="7" t="inlineStr"/>
-      <c r="C38" s="7" t="inlineStr"/>
-      <c r="D38" s="7" t="inlineStr"/>
-      <c r="E38" s="12" t="inlineStr"/>
-      <c r="F38" s="7" t="inlineStr">
-        <is>
-          <t>Descrição: Argamassa/Rejunte Industrializado; Produto: Argamassa Assentamento; Fabricante: Ecomix; Referencia: Abnt Nbr 14725:2012; Cor: Cinza; Apresentacao: 50 Kg</t>
-        </is>
-      </c>
-      <c r="G38" s="15" t="n"/>
-      <c r="H38" s="16" t="n"/>
-      <c r="I38" s="7" t="inlineStr">
-        <is>
-          <t>Descrição: Argamassa/Rejunte Industrializado; Produto: Argamassa Assentamento; Fabricante: Ecomix; Referencia: Abnt Nbr 14725:2012; Cor: Cinza; Apresentacao: 50 Kg</t>
-        </is>
-      </c>
-      <c r="J38" s="15" t="n"/>
-      <c r="K38" s="16" t="n"/>
-      <c r="L38" s="7" t="inlineStr">
-        <is>
-          <t>Descrição: Argamassa/Rejunte Industrializado; Produto: Argamassa Assentamento; Fabricante: Ecomix; Referencia: Abnt Nbr 14725:2012; Cor: Cinza; Apresentacao: 50 Kg</t>
-        </is>
-      </c>
-      <c r="M38" s="15" t="n"/>
-      <c r="N38" s="16" t="n"/>
-      <c r="O38" s="7" t="inlineStr">
-        <is>
-          <t>Descrição: Argamassa/Rejunte Industrializado; Produto: Argamassa Assentamento; Fabricante: Ecomix; Referencia: Abnt Nbr 14725:2012; Cor: Cinza; Apresentacao: 50 Kg</t>
-        </is>
-      </c>
-      <c r="P38" s="15" t="n"/>
-      <c r="Q38" s="16" t="n"/>
-      <c r="R38" s="3" t="n"/>
-      <c r="S38" s="3" t="n"/>
-      <c r="T38" s="4" t="n"/>
+      <c r="W37" s="4" t="n"/>
+      <c r="X37" s="3" t="n"/>
+      <c r="Y37" s="3" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>Este CNPJ tem sócio em comum com outro CNPJ ?</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="inlineStr"/>
+      <c r="C38" s="3" t="inlineStr"/>
+      <c r="D38" s="3" t="inlineStr"/>
+      <c r="E38" s="4" t="inlineStr"/>
+      <c r="F38" s="13" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H38" s="11" t="n"/>
+      <c r="I38" s="13" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="K38" s="11" t="n"/>
+      <c r="L38" s="3" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="N38" s="11" t="n"/>
+      <c r="O38" s="3" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Q38" s="11" t="n"/>
+      <c r="R38" s="3" t="inlineStr"/>
+      <c r="T38" s="11" t="n"/>
       <c r="U38" s="3" t="n"/>
       <c r="V38" s="3" t="n"/>
-    </row>
-    <row r="39" ht="90" customHeight="1">
-      <c r="A39" s="14" t="inlineStr">
-        <is>
-          <t>Descrição do produto oferecido na proposta (que a IA associou a este produto demandado)</t>
-        </is>
-      </c>
-      <c r="B39" s="7" t="inlineStr"/>
-      <c r="C39" s="7" t="inlineStr"/>
-      <c r="D39" s="7" t="inlineStr"/>
-      <c r="E39" s="12" t="inlineStr"/>
+      <c r="W38" s="4" t="n"/>
+      <c r="X38" s="3" t="n"/>
+      <c r="Y38" s="3" t="n"/>
+    </row>
+    <row r="39" ht="30" customHeight="1">
+      <c r="A39" s="3" t="inlineStr"/>
+      <c r="B39" s="3" t="inlineStr"/>
+      <c r="C39" s="3" t="inlineStr"/>
+      <c r="D39" s="3" t="inlineStr"/>
+      <c r="E39" s="4" t="inlineStr"/>
       <c r="F39" s="7" t="inlineStr">
         <is>
-          <t>Argamassa Ecomix 50 Kg</t>
-        </is>
-      </c>
-      <c r="G39" s="15" t="n"/>
-      <c r="H39" s="16" t="n"/>
+          <t>Mind Business Consultoria Ltda, Sócio</t>
+        </is>
+      </c>
+      <c r="H39" s="11" t="n"/>
       <c r="I39" s="7" t="inlineStr">
         <is>
-          <t>Votomassa Multiplo Uso 50Kg</t>
-        </is>
-      </c>
-      <c r="J39" s="15" t="n"/>
-      <c r="K39" s="16" t="n"/>
-      <c r="L39" s="7" t="inlineStr"/>
-      <c r="M39" s="15" t="n"/>
-      <c r="N39" s="16" t="n"/>
+          <t>Mind Business Consultoria Ltda, Sócio</t>
+        </is>
+      </c>
+      <c r="K39" s="11" t="n"/>
+      <c r="L39" s="7" t="inlineStr">
+        <is>
+          <t>Marcio Arruda Miotto, Sócio-administrador</t>
+        </is>
+      </c>
+      <c r="N39" s="11" t="n"/>
       <c r="O39" s="7" t="inlineStr">
         <is>
-          <t>Argamassa Colante Assentamento</t>
-        </is>
-      </c>
-      <c r="P39" s="15" t="n"/>
-      <c r="Q39" s="16" t="n"/>
-      <c r="R39" s="3" t="n"/>
-      <c r="S39" s="3" t="n"/>
-      <c r="T39" s="4" t="n"/>
+          <t>Sunrise Empreendimentos Imobiliarios E Participacoes Ltda, Sócio</t>
+        </is>
+      </c>
+      <c r="Q39" s="11" t="n"/>
+      <c r="R39" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T39" s="11" t="n"/>
       <c r="U39" s="3" t="n"/>
       <c r="V39" s="3" t="n"/>
-    </row>
-    <row r="40" ht="90" customHeight="1">
-      <c r="A40" s="14" t="inlineStr">
-        <is>
-          <t>Raciocinio usado pela IA para associar este produto demandado com este produto oferecido</t>
-        </is>
-      </c>
-      <c r="B40" s="7" t="inlineStr"/>
-      <c r="C40" s="7" t="inlineStr"/>
-      <c r="D40" s="7" t="inlineStr"/>
-      <c r="E40" s="12" t="inlineStr"/>
+      <c r="W39" s="4" t="n"/>
+      <c r="X39" s="3" t="n"/>
+      <c r="Y39" s="3" t="n"/>
+    </row>
+    <row r="40" ht="30" customHeight="1">
+      <c r="A40" s="3" t="inlineStr"/>
+      <c r="B40" s="3" t="inlineStr"/>
+      <c r="C40" s="3" t="inlineStr"/>
+      <c r="D40" s="3" t="inlineStr"/>
+      <c r="E40" s="4" t="inlineStr"/>
       <c r="F40" s="7" t="inlineStr">
         <is>
-          <t>A associação foi feita com base na semelhança do fabricante ('Ecomix'), tipo de produto ('Argamassa') e apresentação ('50 Kg').</t>
-        </is>
-      </c>
-      <c r="G40" s="15" t="n"/>
-      <c r="H40" s="16" t="n"/>
+          <t>Vinicius Jose Santos, Sócio-administrador</t>
+        </is>
+      </c>
+      <c r="H40" s="11" t="n"/>
       <c r="I40" s="7" t="inlineStr">
         <is>
-          <t>A associação foi feita com base na similaridade do tipo de produto ('ARGAMASSA ASSENTAMENTO' vs 'VOTOMASSA MULTIPLO USO') e na apresentação (50KG). A quantidade ofertada (800 SC = 40.000 KG) é diferente da demandada (150.000 KG).</t>
-        </is>
-      </c>
-      <c r="J40" s="15" t="n"/>
-      <c r="K40" s="16" t="n"/>
-      <c r="L40" s="7" t="inlineStr"/>
-      <c r="M40" s="15" t="n"/>
-      <c r="N40" s="16" t="n"/>
+          <t>Vinicius Jose Santos, Sócio-administrador</t>
+        </is>
+      </c>
+      <c r="K40" s="11" t="n"/>
+      <c r="L40" s="7" t="inlineStr">
+        <is>
+          <t>Marcos Arruda Miotto, Sócio-administrador</t>
+        </is>
+      </c>
+      <c r="N40" s="11" t="n"/>
       <c r="O40" s="7" t="inlineStr">
         <is>
-          <t>A associação foi feita com base na correspondência do fabricante (ECOMIX) e do tipo de produto (ARGAMASSA ASSENTAMENTO). A quantidade demandada de 150.000 KG é equivalente a 3.000 sacos de 50 KG, o que corresponde à quantidade ofertada de 3.000 unidades.</t>
-        </is>
-      </c>
-      <c r="P40" s="15" t="n"/>
-      <c r="Q40" s="16" t="n"/>
-      <c r="R40" s="3" t="n"/>
-      <c r="S40" s="3" t="n"/>
-      <c r="T40" s="4" t="n"/>
+          <t>Fernanda Denicoli Pereira Crispim, Administrador</t>
+        </is>
+      </c>
+      <c r="Q40" s="11" t="n"/>
+      <c r="R40" s="7" t="inlineStr"/>
+      <c r="T40" s="11" t="n"/>
       <c r="U40" s="3" t="n"/>
       <c r="V40" s="3" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="inlineStr">
-        <is>
-          <t>Semelhança entre o produto demandado e o produto oferecido</t>
-        </is>
-      </c>
+      <c r="W40" s="4" t="n"/>
+      <c r="X40" s="3" t="n"/>
+      <c r="Y40" s="3" t="n"/>
+    </row>
+    <row r="41" ht="30" customHeight="1">
+      <c r="A41" s="3" t="inlineStr"/>
       <c r="B41" s="3" t="inlineStr"/>
       <c r="C41" s="3" t="inlineStr"/>
       <c r="D41" s="3" t="inlineStr"/>
       <c r="E41" s="4" t="inlineStr"/>
-      <c r="F41" s="7" t="inlineStr">
-        <is>
-          <t>60%</t>
-        </is>
-      </c>
+      <c r="F41" s="7" t="inlineStr"/>
       <c r="H41" s="11" t="n"/>
-      <c r="I41" s="7" t="inlineStr">
-        <is>
-          <t>42%</t>
-        </is>
-      </c>
+      <c r="I41" s="7" t="inlineStr"/>
       <c r="K41" s="11" t="n"/>
-      <c r="L41" s="7" t="inlineStr"/>
+      <c r="L41" s="7" t="inlineStr">
+        <is>
+          <t>Maria Hortencia Arruda Miotto, Administrador</t>
+        </is>
+      </c>
       <c r="N41" s="11" t="n"/>
-      <c r="O41" s="7" t="inlineStr">
-        <is>
-          <t>71%</t>
-        </is>
-      </c>
+      <c r="O41" s="7" t="inlineStr"/>
       <c r="Q41" s="11" t="n"/>
-      <c r="R41" s="3" t="n"/>
-      <c r="S41" s="3" t="n"/>
-      <c r="T41" s="4" t="n"/>
+      <c r="R41" s="7" t="inlineStr"/>
+      <c r="T41" s="11" t="n"/>
       <c r="U41" s="3" t="n"/>
       <c r="V41" s="3" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="3" t="inlineStr">
-        <is>
-          <t>Quantidade demandada na requisicao de compra</t>
-        </is>
-      </c>
+      <c r="W41" s="4" t="n"/>
+      <c r="X41" s="3" t="n"/>
+      <c r="Y41" s="3" t="n"/>
+    </row>
+    <row r="42" ht="30" customHeight="1">
+      <c r="A42" s="3" t="inlineStr"/>
       <c r="B42" s="3" t="inlineStr"/>
       <c r="C42" s="3" t="inlineStr"/>
       <c r="D42" s="3" t="inlineStr"/>
       <c r="E42" s="4" t="inlineStr"/>
-      <c r="F42" s="7" t="inlineStr">
-        <is>
-          <t>150000</t>
-        </is>
-      </c>
+      <c r="F42" s="7" t="inlineStr"/>
       <c r="H42" s="11" t="n"/>
-      <c r="I42" s="7" t="inlineStr">
-        <is>
-          <t>150000</t>
-        </is>
-      </c>
+      <c r="I42" s="7" t="inlineStr"/>
       <c r="K42" s="11" t="n"/>
       <c r="L42" s="7" t="inlineStr">
         <is>
-          <t>150000</t>
+          <t>Marina Arruda Miotto, Sócio-administrador</t>
         </is>
       </c>
       <c r="N42" s="11" t="n"/>
-      <c r="O42" s="7" t="inlineStr">
-        <is>
-          <t>150000</t>
-        </is>
-      </c>
+      <c r="O42" s="7" t="inlineStr"/>
       <c r="Q42" s="11" t="n"/>
-      <c r="R42" s="3" t="n"/>
-      <c r="S42" s="3" t="n"/>
-      <c r="T42" s="4" t="n"/>
+      <c r="R42" s="7" t="inlineStr"/>
+      <c r="T42" s="11" t="n"/>
       <c r="U42" s="3" t="n"/>
       <c r="V42" s="3" t="n"/>
+      <c r="W42" s="4" t="n"/>
+      <c r="X42" s="3" t="n"/>
+      <c r="Y42" s="3" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="inlineStr">
-        <is>
-          <t>Quantidade oferecida na proposta</t>
-        </is>
-      </c>
-      <c r="B43" s="3" t="inlineStr"/>
-      <c r="C43" s="3" t="inlineStr"/>
-      <c r="D43" s="3" t="inlineStr"/>
-      <c r="E43" s="4" t="inlineStr"/>
-      <c r="F43" s="7" t="inlineStr">
-        <is>
-          <t>3000.0</t>
-        </is>
-      </c>
-      <c r="H43" s="11" t="n"/>
-      <c r="I43" s="7" t="inlineStr">
-        <is>
-          <t>800.0</t>
-        </is>
-      </c>
-      <c r="K43" s="11" t="n"/>
-      <c r="L43" s="7" t="inlineStr"/>
-      <c r="N43" s="11" t="n"/>
-      <c r="O43" s="7" t="inlineStr">
-        <is>
-          <t>3000.0</t>
-        </is>
-      </c>
-      <c r="Q43" s="11" t="n"/>
-      <c r="R43" s="3" t="n"/>
-      <c r="S43" s="3" t="n"/>
-      <c r="T43" s="4" t="n"/>
-      <c r="U43" s="3" t="n"/>
-      <c r="V43" s="3" t="n"/>
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="1" t="n"/>
+      <c r="C43" s="1" t="n"/>
+      <c r="D43" s="1" t="n"/>
+      <c r="E43" s="1" t="n"/>
+      <c r="F43" s="1" t="n"/>
+      <c r="G43" s="1" t="n"/>
+      <c r="H43" s="1" t="n"/>
+      <c r="I43" s="1" t="n"/>
+      <c r="J43" s="1" t="n"/>
+      <c r="K43" s="1" t="n"/>
+      <c r="L43" s="1" t="n"/>
+      <c r="M43" s="1" t="n"/>
+      <c r="N43" s="1" t="n"/>
+      <c r="O43" s="1" t="n"/>
+      <c r="P43" s="1" t="n"/>
+      <c r="Q43" s="1" t="n"/>
+      <c r="R43" s="1" t="n"/>
+      <c r="S43" s="1" t="n"/>
+      <c r="T43" s="1" t="n"/>
+      <c r="U43" s="1" t="n"/>
+      <c r="V43" s="1" t="n"/>
+      <c r="W43" s="1" t="n"/>
+      <c r="X43" s="1" t="n"/>
+      <c r="Y43" s="1" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="inlineStr">
-        <is>
-          <t>Unidade da quantidade demandada na requisicao de compra</t>
-        </is>
-      </c>
-      <c r="B44" s="3" t="inlineStr"/>
-      <c r="C44" s="3" t="inlineStr"/>
-      <c r="D44" s="3" t="inlineStr"/>
-      <c r="E44" s="4" t="inlineStr"/>
-      <c r="F44" s="7" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*******IGNORE ESTA PARTE DO RELATORIO (ela sera eventualmente consultada pelos desenvolvedores deste aplicativo para esclarecer duvidas sobre o comportamento da IA) </t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr"/>
+      <c r="C44" s="2" t="inlineStr"/>
+      <c r="D44" s="2" t="inlineStr"/>
+      <c r="E44" s="5" t="inlineStr"/>
+      <c r="F44" s="14" t="inlineStr"/>
       <c r="H44" s="11" t="n"/>
-      <c r="I44" s="7" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
+      <c r="I44" s="14" t="inlineStr"/>
       <c r="K44" s="11" t="n"/>
-      <c r="L44" s="7" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
+      <c r="L44" s="14" t="inlineStr"/>
       <c r="N44" s="11" t="n"/>
-      <c r="O44" s="7" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
+      <c r="O44" s="14" t="inlineStr"/>
       <c r="Q44" s="11" t="n"/>
-      <c r="R44" s="3" t="n"/>
-      <c r="S44" s="3" t="n"/>
-      <c r="T44" s="4" t="n"/>
+      <c r="R44" s="14" t="inlineStr"/>
+      <c r="T44" s="11" t="n"/>
       <c r="U44" s="3" t="n"/>
       <c r="V44" s="3" t="n"/>
+      <c r="W44" s="4" t="n"/>
+      <c r="X44" s="3" t="n"/>
+      <c r="Y44" s="3" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="inlineStr">
-        <is>
-          <t>Unidade da quantidade oferecida na proposta</t>
-        </is>
-      </c>
+      <c r="A45" s="3" t="inlineStr"/>
       <c r="B45" s="3" t="inlineStr"/>
       <c r="C45" s="3" t="inlineStr"/>
       <c r="D45" s="3" t="inlineStr"/>
@@ -2208,264 +2686,335 @@
       <c r="N45" s="11" t="n"/>
       <c r="O45" s="7" t="inlineStr"/>
       <c r="Q45" s="11" t="n"/>
-      <c r="R45" s="3" t="n"/>
-      <c r="S45" s="3" t="n"/>
-      <c r="T45" s="4" t="n"/>
+      <c r="R45" s="7" t="inlineStr"/>
+      <c r="T45" s="11" t="n"/>
       <c r="U45" s="3" t="n"/>
       <c r="V45" s="3" t="n"/>
+      <c r="W45" s="4" t="n"/>
+      <c r="X45" s="3" t="n"/>
+      <c r="Y45" s="3" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="inlineStr">
-        <is>
-          <t>Preço unitario oferecido na proposta</t>
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Produto demandado 1</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr"/>
       <c r="C46" s="3" t="inlineStr"/>
       <c r="D46" s="3" t="inlineStr"/>
       <c r="E46" s="4" t="inlineStr"/>
-      <c r="F46" s="7" t="inlineStr">
-        <is>
-          <t>36.91</t>
-        </is>
-      </c>
+      <c r="F46" s="7" t="inlineStr"/>
       <c r="H46" s="11" t="n"/>
-      <c r="I46" s="7" t="inlineStr">
-        <is>
-          <t>29.9</t>
-        </is>
-      </c>
+      <c r="I46" s="7" t="inlineStr"/>
       <c r="K46" s="11" t="n"/>
       <c r="L46" s="7" t="inlineStr"/>
       <c r="N46" s="11" t="n"/>
-      <c r="O46" s="7" t="inlineStr">
-        <is>
-          <t>28.0</t>
-        </is>
-      </c>
+      <c r="O46" s="7" t="inlineStr"/>
       <c r="Q46" s="11" t="n"/>
-      <c r="R46" s="3" t="n"/>
-      <c r="S46" s="3" t="n"/>
-      <c r="T46" s="4" t="n"/>
+      <c r="R46" s="7" t="inlineStr"/>
+      <c r="T46" s="11" t="n"/>
       <c r="U46" s="3" t="n"/>
       <c r="V46" s="3" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="3" t="inlineStr">
-        <is>
-          <t>Posição em que o produto aparece na proposta</t>
-        </is>
-      </c>
-      <c r="B47" s="3" t="inlineStr"/>
-      <c r="C47" s="3" t="inlineStr"/>
-      <c r="D47" s="3" t="inlineStr"/>
-      <c r="E47" s="4" t="inlineStr"/>
+      <c r="W46" s="4" t="n"/>
+      <c r="X46" s="3" t="n"/>
+      <c r="Y46" s="3" t="n"/>
+    </row>
+    <row r="47" ht="90" customHeight="1">
+      <c r="A47" s="15" t="inlineStr">
+        <is>
+          <t>Descricao do produto demandado na requisicao de compra</t>
+        </is>
+      </c>
+      <c r="B47" s="7" t="inlineStr"/>
+      <c r="C47" s="7" t="inlineStr"/>
+      <c r="D47" s="7" t="inlineStr"/>
+      <c r="E47" s="12" t="inlineStr"/>
       <c r="F47" s="7" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H47" s="11" t="n"/>
+          <t>Descrição: Tubo Pvc Serie Reforcada Para Esgoto; Diametro Nominal: 100 Mm; Comprimento: 6 M; Unidade Medida: Metro Linear; Cor: Branco; Norma: Nbr 5688, Nbr 8160</t>
+        </is>
+      </c>
+      <c r="G47" s="16" t="n"/>
+      <c r="H47" s="17" t="n"/>
       <c r="I47" s="7" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K47" s="11" t="n"/>
-      <c r="L47" s="7" t="inlineStr"/>
-      <c r="N47" s="11" t="n"/>
+          <t>Descrição: Tubo Pvc Serie Reforcada Para Esgoto; Diametro Nominal: 100 Mm; Comprimento: 6 M; Unidade Medida: Metro Linear; Cor: Branco; Norma: Nbr 5688, Nbr 8160</t>
+        </is>
+      </c>
+      <c r="J47" s="16" t="n"/>
+      <c r="K47" s="17" t="n"/>
+      <c r="L47" s="7" t="inlineStr">
+        <is>
+          <t>Descrição: Tubo Pvc Serie Reforcada Para Esgoto; Diametro Nominal: 100 Mm; Comprimento: 6 M; Unidade Medida: Metro Linear; Cor: Branco; Norma: Nbr 5688, Nbr 8160</t>
+        </is>
+      </c>
+      <c r="M47" s="16" t="n"/>
+      <c r="N47" s="17" t="n"/>
       <c r="O47" s="7" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q47" s="11" t="n"/>
-      <c r="R47" s="3" t="n"/>
-      <c r="S47" s="3" t="n"/>
-      <c r="T47" s="4" t="n"/>
+          <t>Descrição: Tubo Pvc Serie Reforcada Para Esgoto; Diametro Nominal: 100 Mm; Comprimento: 6 M; Unidade Medida: Metro Linear; Cor: Branco; Norma: Nbr 5688, Nbr 8160</t>
+        </is>
+      </c>
+      <c r="P47" s="16" t="n"/>
+      <c r="Q47" s="17" t="n"/>
+      <c r="R47" s="7" t="inlineStr">
+        <is>
+          <t>Descrição: Tubo Pvc Serie Reforcada Para Esgoto; Diametro Nominal: 100 Mm; Comprimento: 6 M; Unidade Medida: Metro Linear; Cor: Branco; Norma: Nbr 5688, Nbr 8160</t>
+        </is>
+      </c>
+      <c r="S47" s="16" t="n"/>
+      <c r="T47" s="17" t="n"/>
       <c r="U47" s="3" t="n"/>
       <c r="V47" s="3" t="n"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="3" t="inlineStr"/>
-      <c r="B48" s="3" t="inlineStr"/>
-      <c r="C48" s="3" t="inlineStr"/>
-      <c r="D48" s="3" t="inlineStr"/>
-      <c r="E48" s="4" t="inlineStr"/>
-      <c r="F48" s="7" t="inlineStr"/>
-      <c r="H48" s="11" t="n"/>
-      <c r="I48" s="7" t="inlineStr"/>
-      <c r="K48" s="11" t="n"/>
-      <c r="L48" s="7" t="inlineStr"/>
-      <c r="N48" s="11" t="n"/>
-      <c r="O48" s="7" t="inlineStr"/>
-      <c r="Q48" s="11" t="n"/>
-      <c r="R48" s="3" t="n"/>
-      <c r="S48" s="3" t="n"/>
-      <c r="T48" s="4" t="n"/>
+      <c r="W47" s="4" t="n"/>
+      <c r="X47" s="3" t="n"/>
+      <c r="Y47" s="3" t="n"/>
+    </row>
+    <row r="48" ht="90" customHeight="1">
+      <c r="A48" s="15" t="inlineStr">
+        <is>
+          <t>Descricao do produto oferecido na proposta (o qual a IA associou a este produto demandado)</t>
+        </is>
+      </c>
+      <c r="B48" s="7" t="inlineStr"/>
+      <c r="C48" s="7" t="inlineStr"/>
+      <c r="D48" s="7" t="inlineStr"/>
+      <c r="E48" s="12" t="inlineStr"/>
+      <c r="F48" s="7" t="inlineStr">
+        <is>
+          <t>Tubo S.Ref Esgoto 100Mmx6M(4) Amanco 1146</t>
+        </is>
+      </c>
+      <c r="G48" s="16" t="n"/>
+      <c r="H48" s="17" t="n"/>
+      <c r="I48" s="7" t="inlineStr">
+        <is>
+          <t>Tubo S.Ref Esgoto 100Mmx6M(4) Amanco 1146</t>
+        </is>
+      </c>
+      <c r="J48" s="16" t="n"/>
+      <c r="K48" s="17" t="n"/>
+      <c r="L48" s="7" t="inlineStr">
+        <is>
+          <t>Tubo Pvc Serie R 100 Mm Corr</t>
+        </is>
+      </c>
+      <c r="M48" s="16" t="n"/>
+      <c r="N48" s="17" t="n"/>
+      <c r="O48" s="7" t="inlineStr">
+        <is>
+          <t>Tubo Serie R Dn 100 6Mt</t>
+        </is>
+      </c>
+      <c r="P48" s="16" t="n"/>
+      <c r="Q48" s="17" t="n"/>
+      <c r="R48" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="S48" s="16" t="n"/>
+      <c r="T48" s="17" t="n"/>
       <c r="U48" s="3" t="n"/>
       <c r="V48" s="3" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>Produto 2</t>
-        </is>
-      </c>
-      <c r="B49" s="3" t="inlineStr"/>
-      <c r="C49" s="3" t="inlineStr"/>
-      <c r="D49" s="3" t="inlineStr"/>
-      <c r="E49" s="4" t="inlineStr"/>
-      <c r="F49" s="7" t="inlineStr"/>
-      <c r="H49" s="11" t="n"/>
-      <c r="I49" s="7" t="inlineStr"/>
-      <c r="K49" s="11" t="n"/>
-      <c r="L49" s="7" t="inlineStr"/>
-      <c r="N49" s="11" t="n"/>
-      <c r="O49" s="7" t="inlineStr"/>
-      <c r="Q49" s="11" t="n"/>
-      <c r="R49" s="3" t="n"/>
-      <c r="S49" s="3" t="n"/>
-      <c r="T49" s="4" t="n"/>
+      <c r="W48" s="4" t="n"/>
+      <c r="X48" s="3" t="n"/>
+      <c r="Y48" s="3" t="n"/>
+    </row>
+    <row r="49" ht="90" customHeight="1">
+      <c r="A49" s="15" t="inlineStr">
+        <is>
+          <t>Raciocinio usado pela IA para associar este produto demandado com este produto oferecido</t>
+        </is>
+      </c>
+      <c r="B49" s="7" t="inlineStr"/>
+      <c r="C49" s="7" t="inlineStr"/>
+      <c r="D49" s="7" t="inlineStr"/>
+      <c r="E49" s="12" t="inlineStr"/>
+      <c r="F49" s="7" t="inlineStr">
+        <is>
+          <t>A associação foi feita pois o produto oferecido corresponde ao produto demandado em tipo (TUBO S.REF ESGOTO), diâmetro (100MM), comprimento (6M) e quantidade (480).</t>
+        </is>
+      </c>
+      <c r="G49" s="16" t="n"/>
+      <c r="H49" s="17" t="n"/>
+      <c r="I49" s="7" t="inlineStr">
+        <is>
+          <t>A semelhança foi calculada considerando 7 pontos de comparação (6 especificações técnicas + 1 quantidade). Houve 4 correspondências: Descrição ('S.REF ESGOTO' vs 'SERIE REFORCADA'), Diâmetro (100mm), Comprimento (6m) e o valor da Quantidade (480). A similaridade é de 57% (4/7).</t>
+        </is>
+      </c>
+      <c r="J49" s="16" t="n"/>
+      <c r="K49" s="17" t="n"/>
+      <c r="L49" s="7" t="inlineStr">
+        <is>
+          <t>A associação foi feita com base na correspondência do diâmetro (100mm) e da quantidade total (80 barras de 6m = 480m). A descrição 'SERIE R' foi considerada compatível com 'SERIE REFORCADA'.</t>
+        </is>
+      </c>
+      <c r="M49" s="16" t="n"/>
+      <c r="N49" s="17" t="n"/>
+      <c r="O49" s="7" t="inlineStr">
+        <is>
+          <t>A associação foi feita com base na alta semelhança (71%) entre as especificações. O diâmetro (100mm), comprimento (6m) e a quantidade total (480m = 80 tubos de 6m) são compatíveis. A descrição 'SERIE R' corresponde a 'SERIE REFORCADA'.</t>
+        </is>
+      </c>
+      <c r="P49" s="16" t="n"/>
+      <c r="Q49" s="17" t="n"/>
+      <c r="R49" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="S49" s="16" t="n"/>
+      <c r="T49" s="17" t="n"/>
       <c r="U49" s="3" t="n"/>
       <c r="V49" s="3" t="n"/>
-    </row>
-    <row r="50" ht="90" customHeight="1">
-      <c r="A50" s="14" t="inlineStr">
-        <is>
-          <t>Descrição do produto demandado na requisição de compra</t>
-        </is>
-      </c>
-      <c r="B50" s="7" t="inlineStr"/>
-      <c r="C50" s="7" t="inlineStr"/>
-      <c r="D50" s="7" t="inlineStr"/>
-      <c r="E50" s="12" t="inlineStr"/>
+      <c r="W49" s="4" t="n"/>
+      <c r="X49" s="3" t="n"/>
+      <c r="Y49" s="3" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>Semelhanca entre o produto demandado e o produto oferecido</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="inlineStr"/>
+      <c r="C50" s="3" t="inlineStr"/>
+      <c r="D50" s="3" t="inlineStr"/>
+      <c r="E50" s="4" t="inlineStr"/>
       <c r="F50" s="7" t="inlineStr">
         <is>
-          <t>Descrição: Argamassa/Rejunte Industrializado; Produto: Argamassa Colante; Fabricante: Construcola; Referencia: Int/Ext Aciii; Cor: Cinza; Apresentacao: 20 Kg</t>
-        </is>
-      </c>
-      <c r="G50" s="15" t="n"/>
-      <c r="H50" s="16" t="n"/>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="H50" s="11" t="n"/>
       <c r="I50" s="7" t="inlineStr">
         <is>
-          <t>Descrição: Argamassa/Rejunte Industrializado; Produto: Argamassa Colante; Fabricante: Construcola; Referencia: Int/Ext Aciii; Cor: Cinza; Apresentacao: 20 Kg</t>
-        </is>
-      </c>
-      <c r="J50" s="15" t="n"/>
-      <c r="K50" s="16" t="n"/>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="K50" s="11" t="n"/>
       <c r="L50" s="7" t="inlineStr">
         <is>
-          <t>Descrição: Argamassa/Rejunte Industrializado; Produto: Argamassa Colante; Fabricante: Construcola; Referencia: Int/Ext Aciii; Cor: Cinza; Apresentacao: 20 Kg</t>
-        </is>
-      </c>
-      <c r="M50" s="15" t="n"/>
-      <c r="N50" s="16" t="n"/>
+          <t>43%</t>
+        </is>
+      </c>
+      <c r="N50" s="11" t="n"/>
       <c r="O50" s="7" t="inlineStr">
         <is>
-          <t>Descrição: Argamassa/Rejunte Industrializado; Produto: Argamassa Colante; Fabricante: Construcola; Referencia: Int/Ext Aciii; Cor: Cinza; Apresentacao: 20 Kg</t>
-        </is>
-      </c>
-      <c r="P50" s="15" t="n"/>
-      <c r="Q50" s="16" t="n"/>
-      <c r="R50" s="3" t="n"/>
-      <c r="S50" s="3" t="n"/>
-      <c r="T50" s="4" t="n"/>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="Q50" s="11" t="n"/>
+      <c r="R50" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T50" s="11" t="n"/>
       <c r="U50" s="3" t="n"/>
       <c r="V50" s="3" t="n"/>
-    </row>
-    <row r="51" ht="90" customHeight="1">
-      <c r="A51" s="14" t="inlineStr">
-        <is>
-          <t>Descrição do produto oferecido na proposta (que a IA associou a este produto demandado)</t>
-        </is>
-      </c>
-      <c r="B51" s="7" t="inlineStr"/>
-      <c r="C51" s="7" t="inlineStr"/>
-      <c r="D51" s="7" t="inlineStr"/>
-      <c r="E51" s="12" t="inlineStr"/>
+      <c r="W50" s="4" t="n"/>
+      <c r="X50" s="3" t="n"/>
+      <c r="Y50" s="3" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>Quantidade demandada na requisicao de compra</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="inlineStr"/>
+      <c r="C51" s="3" t="inlineStr"/>
+      <c r="D51" s="3" t="inlineStr"/>
+      <c r="E51" s="4" t="inlineStr"/>
       <c r="F51" s="7" t="inlineStr">
         <is>
-          <t>Argamassa Quartzolit Cinza 20 Kg</t>
-        </is>
-      </c>
-      <c r="G51" s="15" t="n"/>
-      <c r="H51" s="16" t="n"/>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="H51" s="11" t="n"/>
       <c r="I51" s="7" t="inlineStr">
         <is>
-          <t>Argam.Aciii Votorantim Cinza Flexivel 20Kg</t>
-        </is>
-      </c>
-      <c r="J51" s="15" t="n"/>
-      <c r="K51" s="16" t="n"/>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="K51" s="11" t="n"/>
       <c r="L51" s="7" t="inlineStr">
         <is>
-          <t>Arg.Votoran Aciii Colante.Cinza 20Kg $</t>
-        </is>
-      </c>
-      <c r="M51" s="15" t="n"/>
-      <c r="N51" s="16" t="n"/>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="N51" s="11" t="n"/>
       <c r="O51" s="7" t="inlineStr">
         <is>
-          <t>Aciii Arg. Assent. Super Cinza</t>
-        </is>
-      </c>
-      <c r="P51" s="15" t="n"/>
-      <c r="Q51" s="16" t="n"/>
-      <c r="R51" s="3" t="n"/>
-      <c r="S51" s="3" t="n"/>
-      <c r="T51" s="4" t="n"/>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="Q51" s="11" t="n"/>
+      <c r="R51" s="7" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="T51" s="11" t="n"/>
       <c r="U51" s="3" t="n"/>
       <c r="V51" s="3" t="n"/>
-    </row>
-    <row r="52" ht="90" customHeight="1">
-      <c r="A52" s="14" t="inlineStr">
-        <is>
-          <t>Raciocinio usado pela IA para associar este produto demandado com este produto oferecido</t>
-        </is>
-      </c>
-      <c r="B52" s="7" t="inlineStr"/>
-      <c r="C52" s="7" t="inlineStr"/>
-      <c r="D52" s="7" t="inlineStr"/>
-      <c r="E52" s="12" t="inlineStr"/>
+      <c r="W51" s="4" t="n"/>
+      <c r="X51" s="3" t="n"/>
+      <c r="Y51" s="3" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="inlineStr">
+        <is>
+          <t>Quantidade oferecida na proposta</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr"/>
+      <c r="C52" s="3" t="inlineStr"/>
+      <c r="D52" s="3" t="inlineStr"/>
+      <c r="E52" s="4" t="inlineStr"/>
       <c r="F52" s="7" t="inlineStr">
         <is>
-          <t>A associação foi feita com base na semelhança da cor ('Cinza'), apresentação ('20 kg'), quantidade (800 unidades) e tipo de produto ('Argamassa').</t>
-        </is>
-      </c>
-      <c r="G52" s="15" t="n"/>
-      <c r="H52" s="16" t="n"/>
+          <t>480.0</t>
+        </is>
+      </c>
+      <c r="H52" s="11" t="n"/>
       <c r="I52" s="7" t="inlineStr">
         <is>
-          <t>A associação foi feita pela alta similaridade nas especificações: tipo de produto ('ARGAMASSA COLANTE' vs 'ARGAM.ACIII'), referência ('ACIII'), cor ('CINZA') e apresentação ('20KG'). A quantidade ofertada (2000 SC) é diferente da demandada (800 SC).</t>
-        </is>
-      </c>
-      <c r="J52" s="15" t="n"/>
-      <c r="K52" s="16" t="n"/>
+          <t>480.0</t>
+        </is>
+      </c>
+      <c r="K52" s="11" t="n"/>
       <c r="L52" s="7" t="inlineStr">
         <is>
-          <t>A associação foi feita com base na alta semelhança (71%) entre as especificações. O produto oferecido 'ARG.VOTORAN ACIII COLANTE.CINZA 20KG' corresponde ao demandado 'ARGAMASSA COLANTE', referência 'ACIII', cor 'CINZA' e apresentação '20 KG'. Apenas o fabricante ('VOTORAN' vs 'CONSTRUCOLA') e a quantidade (4800 vs 800) são diferentes.</t>
-        </is>
-      </c>
-      <c r="M52" s="15" t="n"/>
-      <c r="N52" s="16" t="n"/>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="N52" s="11" t="n"/>
       <c r="O52" s="7" t="inlineStr">
         <is>
-          <t>A associação foi feita com base na correspondência da quantidade (800), referência (ACIII), cor (CINZA) e tipo de produto (ARGAMASSA COLANTE). A única divergência foi o fabricante (ofertado MINERCOLA vs. solicitado CONSTRUCOLA).</t>
-        </is>
-      </c>
-      <c r="P52" s="15" t="n"/>
-      <c r="Q52" s="16" t="n"/>
-      <c r="R52" s="3" t="n"/>
-      <c r="S52" s="3" t="n"/>
-      <c r="T52" s="4" t="n"/>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="Q52" s="11" t="n"/>
+      <c r="R52" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T52" s="11" t="n"/>
       <c r="U52" s="3" t="n"/>
       <c r="V52" s="3" t="n"/>
+      <c r="W52" s="4" t="n"/>
+      <c r="X52" s="3" t="n"/>
+      <c r="Y52" s="3" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>Semelhança entre o produto demandado e o produto oferecido</t>
+          <t>Unidade da quantidade demandada na requisicao de compra</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr"/>
@@ -2474,38 +3023,44 @@
       <c r="E53" s="4" t="inlineStr"/>
       <c r="F53" s="7" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="H53" s="11" t="n"/>
       <c r="I53" s="7" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="K53" s="11" t="n"/>
       <c r="L53" s="7" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="N53" s="11" t="n"/>
       <c r="O53" s="7" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="Q53" s="11" t="n"/>
-      <c r="R53" s="3" t="n"/>
-      <c r="S53" s="3" t="n"/>
-      <c r="T53" s="4" t="n"/>
+      <c r="R53" s="7" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="T53" s="11" t="n"/>
       <c r="U53" s="3" t="n"/>
       <c r="V53" s="3" t="n"/>
+      <c r="W53" s="4" t="n"/>
+      <c r="X53" s="3" t="n"/>
+      <c r="Y53" s="3" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>Quantidade demandada na requisicao de compra</t>
+          <t>Unidade da quantidade oferecida na proposta</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr"/>
@@ -2514,38 +3069,44 @@
       <c r="E54" s="4" t="inlineStr"/>
       <c r="F54" s="7" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="H54" s="11" t="n"/>
       <c r="I54" s="7" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="K54" s="11" t="n"/>
       <c r="L54" s="7" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="N54" s="11" t="n"/>
       <c r="O54" s="7" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="Q54" s="11" t="n"/>
-      <c r="R54" s="3" t="n"/>
-      <c r="S54" s="3" t="n"/>
-      <c r="T54" s="4" t="n"/>
+      <c r="R54" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T54" s="11" t="n"/>
       <c r="U54" s="3" t="n"/>
       <c r="V54" s="3" t="n"/>
+      <c r="W54" s="4" t="n"/>
+      <c r="X54" s="3" t="n"/>
+      <c r="Y54" s="3" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>Quantidade oferecida na proposta</t>
+          <t>Preco unitario oferecido na proposta</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr"/>
@@ -2554,38 +3115,44 @@
       <c r="E55" s="4" t="inlineStr"/>
       <c r="F55" s="7" t="inlineStr">
         <is>
-          <t>800.0</t>
+          <t>39.05</t>
         </is>
       </c>
       <c r="H55" s="11" t="n"/>
       <c r="I55" s="7" t="inlineStr">
         <is>
-          <t>2000.0</t>
+          <t>37.1</t>
         </is>
       </c>
       <c r="K55" s="11" t="n"/>
       <c r="L55" s="7" t="inlineStr">
         <is>
-          <t>4800.0</t>
+          <t>124.31</t>
         </is>
       </c>
       <c r="N55" s="11" t="n"/>
       <c r="O55" s="7" t="inlineStr">
         <is>
-          <t>800.0</t>
+          <t>158.063</t>
         </is>
       </c>
       <c r="Q55" s="11" t="n"/>
-      <c r="R55" s="3" t="n"/>
-      <c r="S55" s="3" t="n"/>
-      <c r="T55" s="4" t="n"/>
+      <c r="R55" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T55" s="11" t="n"/>
       <c r="U55" s="3" t="n"/>
       <c r="V55" s="3" t="n"/>
+      <c r="W55" s="4" t="n"/>
+      <c r="X55" s="3" t="n"/>
+      <c r="Y55" s="3" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>Unidade da quantidade demandada na requisicao de compra</t>
+          <t>Preco unitario ajustado (para quando sao diferentes as unidades da requisicao e da proposta)</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr"/>
@@ -2594,312 +3161,4069 @@
       <c r="E56" s="4" t="inlineStr"/>
       <c r="F56" s="7" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>39.05</t>
         </is>
       </c>
       <c r="H56" s="11" t="n"/>
       <c r="I56" s="7" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="K56" s="11" t="n"/>
       <c r="L56" s="7" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>20.72</t>
         </is>
       </c>
       <c r="N56" s="11" t="n"/>
       <c r="O56" s="7" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>26.344</t>
         </is>
       </c>
       <c r="Q56" s="11" t="n"/>
-      <c r="R56" s="3" t="n"/>
-      <c r="S56" s="3" t="n"/>
-      <c r="T56" s="4" t="n"/>
+      <c r="R56" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T56" s="11" t="n"/>
       <c r="U56" s="3" t="n"/>
       <c r="V56" s="3" t="n"/>
+      <c r="W56" s="4" t="n"/>
+      <c r="X56" s="3" t="n"/>
+      <c r="Y56" s="3" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>Unidade da quantidade oferecida na proposta</t>
+          <t>Posicao em que o produto aparece na proposta</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr"/>
       <c r="C57" s="3" t="inlineStr"/>
       <c r="D57" s="3" t="inlineStr"/>
       <c r="E57" s="4" t="inlineStr"/>
-      <c r="F57" s="7" t="inlineStr"/>
+      <c r="F57" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="H57" s="11" t="n"/>
-      <c r="I57" s="7" t="inlineStr"/>
+      <c r="I57" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K57" s="11" t="n"/>
-      <c r="L57" s="7" t="inlineStr"/>
+      <c r="L57" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="N57" s="11" t="n"/>
-      <c r="O57" s="7" t="inlineStr"/>
+      <c r="O57" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="Q57" s="11" t="n"/>
-      <c r="R57" s="3" t="n"/>
-      <c r="S57" s="3" t="n"/>
-      <c r="T57" s="4" t="n"/>
+      <c r="R57" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T57" s="11" t="n"/>
       <c r="U57" s="3" t="n"/>
       <c r="V57" s="3" t="n"/>
+      <c r="W57" s="4" t="n"/>
+      <c r="X57" s="3" t="n"/>
+      <c r="Y57" s="3" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="inlineStr">
-        <is>
-          <t>Preço unitario oferecido na proposta</t>
-        </is>
-      </c>
+      <c r="A58" s="3" t="inlineStr"/>
       <c r="B58" s="3" t="inlineStr"/>
       <c r="C58" s="3" t="inlineStr"/>
       <c r="D58" s="3" t="inlineStr"/>
       <c r="E58" s="4" t="inlineStr"/>
-      <c r="F58" s="7" t="inlineStr">
-        <is>
-          <t>48.45</t>
-        </is>
-      </c>
+      <c r="F58" s="7" t="inlineStr"/>
       <c r="H58" s="11" t="n"/>
-      <c r="I58" s="7" t="inlineStr">
-        <is>
-          <t>54.9</t>
-        </is>
-      </c>
+      <c r="I58" s="7" t="inlineStr"/>
       <c r="K58" s="11" t="n"/>
-      <c r="L58" s="7" t="inlineStr">
-        <is>
-          <t>43.4</t>
-        </is>
-      </c>
+      <c r="L58" s="7" t="inlineStr"/>
       <c r="N58" s="11" t="n"/>
-      <c r="O58" s="7" t="inlineStr">
-        <is>
-          <t>33.0</t>
-        </is>
-      </c>
+      <c r="O58" s="7" t="inlineStr"/>
       <c r="Q58" s="11" t="n"/>
-      <c r="R58" s="3" t="n"/>
-      <c r="S58" s="3" t="n"/>
-      <c r="T58" s="4" t="n"/>
+      <c r="R58" s="7" t="inlineStr"/>
+      <c r="T58" s="11" t="n"/>
       <c r="U58" s="3" t="n"/>
       <c r="V58" s="3" t="n"/>
+      <c r="W58" s="4" t="n"/>
+      <c r="X58" s="3" t="n"/>
+      <c r="Y58" s="3" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="inlineStr">
-        <is>
-          <t>Posição em que o produto aparece na proposta</t>
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>Produto demandado 2</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr"/>
       <c r="C59" s="3" t="inlineStr"/>
       <c r="D59" s="3" t="inlineStr"/>
       <c r="E59" s="4" t="inlineStr"/>
-      <c r="F59" s="7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F59" s="7" t="inlineStr"/>
       <c r="H59" s="11" t="n"/>
-      <c r="I59" s="7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="I59" s="7" t="inlineStr"/>
       <c r="K59" s="11" t="n"/>
-      <c r="L59" s="7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="L59" s="7" t="inlineStr"/>
       <c r="N59" s="11" t="n"/>
-      <c r="O59" s="7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="O59" s="7" t="inlineStr"/>
       <c r="Q59" s="11" t="n"/>
-      <c r="R59" s="3" t="n"/>
-      <c r="S59" s="3" t="n"/>
-      <c r="T59" s="4" t="n"/>
+      <c r="R59" s="7" t="inlineStr"/>
+      <c r="T59" s="11" t="n"/>
       <c r="U59" s="3" t="n"/>
       <c r="V59" s="3" t="n"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="3" t="inlineStr"/>
-      <c r="B60" s="3" t="inlineStr"/>
-      <c r="C60" s="3" t="inlineStr"/>
-      <c r="D60" s="3" t="inlineStr"/>
-      <c r="E60" s="4" t="inlineStr"/>
-      <c r="F60" s="7" t="inlineStr"/>
-      <c r="H60" s="11" t="n"/>
-      <c r="I60" s="7" t="inlineStr"/>
-      <c r="K60" s="11" t="n"/>
-      <c r="L60" s="7" t="inlineStr"/>
-      <c r="N60" s="11" t="n"/>
-      <c r="O60" s="7" t="inlineStr"/>
-      <c r="Q60" s="11" t="n"/>
-      <c r="R60" s="3" t="n"/>
-      <c r="S60" s="3" t="n"/>
-      <c r="T60" s="4" t="n"/>
+      <c r="W59" s="4" t="n"/>
+      <c r="X59" s="3" t="n"/>
+      <c r="Y59" s="3" t="n"/>
+    </row>
+    <row r="60" ht="90" customHeight="1">
+      <c r="A60" s="15" t="inlineStr">
+        <is>
+          <t>Descricao do produto demandado na requisicao de compra</t>
+        </is>
+      </c>
+      <c r="B60" s="7" t="inlineStr"/>
+      <c r="C60" s="7" t="inlineStr"/>
+      <c r="D60" s="7" t="inlineStr"/>
+      <c r="E60" s="12" t="inlineStr"/>
+      <c r="F60" s="7" t="inlineStr">
+        <is>
+          <t>Descrição: Tubo Pvc Serie Reforcada Para Esgoto; Diametro Nominal: 150 Mm; Comprimento: 6 M; Unidade Medida: Metro Linear; Cor: Branco; Norma: Nbr 5688, Nbr 8160</t>
+        </is>
+      </c>
+      <c r="G60" s="16" t="n"/>
+      <c r="H60" s="17" t="n"/>
+      <c r="I60" s="7" t="inlineStr">
+        <is>
+          <t>Descrição: Tubo Pvc Serie Reforcada Para Esgoto; Diametro Nominal: 150 Mm; Comprimento: 6 M; Unidade Medida: Metro Linear; Cor: Branco; Norma: Nbr 5688, Nbr 8160</t>
+        </is>
+      </c>
+      <c r="J60" s="16" t="n"/>
+      <c r="K60" s="17" t="n"/>
+      <c r="L60" s="7" t="inlineStr">
+        <is>
+          <t>Descrição: Tubo Pvc Serie Reforcada Para Esgoto; Diametro Nominal: 150 Mm; Comprimento: 6 M; Unidade Medida: Metro Linear; Cor: Branco; Norma: Nbr 5688, Nbr 8160</t>
+        </is>
+      </c>
+      <c r="M60" s="16" t="n"/>
+      <c r="N60" s="17" t="n"/>
+      <c r="O60" s="7" t="inlineStr">
+        <is>
+          <t>Descrição: Tubo Pvc Serie Reforcada Para Esgoto; Diametro Nominal: 150 Mm; Comprimento: 6 M; Unidade Medida: Metro Linear; Cor: Branco; Norma: Nbr 5688, Nbr 8160</t>
+        </is>
+      </c>
+      <c r="P60" s="16" t="n"/>
+      <c r="Q60" s="17" t="n"/>
+      <c r="R60" s="7" t="inlineStr">
+        <is>
+          <t>Descrição: Tubo Pvc Serie Reforcada Para Esgoto; Diametro Nominal: 150 Mm; Comprimento: 6 M; Unidade Medida: Metro Linear; Cor: Branco; Norma: Nbr 5688, Nbr 8160</t>
+        </is>
+      </c>
+      <c r="S60" s="16" t="n"/>
+      <c r="T60" s="17" t="n"/>
       <c r="U60" s="3" t="n"/>
       <c r="V60" s="3" t="n"/>
+      <c r="W60" s="4" t="n"/>
+      <c r="X60" s="3" t="n"/>
+      <c r="Y60" s="3" t="n"/>
+    </row>
+    <row r="61" ht="90" customHeight="1">
+      <c r="A61" s="15" t="inlineStr">
+        <is>
+          <t>Descricao do produto oferecido na proposta (o qual a IA associou a este produto demandado)</t>
+        </is>
+      </c>
+      <c r="B61" s="7" t="inlineStr"/>
+      <c r="C61" s="7" t="inlineStr"/>
+      <c r="D61" s="7" t="inlineStr"/>
+      <c r="E61" s="12" t="inlineStr"/>
+      <c r="F61" s="7" t="inlineStr">
+        <is>
+          <t>Tubo S.Ref Esgoto 150Mm X 6M (6) Amanco</t>
+        </is>
+      </c>
+      <c r="G61" s="16" t="n"/>
+      <c r="H61" s="17" t="n"/>
+      <c r="I61" s="7" t="inlineStr">
+        <is>
+          <t>Tubo S.Ref Esgoto 150Mm X 6M (6) Amanco</t>
+        </is>
+      </c>
+      <c r="J61" s="16" t="n"/>
+      <c r="K61" s="17" t="n"/>
+      <c r="L61" s="7" t="inlineStr">
+        <is>
+          <t>Tubo Pvc Serie R 150 Mm Corr</t>
+        </is>
+      </c>
+      <c r="M61" s="16" t="n"/>
+      <c r="N61" s="17" t="n"/>
+      <c r="O61" s="7" t="inlineStr">
+        <is>
+          <t>Tubo Serie R Dn 150 6Mt</t>
+        </is>
+      </c>
+      <c r="P61" s="16" t="n"/>
+      <c r="Q61" s="17" t="n"/>
+      <c r="R61" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="S61" s="16" t="n"/>
+      <c r="T61" s="17" t="n"/>
+      <c r="U61" s="3" t="n"/>
+      <c r="V61" s="3" t="n"/>
+      <c r="W61" s="4" t="n"/>
+      <c r="X61" s="3" t="n"/>
+      <c r="Y61" s="3" t="n"/>
+    </row>
+    <row r="62" ht="90" customHeight="1">
+      <c r="A62" s="15" t="inlineStr">
+        <is>
+          <t>Raciocinio usado pela IA para associar este produto demandado com este produto oferecido</t>
+        </is>
+      </c>
+      <c r="B62" s="7" t="inlineStr"/>
+      <c r="C62" s="7" t="inlineStr"/>
+      <c r="D62" s="7" t="inlineStr"/>
+      <c r="E62" s="12" t="inlineStr"/>
+      <c r="F62" s="7" t="inlineStr">
+        <is>
+          <t>A associação foi feita pois o produto oferecido corresponde ao produto demandado em tipo (TUBO S.REF ESGOTO), diâmetro (150MM), comprimento (6M) e a quantidade (524) é similar à demandada (530), com uma diferença de 1.13%.</t>
+        </is>
+      </c>
+      <c r="G62" s="16" t="n"/>
+      <c r="H62" s="17" t="n"/>
+      <c r="I62" s="7" t="inlineStr">
+        <is>
+          <t>A semelhança foi calculada considerando 7 pontos de comparação (6 especificações técnicas + 1 quantidade). Houve 4 correspondências: Descrição ('S.REF ESGOTO' vs 'SERIE REFORCADA'), Diâmetro (150mm), Comprimento (6m) e o valor da Quantidade (524 vs 530, diferença &lt; 3%). A similaridade é de 57% (4/7).</t>
+        </is>
+      </c>
+      <c r="J62" s="16" t="n"/>
+      <c r="K62" s="17" t="n"/>
+      <c r="L62" s="7" t="inlineStr">
+        <is>
+          <t>A associação foi feita com base na correspondência do diâmetro (150mm) e da quantidade total (88 barras de 6m = 528m), que é aproximadamente a quantidade demandada (530m). A descrição 'SERIE R' foi considerada compatível com 'SERIE REFORCADA'.</t>
+        </is>
+      </c>
+      <c r="M62" s="16" t="n"/>
+      <c r="N62" s="17" t="n"/>
+      <c r="O62" s="7" t="inlineStr">
+        <is>
+          <t>A associação foi feita com base na alta semelhança (71%) entre as especificações. O diâmetro (150mm), comprimento (6m) e a quantidade total (534m, que é muito próxima dos 530m demandados) são compatíveis. A descrição 'SERIE R' corresponde a 'SERIE REFORCADA'.</t>
+        </is>
+      </c>
+      <c r="P62" s="16" t="n"/>
+      <c r="Q62" s="17" t="n"/>
+      <c r="R62" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="S62" s="16" t="n"/>
+      <c r="T62" s="17" t="n"/>
+      <c r="U62" s="3" t="n"/>
+      <c r="V62" s="3" t="n"/>
+      <c r="W62" s="4" t="n"/>
+      <c r="X62" s="3" t="n"/>
+      <c r="Y62" s="3" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="inlineStr">
+        <is>
+          <t>Semelhanca entre o produto demandado e o produto oferecido</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="inlineStr"/>
+      <c r="C63" s="3" t="inlineStr"/>
+      <c r="D63" s="3" t="inlineStr"/>
+      <c r="E63" s="4" t="inlineStr"/>
+      <c r="F63" s="7" t="inlineStr">
+        <is>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="H63" s="11" t="n"/>
+      <c r="I63" s="7" t="inlineStr">
+        <is>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="K63" s="11" t="n"/>
+      <c r="L63" s="7" t="inlineStr">
+        <is>
+          <t>43%</t>
+        </is>
+      </c>
+      <c r="N63" s="11" t="n"/>
+      <c r="O63" s="7" t="inlineStr">
+        <is>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="Q63" s="11" t="n"/>
+      <c r="R63" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T63" s="11" t="n"/>
+      <c r="U63" s="3" t="n"/>
+      <c r="V63" s="3" t="n"/>
+      <c r="W63" s="4" t="n"/>
+      <c r="X63" s="3" t="n"/>
+      <c r="Y63" s="3" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t>Quantidade demandada na requisicao de compra</t>
+        </is>
+      </c>
+      <c r="B64" s="3" t="inlineStr"/>
+      <c r="C64" s="3" t="inlineStr"/>
+      <c r="D64" s="3" t="inlineStr"/>
+      <c r="E64" s="4" t="inlineStr"/>
+      <c r="F64" s="7" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="H64" s="11" t="n"/>
+      <c r="I64" s="7" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="K64" s="11" t="n"/>
+      <c r="L64" s="7" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="N64" s="11" t="n"/>
+      <c r="O64" s="7" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="Q64" s="11" t="n"/>
+      <c r="R64" s="7" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="T64" s="11" t="n"/>
+      <c r="U64" s="3" t="n"/>
+      <c r="V64" s="3" t="n"/>
+      <c r="W64" s="4" t="n"/>
+      <c r="X64" s="3" t="n"/>
+      <c r="Y64" s="3" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="inlineStr">
+        <is>
+          <t>Quantidade oferecida na proposta</t>
+        </is>
+      </c>
+      <c r="B65" s="3" t="inlineStr"/>
+      <c r="C65" s="3" t="inlineStr"/>
+      <c r="D65" s="3" t="inlineStr"/>
+      <c r="E65" s="4" t="inlineStr"/>
+      <c r="F65" s="7" t="inlineStr">
+        <is>
+          <t>524.0</t>
+        </is>
+      </c>
+      <c r="H65" s="11" t="n"/>
+      <c r="I65" s="7" t="inlineStr">
+        <is>
+          <t>524.0</t>
+        </is>
+      </c>
+      <c r="K65" s="11" t="n"/>
+      <c r="L65" s="7" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="N65" s="11" t="n"/>
+      <c r="O65" s="7" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="Q65" s="11" t="n"/>
+      <c r="R65" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T65" s="11" t="n"/>
+      <c r="U65" s="3" t="n"/>
+      <c r="V65" s="3" t="n"/>
+      <c r="W65" s="4" t="n"/>
+      <c r="X65" s="3" t="n"/>
+      <c r="Y65" s="3" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="inlineStr">
+        <is>
+          <t>Unidade da quantidade demandada na requisicao de compra</t>
+        </is>
+      </c>
+      <c r="B66" s="3" t="inlineStr"/>
+      <c r="C66" s="3" t="inlineStr"/>
+      <c r="D66" s="3" t="inlineStr"/>
+      <c r="E66" s="4" t="inlineStr"/>
+      <c r="F66" s="7" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="H66" s="11" t="n"/>
+      <c r="I66" s="7" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="K66" s="11" t="n"/>
+      <c r="L66" s="7" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="N66" s="11" t="n"/>
+      <c r="O66" s="7" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="Q66" s="11" t="n"/>
+      <c r="R66" s="7" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="T66" s="11" t="n"/>
+      <c r="U66" s="3" t="n"/>
+      <c r="V66" s="3" t="n"/>
+      <c r="W66" s="4" t="n"/>
+      <c r="X66" s="3" t="n"/>
+      <c r="Y66" s="3" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>Unidade da quantidade oferecida na proposta</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="inlineStr"/>
+      <c r="C67" s="3" t="inlineStr"/>
+      <c r="D67" s="3" t="inlineStr"/>
+      <c r="E67" s="4" t="inlineStr"/>
+      <c r="F67" s="7" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="H67" s="11" t="n"/>
+      <c r="I67" s="7" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="K67" s="11" t="n"/>
+      <c r="L67" s="7" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="N67" s="11" t="n"/>
+      <c r="O67" s="7" t="inlineStr">
+        <is>
+          <t>TB</t>
+        </is>
+      </c>
+      <c r="Q67" s="11" t="n"/>
+      <c r="R67" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T67" s="11" t="n"/>
+      <c r="U67" s="3" t="n"/>
+      <c r="V67" s="3" t="n"/>
+      <c r="W67" s="4" t="n"/>
+      <c r="X67" s="3" t="n"/>
+      <c r="Y67" s="3" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="inlineStr">
+        <is>
+          <t>Preco unitario oferecido na proposta</t>
+        </is>
+      </c>
+      <c r="B68" s="3" t="inlineStr"/>
+      <c r="C68" s="3" t="inlineStr"/>
+      <c r="D68" s="3" t="inlineStr"/>
+      <c r="E68" s="4" t="inlineStr"/>
+      <c r="F68" s="7" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="H68" s="11" t="n"/>
+      <c r="I68" s="7" t="inlineStr">
+        <is>
+          <t>72.15</t>
+        </is>
+      </c>
+      <c r="K68" s="11" t="n"/>
+      <c r="L68" s="7" t="inlineStr">
+        <is>
+          <t>256.88</t>
+        </is>
+      </c>
+      <c r="N68" s="11" t="n"/>
+      <c r="O68" s="7" t="inlineStr">
+        <is>
+          <t>318.82</t>
+        </is>
+      </c>
+      <c r="Q68" s="11" t="n"/>
+      <c r="R68" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T68" s="11" t="n"/>
+      <c r="U68" s="3" t="n"/>
+      <c r="V68" s="3" t="n"/>
+      <c r="W68" s="4" t="n"/>
+      <c r="X68" s="3" t="n"/>
+      <c r="Y68" s="3" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="inlineStr">
+        <is>
+          <t>Preco unitario ajustado (para quando sao diferentes as unidades da requisicao e da proposta)</t>
+        </is>
+      </c>
+      <c r="B69" s="3" t="inlineStr"/>
+      <c r="C69" s="3" t="inlineStr"/>
+      <c r="D69" s="3" t="inlineStr"/>
+      <c r="E69" s="4" t="inlineStr"/>
+      <c r="F69" s="7" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="H69" s="11" t="n"/>
+      <c r="I69" s="7" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="K69" s="11" t="n"/>
+      <c r="L69" s="7" t="inlineStr">
+        <is>
+          <t>42.81</t>
+        </is>
+      </c>
+      <c r="N69" s="11" t="n"/>
+      <c r="O69" s="7" t="inlineStr">
+        <is>
+          <t>53.137</t>
+        </is>
+      </c>
+      <c r="Q69" s="11" t="n"/>
+      <c r="R69" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T69" s="11" t="n"/>
+      <c r="U69" s="3" t="n"/>
+      <c r="V69" s="3" t="n"/>
+      <c r="W69" s="4" t="n"/>
+      <c r="X69" s="3" t="n"/>
+      <c r="Y69" s="3" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="inlineStr">
+        <is>
+          <t>Posicao em que o produto aparece na proposta</t>
+        </is>
+      </c>
+      <c r="B70" s="3" t="inlineStr"/>
+      <c r="C70" s="3" t="inlineStr"/>
+      <c r="D70" s="3" t="inlineStr"/>
+      <c r="E70" s="4" t="inlineStr"/>
+      <c r="F70" s="7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H70" s="11" t="n"/>
+      <c r="I70" s="7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K70" s="11" t="n"/>
+      <c r="L70" s="7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N70" s="11" t="n"/>
+      <c r="O70" s="7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q70" s="11" t="n"/>
+      <c r="R70" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T70" s="11" t="n"/>
+      <c r="U70" s="3" t="n"/>
+      <c r="V70" s="3" t="n"/>
+      <c r="W70" s="4" t="n"/>
+      <c r="X70" s="3" t="n"/>
+      <c r="Y70" s="3" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="inlineStr"/>
+      <c r="B71" s="3" t="inlineStr"/>
+      <c r="C71" s="3" t="inlineStr"/>
+      <c r="D71" s="3" t="inlineStr"/>
+      <c r="E71" s="4" t="inlineStr"/>
+      <c r="F71" s="7" t="inlineStr"/>
+      <c r="H71" s="11" t="n"/>
+      <c r="I71" s="7" t="inlineStr"/>
+      <c r="K71" s="11" t="n"/>
+      <c r="L71" s="7" t="inlineStr"/>
+      <c r="N71" s="11" t="n"/>
+      <c r="O71" s="7" t="inlineStr"/>
+      <c r="Q71" s="11" t="n"/>
+      <c r="R71" s="7" t="inlineStr"/>
+      <c r="T71" s="11" t="n"/>
+      <c r="U71" s="3" t="n"/>
+      <c r="V71" s="3" t="n"/>
+      <c r="W71" s="4" t="n"/>
+      <c r="X71" s="3" t="n"/>
+      <c r="Y71" s="3" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>Produto demandado 3</t>
+        </is>
+      </c>
+      <c r="B72" s="3" t="inlineStr"/>
+      <c r="C72" s="3" t="inlineStr"/>
+      <c r="D72" s="3" t="inlineStr"/>
+      <c r="E72" s="4" t="inlineStr"/>
+      <c r="F72" s="7" t="inlineStr"/>
+      <c r="H72" s="11" t="n"/>
+      <c r="I72" s="7" t="inlineStr"/>
+      <c r="K72" s="11" t="n"/>
+      <c r="L72" s="7" t="inlineStr"/>
+      <c r="N72" s="11" t="n"/>
+      <c r="O72" s="7" t="inlineStr"/>
+      <c r="Q72" s="11" t="n"/>
+      <c r="R72" s="7" t="inlineStr"/>
+      <c r="T72" s="11" t="n"/>
+      <c r="U72" s="3" t="n"/>
+      <c r="V72" s="3" t="n"/>
+      <c r="W72" s="4" t="n"/>
+      <c r="X72" s="3" t="n"/>
+      <c r="Y72" s="3" t="n"/>
+    </row>
+    <row r="73" ht="90" customHeight="1">
+      <c r="A73" s="15" t="inlineStr">
+        <is>
+          <t>Descricao do produto demandado na requisicao de compra</t>
+        </is>
+      </c>
+      <c r="B73" s="7" t="inlineStr"/>
+      <c r="C73" s="7" t="inlineStr"/>
+      <c r="D73" s="7" t="inlineStr"/>
+      <c r="E73" s="12" t="inlineStr"/>
+      <c r="F73" s="7" t="inlineStr">
+        <is>
+          <t>Descrição: Tubo Pvc Serie Reforcada Para Esgoto; Diametro Nominal: 200 Mm; Comprimento: 6 M; Unidade Medida: Metro Linear; Cor: Branco; Norma: Nbr 5688, Nbr 8160</t>
+        </is>
+      </c>
+      <c r="G73" s="16" t="n"/>
+      <c r="H73" s="17" t="n"/>
+      <c r="I73" s="7" t="inlineStr">
+        <is>
+          <t>Descrição: Tubo Pvc Serie Reforcada Para Esgoto; Diametro Nominal: 200 Mm; Comprimento: 6 M; Unidade Medida: Metro Linear; Cor: Branco; Norma: Nbr 5688, Nbr 8160</t>
+        </is>
+      </c>
+      <c r="J73" s="16" t="n"/>
+      <c r="K73" s="17" t="n"/>
+      <c r="L73" s="7" t="inlineStr">
+        <is>
+          <t>Descrição: Tubo Pvc Serie Reforcada Para Esgoto; Diametro Nominal: 200 Mm; Comprimento: 6 M; Unidade Medida: Metro Linear; Cor: Branco; Norma: Nbr 5688, Nbr 8160</t>
+        </is>
+      </c>
+      <c r="M73" s="16" t="n"/>
+      <c r="N73" s="17" t="n"/>
+      <c r="O73" s="7" t="inlineStr">
+        <is>
+          <t>Descrição: Tubo Pvc Serie Reforcada Para Esgoto; Diametro Nominal: 200 Mm; Comprimento: 6 M; Unidade Medida: Metro Linear; Cor: Branco; Norma: Nbr 5688, Nbr 8160</t>
+        </is>
+      </c>
+      <c r="P73" s="16" t="n"/>
+      <c r="Q73" s="17" t="n"/>
+      <c r="R73" s="7" t="inlineStr">
+        <is>
+          <t>Descrição: Tubo Pvc Serie Reforcada Para Esgoto; Diametro Nominal: 200 Mm; Comprimento: 6 M; Unidade Medida: Metro Linear; Cor: Branco; Norma: Nbr 5688, Nbr 8160</t>
+        </is>
+      </c>
+      <c r="S73" s="16" t="n"/>
+      <c r="T73" s="17" t="n"/>
+      <c r="U73" s="3" t="n"/>
+      <c r="V73" s="3" t="n"/>
+      <c r="W73" s="4" t="n"/>
+      <c r="X73" s="3" t="n"/>
+      <c r="Y73" s="3" t="n"/>
+    </row>
+    <row r="74" ht="90" customHeight="1">
+      <c r="A74" s="15" t="inlineStr">
+        <is>
+          <t>Descricao do produto oferecido na proposta (o qual a IA associou a este produto demandado)</t>
+        </is>
+      </c>
+      <c r="B74" s="7" t="inlineStr"/>
+      <c r="C74" s="7" t="inlineStr"/>
+      <c r="D74" s="7" t="inlineStr"/>
+      <c r="E74" s="12" t="inlineStr"/>
+      <c r="F74" s="7" t="inlineStr">
+        <is>
+          <t>Tubo Esgoto 200Mm X 6M (8) Amanco</t>
+        </is>
+      </c>
+      <c r="G74" s="16" t="n"/>
+      <c r="H74" s="17" t="n"/>
+      <c r="I74" s="7" t="inlineStr">
+        <is>
+          <t>Tubo Esgoto 200Mm X 6M (8) Amanco</t>
+        </is>
+      </c>
+      <c r="J74" s="16" t="n"/>
+      <c r="K74" s="17" t="n"/>
+      <c r="L74" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="M74" s="16" t="n"/>
+      <c r="N74" s="17" t="n"/>
+      <c r="O74" s="7" t="inlineStr">
+        <is>
+          <t>Tubo Pvc Ocre 200Mm 6Mt</t>
+        </is>
+      </c>
+      <c r="P74" s="16" t="n"/>
+      <c r="Q74" s="17" t="n"/>
+      <c r="R74" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="S74" s="16" t="n"/>
+      <c r="T74" s="17" t="n"/>
+      <c r="U74" s="3" t="n"/>
+      <c r="V74" s="3" t="n"/>
+      <c r="W74" s="4" t="n"/>
+      <c r="X74" s="3" t="n"/>
+      <c r="Y74" s="3" t="n"/>
+    </row>
+    <row r="75" ht="90" customHeight="1">
+      <c r="A75" s="15" t="inlineStr">
+        <is>
+          <t>Raciocinio usado pela IA para associar este produto demandado com este produto oferecido</t>
+        </is>
+      </c>
+      <c r="B75" s="7" t="inlineStr"/>
+      <c r="C75" s="7" t="inlineStr"/>
+      <c r="D75" s="7" t="inlineStr"/>
+      <c r="E75" s="12" t="inlineStr"/>
+      <c r="F75" s="7" t="inlineStr">
+        <is>
+          <t>A associação foi feita pois o produto oferecido corresponde ao produto demandado em tipo (TUBO ESGOTO), diâmetro (200MM), comprimento (6M) e quantidade (48).</t>
+        </is>
+      </c>
+      <c r="G75" s="16" t="n"/>
+      <c r="H75" s="17" t="n"/>
+      <c r="I75" s="7" t="inlineStr">
+        <is>
+          <t>A semelhança foi calculada considerando 7 pontos de comparação (6 especificações técnicas + 1 quantidade). Houve 4 correspondências: Descrição ('TUBO ESGOTO' vs 'SERIE REFORCADA' considerado compatível), Diâmetro (200mm), Comprimento (6m) e o valor da Quantidade (48). A similaridade é de 57% (4/7).</t>
+        </is>
+      </c>
+      <c r="J75" s="16" t="n"/>
+      <c r="K75" s="17" t="n"/>
+      <c r="L75" s="7" t="inlineStr">
+        <is>
+          <t>A maior semelhança encontrada foi de 29% com o item 3 da proposta. Embora o diâmetro (200mm) e a quantidade total (8 barras * 6m/barra = 48m) correspondam, a descrição do produto ('VINILFORT JEI') difere da solicitada ('SERIE REFORCADA'), resultando em uma semelhança abaixo do limiar de 39%.</t>
+        </is>
+      </c>
+      <c r="M75" s="16" t="n"/>
+      <c r="N75" s="17" t="n"/>
+      <c r="O75" s="7" t="inlineStr">
+        <is>
+          <t>A associação foi feita pois a semelhança (43%) está acima do limiar de 39%. O diâmetro (200mm) e o comprimento (6m) são compatíveis. A cor ('OCRE' vs 'BRANCO') e a quantidade (216m vs 48m) são divergentes, resultando em uma semelhança menor, mas ainda suficiente para a associação.</t>
+        </is>
+      </c>
+      <c r="P75" s="16" t="n"/>
+      <c r="Q75" s="17" t="n"/>
+      <c r="R75" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="S75" s="16" t="n"/>
+      <c r="T75" s="17" t="n"/>
+      <c r="U75" s="3" t="n"/>
+      <c r="V75" s="3" t="n"/>
+      <c r="W75" s="4" t="n"/>
+      <c r="X75" s="3" t="n"/>
+      <c r="Y75" s="3" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="inlineStr">
+        <is>
+          <t>Semelhanca entre o produto demandado e o produto oferecido</t>
+        </is>
+      </c>
+      <c r="B76" s="3" t="inlineStr"/>
+      <c r="C76" s="3" t="inlineStr"/>
+      <c r="D76" s="3" t="inlineStr"/>
+      <c r="E76" s="4" t="inlineStr"/>
+      <c r="F76" s="7" t="inlineStr">
+        <is>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="H76" s="11" t="n"/>
+      <c r="I76" s="7" t="inlineStr">
+        <is>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="K76" s="11" t="n"/>
+      <c r="L76" s="7" t="inlineStr">
+        <is>
+          <t>29%</t>
+        </is>
+      </c>
+      <c r="N76" s="11" t="n"/>
+      <c r="O76" s="7" t="inlineStr">
+        <is>
+          <t>43%</t>
+        </is>
+      </c>
+      <c r="Q76" s="11" t="n"/>
+      <c r="R76" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T76" s="11" t="n"/>
+      <c r="U76" s="3" t="n"/>
+      <c r="V76" s="3" t="n"/>
+      <c r="W76" s="4" t="n"/>
+      <c r="X76" s="3" t="n"/>
+      <c r="Y76" s="3" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="inlineStr">
+        <is>
+          <t>Quantidade demandada na requisicao de compra</t>
+        </is>
+      </c>
+      <c r="B77" s="3" t="inlineStr"/>
+      <c r="C77" s="3" t="inlineStr"/>
+      <c r="D77" s="3" t="inlineStr"/>
+      <c r="E77" s="4" t="inlineStr"/>
+      <c r="F77" s="7" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H77" s="11" t="n"/>
+      <c r="I77" s="7" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="K77" s="11" t="n"/>
+      <c r="L77" s="7" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N77" s="11" t="n"/>
+      <c r="O77" s="7" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="Q77" s="11" t="n"/>
+      <c r="R77" s="7" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="T77" s="11" t="n"/>
+      <c r="U77" s="3" t="n"/>
+      <c r="V77" s="3" t="n"/>
+      <c r="W77" s="4" t="n"/>
+      <c r="X77" s="3" t="n"/>
+      <c r="Y77" s="3" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="inlineStr">
+        <is>
+          <t>Quantidade oferecida na proposta</t>
+        </is>
+      </c>
+      <c r="B78" s="3" t="inlineStr"/>
+      <c r="C78" s="3" t="inlineStr"/>
+      <c r="D78" s="3" t="inlineStr"/>
+      <c r="E78" s="4" t="inlineStr"/>
+      <c r="F78" s="7" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="H78" s="11" t="n"/>
+      <c r="I78" s="7" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="K78" s="11" t="n"/>
+      <c r="L78" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N78" s="11" t="n"/>
+      <c r="O78" s="7" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="Q78" s="11" t="n"/>
+      <c r="R78" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T78" s="11" t="n"/>
+      <c r="U78" s="3" t="n"/>
+      <c r="V78" s="3" t="n"/>
+      <c r="W78" s="4" t="n"/>
+      <c r="X78" s="3" t="n"/>
+      <c r="Y78" s="3" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="inlineStr">
+        <is>
+          <t>Unidade da quantidade demandada na requisicao de compra</t>
+        </is>
+      </c>
+      <c r="B79" s="3" t="inlineStr"/>
+      <c r="C79" s="3" t="inlineStr"/>
+      <c r="D79" s="3" t="inlineStr"/>
+      <c r="E79" s="4" t="inlineStr"/>
+      <c r="F79" s="7" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="H79" s="11" t="n"/>
+      <c r="I79" s="7" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="K79" s="11" t="n"/>
+      <c r="L79" s="7" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="N79" s="11" t="n"/>
+      <c r="O79" s="7" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="Q79" s="11" t="n"/>
+      <c r="R79" s="7" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="T79" s="11" t="n"/>
+      <c r="U79" s="3" t="n"/>
+      <c r="V79" s="3" t="n"/>
+      <c r="W79" s="4" t="n"/>
+      <c r="X79" s="3" t="n"/>
+      <c r="Y79" s="3" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="inlineStr">
+        <is>
+          <t>Unidade da quantidade oferecida na proposta</t>
+        </is>
+      </c>
+      <c r="B80" s="3" t="inlineStr"/>
+      <c r="C80" s="3" t="inlineStr"/>
+      <c r="D80" s="3" t="inlineStr"/>
+      <c r="E80" s="4" t="inlineStr"/>
+      <c r="F80" s="7" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="H80" s="11" t="n"/>
+      <c r="I80" s="7" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="K80" s="11" t="n"/>
+      <c r="L80" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N80" s="11" t="n"/>
+      <c r="O80" s="7" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
+      <c r="Q80" s="11" t="n"/>
+      <c r="R80" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T80" s="11" t="n"/>
+      <c r="U80" s="3" t="n"/>
+      <c r="V80" s="3" t="n"/>
+      <c r="W80" s="4" t="n"/>
+      <c r="X80" s="3" t="n"/>
+      <c r="Y80" s="3" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="inlineStr">
+        <is>
+          <t>Preco unitario oferecido na proposta</t>
+        </is>
+      </c>
+      <c r="B81" s="3" t="inlineStr"/>
+      <c r="C81" s="3" t="inlineStr"/>
+      <c r="D81" s="3" t="inlineStr"/>
+      <c r="E81" s="4" t="inlineStr"/>
+      <c r="F81" s="7" t="inlineStr">
+        <is>
+          <t>137.4</t>
+        </is>
+      </c>
+      <c r="H81" s="11" t="n"/>
+      <c r="I81" s="7" t="inlineStr">
+        <is>
+          <t>130.53</t>
+        </is>
+      </c>
+      <c r="K81" s="11" t="n"/>
+      <c r="L81" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N81" s="11" t="n"/>
+      <c r="O81" s="7" t="inlineStr">
+        <is>
+          <t>433.386</t>
+        </is>
+      </c>
+      <c r="Q81" s="11" t="n"/>
+      <c r="R81" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T81" s="11" t="n"/>
+      <c r="U81" s="3" t="n"/>
+      <c r="V81" s="3" t="n"/>
+      <c r="W81" s="4" t="n"/>
+      <c r="X81" s="3" t="n"/>
+      <c r="Y81" s="3" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="inlineStr">
+        <is>
+          <t>Preco unitario ajustado (para quando sao diferentes as unidades da requisicao e da proposta)</t>
+        </is>
+      </c>
+      <c r="B82" s="3" t="inlineStr"/>
+      <c r="C82" s="3" t="inlineStr"/>
+      <c r="D82" s="3" t="inlineStr"/>
+      <c r="E82" s="4" t="inlineStr"/>
+      <c r="F82" s="7" t="inlineStr">
+        <is>
+          <t>137.4</t>
+        </is>
+      </c>
+      <c r="H82" s="11" t="n"/>
+      <c r="I82" s="7" t="inlineStr">
+        <is>
+          <t>21.76</t>
+        </is>
+      </c>
+      <c r="K82" s="11" t="n"/>
+      <c r="L82" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N82" s="11" t="n"/>
+      <c r="O82" s="7" t="inlineStr">
+        <is>
+          <t>72.231</t>
+        </is>
+      </c>
+      <c r="Q82" s="11" t="n"/>
+      <c r="R82" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T82" s="11" t="n"/>
+      <c r="U82" s="3" t="n"/>
+      <c r="V82" s="3" t="n"/>
+      <c r="W82" s="4" t="n"/>
+      <c r="X82" s="3" t="n"/>
+      <c r="Y82" s="3" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="inlineStr">
+        <is>
+          <t>Posicao em que o produto aparece na proposta</t>
+        </is>
+      </c>
+      <c r="B83" s="3" t="inlineStr"/>
+      <c r="C83" s="3" t="inlineStr"/>
+      <c r="D83" s="3" t="inlineStr"/>
+      <c r="E83" s="4" t="inlineStr"/>
+      <c r="F83" s="7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H83" s="11" t="n"/>
+      <c r="I83" s="7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K83" s="11" t="n"/>
+      <c r="L83" s="7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N83" s="11" t="n"/>
+      <c r="O83" s="7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q83" s="11" t="n"/>
+      <c r="R83" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T83" s="11" t="n"/>
+      <c r="U83" s="3" t="n"/>
+      <c r="V83" s="3" t="n"/>
+      <c r="W83" s="4" t="n"/>
+      <c r="X83" s="3" t="n"/>
+      <c r="Y83" s="3" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="inlineStr"/>
+      <c r="B84" s="3" t="inlineStr"/>
+      <c r="C84" s="3" t="inlineStr"/>
+      <c r="D84" s="3" t="inlineStr"/>
+      <c r="E84" s="4" t="inlineStr"/>
+      <c r="F84" s="7" t="inlineStr"/>
+      <c r="H84" s="11" t="n"/>
+      <c r="I84" s="7" t="inlineStr"/>
+      <c r="K84" s="11" t="n"/>
+      <c r="L84" s="7" t="inlineStr"/>
+      <c r="N84" s="11" t="n"/>
+      <c r="O84" s="7" t="inlineStr"/>
+      <c r="Q84" s="11" t="n"/>
+      <c r="R84" s="7" t="inlineStr"/>
+      <c r="T84" s="11" t="n"/>
+      <c r="U84" s="3" t="n"/>
+      <c r="V84" s="3" t="n"/>
+      <c r="W84" s="4" t="n"/>
+      <c r="X84" s="3" t="n"/>
+      <c r="Y84" s="3" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>Produto demandado 4</t>
+        </is>
+      </c>
+      <c r="B85" s="3" t="inlineStr"/>
+      <c r="C85" s="3" t="inlineStr"/>
+      <c r="D85" s="3" t="inlineStr"/>
+      <c r="E85" s="4" t="inlineStr"/>
+      <c r="F85" s="7" t="inlineStr"/>
+      <c r="H85" s="11" t="n"/>
+      <c r="I85" s="7" t="inlineStr"/>
+      <c r="K85" s="11" t="n"/>
+      <c r="L85" s="7" t="inlineStr"/>
+      <c r="N85" s="11" t="n"/>
+      <c r="O85" s="7" t="inlineStr"/>
+      <c r="Q85" s="11" t="n"/>
+      <c r="R85" s="7" t="inlineStr"/>
+      <c r="T85" s="11" t="n"/>
+      <c r="U85" s="3" t="n"/>
+      <c r="V85" s="3" t="n"/>
+      <c r="W85" s="4" t="n"/>
+      <c r="X85" s="3" t="n"/>
+      <c r="Y85" s="3" t="n"/>
+    </row>
+    <row r="86" ht="90" customHeight="1">
+      <c r="A86" s="15" t="inlineStr">
+        <is>
+          <t>Descricao do produto demandado na requisicao de compra</t>
+        </is>
+      </c>
+      <c r="B86" s="7" t="inlineStr"/>
+      <c r="C86" s="7" t="inlineStr"/>
+      <c r="D86" s="7" t="inlineStr"/>
+      <c r="E86" s="12" t="inlineStr"/>
+      <c r="F86" s="7" t="inlineStr">
+        <is>
+          <t>Descrição: Tubo Esgoto; Material: Pvc; Diametro Nominal: 150 Mm; Cor: Ocre; Conexao: Jei; Norma: Nbr 7362; Fabricante: Tigre</t>
+        </is>
+      </c>
+      <c r="G86" s="16" t="n"/>
+      <c r="H86" s="17" t="n"/>
+      <c r="I86" s="7" t="inlineStr">
+        <is>
+          <t>Descrição: Tubo Esgoto; Material: Pvc; Diametro Nominal: 150 Mm; Cor: Ocre; Conexao: Jei; Norma: Nbr 7362; Fabricante: Tigre</t>
+        </is>
+      </c>
+      <c r="J86" s="16" t="n"/>
+      <c r="K86" s="17" t="n"/>
+      <c r="L86" s="7" t="inlineStr">
+        <is>
+          <t>Descrição: Tubo Esgoto; Material: Pvc; Diametro Nominal: 150 Mm; Cor: Ocre; Conexao: Jei; Norma: Nbr 7362; Fabricante: Tigre</t>
+        </is>
+      </c>
+      <c r="M86" s="16" t="n"/>
+      <c r="N86" s="17" t="n"/>
+      <c r="O86" s="7" t="inlineStr">
+        <is>
+          <t>Descrição: Tubo Esgoto; Material: Pvc; Diametro Nominal: 150 Mm; Cor: Ocre; Conexao: Jei; Norma: Nbr 7362; Fabricante: Tigre</t>
+        </is>
+      </c>
+      <c r="P86" s="16" t="n"/>
+      <c r="Q86" s="17" t="n"/>
+      <c r="R86" s="7" t="inlineStr">
+        <is>
+          <t>Descrição: Tubo Esgoto; Material: Pvc; Diametro Nominal: 150 Mm; Cor: Ocre; Conexao: Jei; Norma: Nbr 7362; Fabricante: Tigre</t>
+        </is>
+      </c>
+      <c r="S86" s="16" t="n"/>
+      <c r="T86" s="17" t="n"/>
+      <c r="U86" s="3" t="n"/>
+      <c r="V86" s="3" t="n"/>
+      <c r="W86" s="4" t="n"/>
+      <c r="X86" s="3" t="n"/>
+      <c r="Y86" s="3" t="n"/>
+    </row>
+    <row r="87" ht="90" customHeight="1">
+      <c r="A87" s="15" t="inlineStr">
+        <is>
+          <t>Descricao do produto oferecido na proposta (o qual a IA associou a este produto demandado)</t>
+        </is>
+      </c>
+      <c r="B87" s="7" t="inlineStr"/>
+      <c r="C87" s="7" t="inlineStr"/>
+      <c r="D87" s="7" t="inlineStr"/>
+      <c r="E87" s="12" t="inlineStr"/>
+      <c r="F87" s="7" t="inlineStr">
+        <is>
+          <t>Tubo Coletor 150Mm X 6M Amanco</t>
+        </is>
+      </c>
+      <c r="G87" s="16" t="n"/>
+      <c r="H87" s="17" t="n"/>
+      <c r="I87" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="J87" s="16" t="n"/>
+      <c r="K87" s="17" t="n"/>
+      <c r="L87" s="7" t="inlineStr">
+        <is>
+          <t>Tubo Pvc Vinilfort Jei 150 Mm Corr</t>
+        </is>
+      </c>
+      <c r="M87" s="16" t="n"/>
+      <c r="N87" s="17" t="n"/>
+      <c r="O87" s="7" t="inlineStr">
+        <is>
+          <t>Tubo Pvc Ocre 150Mm 6Mt</t>
+        </is>
+      </c>
+      <c r="P87" s="16" t="n"/>
+      <c r="Q87" s="17" t="n"/>
+      <c r="R87" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="S87" s="16" t="n"/>
+      <c r="T87" s="17" t="n"/>
+      <c r="U87" s="3" t="n"/>
+      <c r="V87" s="3" t="n"/>
+      <c r="W87" s="4" t="n"/>
+      <c r="X87" s="3" t="n"/>
+      <c r="Y87" s="3" t="n"/>
+    </row>
+    <row r="88" ht="90" customHeight="1">
+      <c r="A88" s="15" t="inlineStr">
+        <is>
+          <t>Raciocinio usado pela IA para associar este produto demandado com este produto oferecido</t>
+        </is>
+      </c>
+      <c r="B88" s="7" t="inlineStr"/>
+      <c r="C88" s="7" t="inlineStr"/>
+      <c r="D88" s="7" t="inlineStr"/>
+      <c r="E88" s="12" t="inlineStr"/>
+      <c r="F88" s="7" t="inlineStr">
+        <is>
+          <t>A associação foi feita pois o produto oferecido tem descrição similar (TUBO COLETOR vs TUBO ESGOTO), mesmo diâmetro (150MM) e quantidade similar (312 vs 310, diferença de 0.64%). O fabricante difere (AMANCO vs TIGRE).</t>
+        </is>
+      </c>
+      <c r="G88" s="16" t="n"/>
+      <c r="H88" s="17" t="n"/>
+      <c r="I88" s="7" t="inlineStr">
+        <is>
+          <t>Nenhum produto ofertado atingiu a semelhança mínima de 39%. O produto mais próximo (item 004, 'TUBO COLETOR 150MM X 6M AMANCO') teve semelhança de 37.5%, pois apesar de corresponder em diâmetro, tipo (considerando 'coletor' como 'esgoto') e valor de quantidade, falhou em especificações importantes como fabricante ('AMANCO' vs 'TIGRE' solicitado), cor, conexão e norma.</t>
+        </is>
+      </c>
+      <c r="J88" s="16" t="n"/>
+      <c r="K88" s="17" t="n"/>
+      <c r="L88" s="7" t="inlineStr">
+        <is>
+          <t>A associação foi feita com base na correspondência de múltiplas especificações: tipo ('TUBO PVC'), diâmetro (150mm), conexão ('JEI') e quantidade total (52 barras de 6m = 312m), que é aproximadamente a quantidade demandada (310m).</t>
+        </is>
+      </c>
+      <c r="M88" s="16" t="n"/>
+      <c r="N88" s="17" t="n"/>
+      <c r="O88" s="7" t="inlineStr">
+        <is>
+          <t>A associação foi feita com base na alta semelhança (63%). O material (PVC), diâmetro (150mm), cor (OCRE) e a quantidade total (312m, muito próxima dos 310m demandados) são compatíveis. A única divergência notável é o fabricante ('CORR PLASTIK' vs 'TIGRE').</t>
+        </is>
+      </c>
+      <c r="P88" s="16" t="n"/>
+      <c r="Q88" s="17" t="n"/>
+      <c r="R88" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="S88" s="16" t="n"/>
+      <c r="T88" s="17" t="n"/>
+      <c r="U88" s="3" t="n"/>
+      <c r="V88" s="3" t="n"/>
+      <c r="W88" s="4" t="n"/>
+      <c r="X88" s="3" t="n"/>
+      <c r="Y88" s="3" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="inlineStr">
+        <is>
+          <t>Semelhanca entre o produto demandado e o produto oferecido</t>
+        </is>
+      </c>
+      <c r="B89" s="3" t="inlineStr"/>
+      <c r="C89" s="3" t="inlineStr"/>
+      <c r="D89" s="3" t="inlineStr"/>
+      <c r="E89" s="4" t="inlineStr"/>
+      <c r="F89" s="7" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="H89" s="11" t="n"/>
+      <c r="I89" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="K89" s="11" t="n"/>
+      <c r="L89" s="7" t="inlineStr">
+        <is>
+          <t>63%</t>
+        </is>
+      </c>
+      <c r="N89" s="11" t="n"/>
+      <c r="O89" s="7" t="inlineStr">
+        <is>
+          <t>63%</t>
+        </is>
+      </c>
+      <c r="Q89" s="11" t="n"/>
+      <c r="R89" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T89" s="11" t="n"/>
+      <c r="U89" s="3" t="n"/>
+      <c r="V89" s="3" t="n"/>
+      <c r="W89" s="4" t="n"/>
+      <c r="X89" s="3" t="n"/>
+      <c r="Y89" s="3" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="inlineStr">
+        <is>
+          <t>Quantidade demandada na requisicao de compra</t>
+        </is>
+      </c>
+      <c r="B90" s="3" t="inlineStr"/>
+      <c r="C90" s="3" t="inlineStr"/>
+      <c r="D90" s="3" t="inlineStr"/>
+      <c r="E90" s="4" t="inlineStr"/>
+      <c r="F90" s="7" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H90" s="11" t="n"/>
+      <c r="I90" s="7" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="K90" s="11" t="n"/>
+      <c r="L90" s="7" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="N90" s="11" t="n"/>
+      <c r="O90" s="7" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="Q90" s="11" t="n"/>
+      <c r="R90" s="7" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="T90" s="11" t="n"/>
+      <c r="U90" s="3" t="n"/>
+      <c r="V90" s="3" t="n"/>
+      <c r="W90" s="4" t="n"/>
+      <c r="X90" s="3" t="n"/>
+      <c r="Y90" s="3" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="inlineStr">
+        <is>
+          <t>Quantidade oferecida na proposta</t>
+        </is>
+      </c>
+      <c r="B91" s="3" t="inlineStr"/>
+      <c r="C91" s="3" t="inlineStr"/>
+      <c r="D91" s="3" t="inlineStr"/>
+      <c r="E91" s="4" t="inlineStr"/>
+      <c r="F91" s="7" t="inlineStr">
+        <is>
+          <t>312.0</t>
+        </is>
+      </c>
+      <c r="H91" s="11" t="n"/>
+      <c r="I91" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="K91" s="11" t="n"/>
+      <c r="L91" s="7" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="N91" s="11" t="n"/>
+      <c r="O91" s="7" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="Q91" s="11" t="n"/>
+      <c r="R91" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T91" s="11" t="n"/>
+      <c r="U91" s="3" t="n"/>
+      <c r="V91" s="3" t="n"/>
+      <c r="W91" s="4" t="n"/>
+      <c r="X91" s="3" t="n"/>
+      <c r="Y91" s="3" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="inlineStr">
+        <is>
+          <t>Unidade da quantidade demandada na requisicao de compra</t>
+        </is>
+      </c>
+      <c r="B92" s="3" t="inlineStr"/>
+      <c r="C92" s="3" t="inlineStr"/>
+      <c r="D92" s="3" t="inlineStr"/>
+      <c r="E92" s="4" t="inlineStr"/>
+      <c r="F92" s="7" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="H92" s="11" t="n"/>
+      <c r="I92" s="7" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="K92" s="11" t="n"/>
+      <c r="L92" s="7" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="N92" s="11" t="n"/>
+      <c r="O92" s="7" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="Q92" s="11" t="n"/>
+      <c r="R92" s="7" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="T92" s="11" t="n"/>
+      <c r="U92" s="3" t="n"/>
+      <c r="V92" s="3" t="n"/>
+      <c r="W92" s="4" t="n"/>
+      <c r="X92" s="3" t="n"/>
+      <c r="Y92" s="3" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="inlineStr">
+        <is>
+          <t>Unidade da quantidade oferecida na proposta</t>
+        </is>
+      </c>
+      <c r="B93" s="3" t="inlineStr"/>
+      <c r="C93" s="3" t="inlineStr"/>
+      <c r="D93" s="3" t="inlineStr"/>
+      <c r="E93" s="4" t="inlineStr"/>
+      <c r="F93" s="7" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="H93" s="11" t="n"/>
+      <c r="I93" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="K93" s="11" t="n"/>
+      <c r="L93" s="7" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="N93" s="11" t="n"/>
+      <c r="O93" s="7" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
+      <c r="Q93" s="11" t="n"/>
+      <c r="R93" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T93" s="11" t="n"/>
+      <c r="U93" s="3" t="n"/>
+      <c r="V93" s="3" t="n"/>
+      <c r="W93" s="4" t="n"/>
+      <c r="X93" s="3" t="n"/>
+      <c r="Y93" s="3" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="inlineStr">
+        <is>
+          <t>Preco unitario oferecido na proposta</t>
+        </is>
+      </c>
+      <c r="B94" s="3" t="inlineStr"/>
+      <c r="C94" s="3" t="inlineStr"/>
+      <c r="D94" s="3" t="inlineStr"/>
+      <c r="E94" s="4" t="inlineStr"/>
+      <c r="F94" s="7" t="inlineStr">
+        <is>
+          <t>65.86</t>
+        </is>
+      </c>
+      <c r="H94" s="11" t="n"/>
+      <c r="I94" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="K94" s="11" t="n"/>
+      <c r="L94" s="7" t="inlineStr">
+        <is>
+          <t>304.14</t>
+        </is>
+      </c>
+      <c r="N94" s="11" t="n"/>
+      <c r="O94" s="7" t="inlineStr">
+        <is>
+          <t>302.637</t>
+        </is>
+      </c>
+      <c r="Q94" s="11" t="n"/>
+      <c r="R94" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T94" s="11" t="n"/>
+      <c r="U94" s="3" t="n"/>
+      <c r="V94" s="3" t="n"/>
+      <c r="W94" s="4" t="n"/>
+      <c r="X94" s="3" t="n"/>
+      <c r="Y94" s="3" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="inlineStr">
+        <is>
+          <t>Preco unitario ajustado (para quando sao diferentes as unidades da requisicao e da proposta)</t>
+        </is>
+      </c>
+      <c r="B95" s="3" t="inlineStr"/>
+      <c r="C95" s="3" t="inlineStr"/>
+      <c r="D95" s="3" t="inlineStr"/>
+      <c r="E95" s="4" t="inlineStr"/>
+      <c r="F95" s="7" t="inlineStr">
+        <is>
+          <t>65.86</t>
+        </is>
+      </c>
+      <c r="H95" s="11" t="n"/>
+      <c r="I95" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="K95" s="11" t="n"/>
+      <c r="L95" s="7" t="inlineStr">
+        <is>
+          <t>50.69</t>
+        </is>
+      </c>
+      <c r="N95" s="11" t="n"/>
+      <c r="O95" s="7" t="inlineStr">
+        <is>
+          <t>50.44</t>
+        </is>
+      </c>
+      <c r="Q95" s="11" t="n"/>
+      <c r="R95" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T95" s="11" t="n"/>
+      <c r="U95" s="3" t="n"/>
+      <c r="V95" s="3" t="n"/>
+      <c r="W95" s="4" t="n"/>
+      <c r="X95" s="3" t="n"/>
+      <c r="Y95" s="3" t="n"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="inlineStr">
+        <is>
+          <t>Posicao em que o produto aparece na proposta</t>
+        </is>
+      </c>
+      <c r="B96" s="3" t="inlineStr"/>
+      <c r="C96" s="3" t="inlineStr"/>
+      <c r="D96" s="3" t="inlineStr"/>
+      <c r="E96" s="4" t="inlineStr"/>
+      <c r="F96" s="7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H96" s="11" t="n"/>
+      <c r="I96" s="7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K96" s="11" t="n"/>
+      <c r="L96" s="7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N96" s="11" t="n"/>
+      <c r="O96" s="7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q96" s="11" t="n"/>
+      <c r="R96" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T96" s="11" t="n"/>
+      <c r="U96" s="3" t="n"/>
+      <c r="V96" s="3" t="n"/>
+      <c r="W96" s="4" t="n"/>
+      <c r="X96" s="3" t="n"/>
+      <c r="Y96" s="3" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="inlineStr"/>
+      <c r="B97" s="3" t="inlineStr"/>
+      <c r="C97" s="3" t="inlineStr"/>
+      <c r="D97" s="3" t="inlineStr"/>
+      <c r="E97" s="4" t="inlineStr"/>
+      <c r="F97" s="7" t="inlineStr"/>
+      <c r="H97" s="11" t="n"/>
+      <c r="I97" s="7" t="inlineStr"/>
+      <c r="K97" s="11" t="n"/>
+      <c r="L97" s="7" t="inlineStr"/>
+      <c r="N97" s="11" t="n"/>
+      <c r="O97" s="7" t="inlineStr"/>
+      <c r="Q97" s="11" t="n"/>
+      <c r="R97" s="7" t="inlineStr"/>
+      <c r="T97" s="11" t="n"/>
+      <c r="U97" s="3" t="n"/>
+      <c r="V97" s="3" t="n"/>
+      <c r="W97" s="4" t="n"/>
+      <c r="X97" s="3" t="n"/>
+      <c r="Y97" s="3" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>Produto demandado 5</t>
+        </is>
+      </c>
+      <c r="B98" s="3" t="inlineStr"/>
+      <c r="C98" s="3" t="inlineStr"/>
+      <c r="D98" s="3" t="inlineStr"/>
+      <c r="E98" s="4" t="inlineStr"/>
+      <c r="F98" s="7" t="inlineStr"/>
+      <c r="H98" s="11" t="n"/>
+      <c r="I98" s="7" t="inlineStr"/>
+      <c r="K98" s="11" t="n"/>
+      <c r="L98" s="7" t="inlineStr"/>
+      <c r="N98" s="11" t="n"/>
+      <c r="O98" s="7" t="inlineStr"/>
+      <c r="Q98" s="11" t="n"/>
+      <c r="R98" s="7" t="inlineStr"/>
+      <c r="T98" s="11" t="n"/>
+      <c r="U98" s="3" t="n"/>
+      <c r="V98" s="3" t="n"/>
+      <c r="W98" s="4" t="n"/>
+      <c r="X98" s="3" t="n"/>
+      <c r="Y98" s="3" t="n"/>
+    </row>
+    <row r="99" ht="90" customHeight="1">
+      <c r="A99" s="15" t="inlineStr">
+        <is>
+          <t>Descricao do produto demandado na requisicao de compra</t>
+        </is>
+      </c>
+      <c r="B99" s="7" t="inlineStr"/>
+      <c r="C99" s="7" t="inlineStr"/>
+      <c r="D99" s="7" t="inlineStr"/>
+      <c r="E99" s="12" t="inlineStr"/>
+      <c r="F99" s="7" t="inlineStr">
+        <is>
+          <t>Descrição: Tubo Esgoto; Material: Pvc; Diametro Nominal: 200 Mm; Cor: Ocre; Conexao: Jei; Norma: Nbr 7362; Fabricante: Tigre</t>
+        </is>
+      </c>
+      <c r="G99" s="16" t="n"/>
+      <c r="H99" s="17" t="n"/>
+      <c r="I99" s="7" t="inlineStr">
+        <is>
+          <t>Descrição: Tubo Esgoto; Material: Pvc; Diametro Nominal: 200 Mm; Cor: Ocre; Conexao: Jei; Norma: Nbr 7362; Fabricante: Tigre</t>
+        </is>
+      </c>
+      <c r="J99" s="16" t="n"/>
+      <c r="K99" s="17" t="n"/>
+      <c r="L99" s="7" t="inlineStr">
+        <is>
+          <t>Descrição: Tubo Esgoto; Material: Pvc; Diametro Nominal: 200 Mm; Cor: Ocre; Conexao: Jei; Norma: Nbr 7362; Fabricante: Tigre</t>
+        </is>
+      </c>
+      <c r="M99" s="16" t="n"/>
+      <c r="N99" s="17" t="n"/>
+      <c r="O99" s="7" t="inlineStr">
+        <is>
+          <t>Descrição: Tubo Esgoto; Material: Pvc; Diametro Nominal: 200 Mm; Cor: Ocre; Conexao: Jei; Norma: Nbr 7362; Fabricante: Tigre</t>
+        </is>
+      </c>
+      <c r="P99" s="16" t="n"/>
+      <c r="Q99" s="17" t="n"/>
+      <c r="R99" s="7" t="inlineStr">
+        <is>
+          <t>Descrição: Tubo Esgoto; Material: Pvc; Diametro Nominal: 200 Mm; Cor: Ocre; Conexao: Jei; Norma: Nbr 7362; Fabricante: Tigre</t>
+        </is>
+      </c>
+      <c r="S99" s="16" t="n"/>
+      <c r="T99" s="17" t="n"/>
+      <c r="U99" s="3" t="n"/>
+      <c r="V99" s="3" t="n"/>
+      <c r="W99" s="4" t="n"/>
+      <c r="X99" s="3" t="n"/>
+      <c r="Y99" s="3" t="n"/>
+    </row>
+    <row r="100" ht="90" customHeight="1">
+      <c r="A100" s="15" t="inlineStr">
+        <is>
+          <t>Descricao do produto oferecido na proposta (o qual a IA associou a este produto demandado)</t>
+        </is>
+      </c>
+      <c r="B100" s="7" t="inlineStr"/>
+      <c r="C100" s="7" t="inlineStr"/>
+      <c r="D100" s="7" t="inlineStr"/>
+      <c r="E100" s="12" t="inlineStr"/>
+      <c r="F100" s="7" t="inlineStr">
+        <is>
+          <t>Tubo Coletor 200Mm X 6M Amanco</t>
+        </is>
+      </c>
+      <c r="G100" s="16" t="n"/>
+      <c r="H100" s="17" t="n"/>
+      <c r="I100" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="J100" s="16" t="n"/>
+      <c r="K100" s="17" t="n"/>
+      <c r="L100" s="7" t="inlineStr">
+        <is>
+          <t>Tubo Pvc Vinilfort Jei 200 Mm Corr</t>
+        </is>
+      </c>
+      <c r="M100" s="16" t="n"/>
+      <c r="N100" s="17" t="n"/>
+      <c r="O100" s="7" t="inlineStr">
+        <is>
+          <t>Tubo Pvc Ocre 200Mm 6Mt</t>
+        </is>
+      </c>
+      <c r="P100" s="16" t="n"/>
+      <c r="Q100" s="17" t="n"/>
+      <c r="R100" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="S100" s="16" t="n"/>
+      <c r="T100" s="17" t="n"/>
+      <c r="U100" s="3" t="n"/>
+      <c r="V100" s="3" t="n"/>
+      <c r="W100" s="4" t="n"/>
+      <c r="X100" s="3" t="n"/>
+      <c r="Y100" s="3" t="n"/>
+    </row>
+    <row r="101" ht="90" customHeight="1">
+      <c r="A101" s="15" t="inlineStr">
+        <is>
+          <t>Raciocinio usado pela IA para associar este produto demandado com este produto oferecido</t>
+        </is>
+      </c>
+      <c r="B101" s="7" t="inlineStr"/>
+      <c r="C101" s="7" t="inlineStr"/>
+      <c r="D101" s="7" t="inlineStr"/>
+      <c r="E101" s="12" t="inlineStr"/>
+      <c r="F101" s="7" t="inlineStr">
+        <is>
+          <t>A associação foi feita pois o produto oferecido tem descrição similar (TUBO COLETOR vs TUBO ESGOTO), mesmo diâmetro (200MM) e mesma quantidade (216). O fabricante difere (AMANCO vs TIGRE).</t>
+        </is>
+      </c>
+      <c r="G101" s="16" t="n"/>
+      <c r="H101" s="17" t="n"/>
+      <c r="I101" s="7" t="inlineStr">
+        <is>
+          <t>Nenhum produto ofertado atingiu a semelhança mínima de 39%. O produto mais próximo (item 005, 'TUBO COLETOR 200MM X 6M AMANCO') teve semelhança de 37.5%, pois apesar de corresponder em diâmetro, tipo (considerando 'coletor' como 'esgoto') e valor de quantidade, falhou em especificações importantes como fabricante ('AMANCO' vs 'TIGRE' solicitado), cor, conexão e norma.</t>
+        </is>
+      </c>
+      <c r="J101" s="16" t="n"/>
+      <c r="K101" s="17" t="n"/>
+      <c r="L101" s="7" t="inlineStr">
+        <is>
+          <t>A associação foi feita com base na correspondência de múltiplas especificações: tipo ('TUBO PVC'), diâmetro (200mm), conexão ('JEI') e quantidade total (36 barras de 6m = 216m), que corresponde exatamente à quantidade demandada.</t>
+        </is>
+      </c>
+      <c r="M101" s="16" t="n"/>
+      <c r="N101" s="17" t="n"/>
+      <c r="O101" s="7" t="inlineStr">
+        <is>
+          <t>A associação foi feita com base na alta semelhança (63%). O material (PVC), diâmetro (200mm), cor (OCRE) e a quantidade total (216m) são compatíveis. A única divergência notável é o fabricante ('CORR PLASTIK' vs 'TIGRE').</t>
+        </is>
+      </c>
+      <c r="P101" s="16" t="n"/>
+      <c r="Q101" s="17" t="n"/>
+      <c r="R101" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="S101" s="16" t="n"/>
+      <c r="T101" s="17" t="n"/>
+      <c r="U101" s="3" t="n"/>
+      <c r="V101" s="3" t="n"/>
+      <c r="W101" s="4" t="n"/>
+      <c r="X101" s="3" t="n"/>
+      <c r="Y101" s="3" t="n"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="inlineStr">
+        <is>
+          <t>Semelhanca entre o produto demandado e o produto oferecido</t>
+        </is>
+      </c>
+      <c r="B102" s="3" t="inlineStr"/>
+      <c r="C102" s="3" t="inlineStr"/>
+      <c r="D102" s="3" t="inlineStr"/>
+      <c r="E102" s="4" t="inlineStr"/>
+      <c r="F102" s="7" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="H102" s="11" t="n"/>
+      <c r="I102" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="K102" s="11" t="n"/>
+      <c r="L102" s="7" t="inlineStr">
+        <is>
+          <t>63%</t>
+        </is>
+      </c>
+      <c r="N102" s="11" t="n"/>
+      <c r="O102" s="7" t="inlineStr">
+        <is>
+          <t>63%</t>
+        </is>
+      </c>
+      <c r="Q102" s="11" t="n"/>
+      <c r="R102" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T102" s="11" t="n"/>
+      <c r="U102" s="3" t="n"/>
+      <c r="V102" s="3" t="n"/>
+      <c r="W102" s="4" t="n"/>
+      <c r="X102" s="3" t="n"/>
+      <c r="Y102" s="3" t="n"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="inlineStr">
+        <is>
+          <t>Quantidade demandada na requisicao de compra</t>
+        </is>
+      </c>
+      <c r="B103" s="3" t="inlineStr"/>
+      <c r="C103" s="3" t="inlineStr"/>
+      <c r="D103" s="3" t="inlineStr"/>
+      <c r="E103" s="4" t="inlineStr"/>
+      <c r="F103" s="7" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="H103" s="11" t="n"/>
+      <c r="I103" s="7" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="K103" s="11" t="n"/>
+      <c r="L103" s="7" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="N103" s="11" t="n"/>
+      <c r="O103" s="7" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="Q103" s="11" t="n"/>
+      <c r="R103" s="7" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="T103" s="11" t="n"/>
+      <c r="U103" s="3" t="n"/>
+      <c r="V103" s="3" t="n"/>
+      <c r="W103" s="4" t="n"/>
+      <c r="X103" s="3" t="n"/>
+      <c r="Y103" s="3" t="n"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="inlineStr">
+        <is>
+          <t>Quantidade oferecida na proposta</t>
+        </is>
+      </c>
+      <c r="B104" s="3" t="inlineStr"/>
+      <c r="C104" s="3" t="inlineStr"/>
+      <c r="D104" s="3" t="inlineStr"/>
+      <c r="E104" s="4" t="inlineStr"/>
+      <c r="F104" s="7" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+      <c r="H104" s="11" t="n"/>
+      <c r="I104" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="K104" s="11" t="n"/>
+      <c r="L104" s="7" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="N104" s="11" t="n"/>
+      <c r="O104" s="7" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="Q104" s="11" t="n"/>
+      <c r="R104" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T104" s="11" t="n"/>
+      <c r="U104" s="3" t="n"/>
+      <c r="V104" s="3" t="n"/>
+      <c r="W104" s="4" t="n"/>
+      <c r="X104" s="3" t="n"/>
+      <c r="Y104" s="3" t="n"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="inlineStr">
+        <is>
+          <t>Unidade da quantidade demandada na requisicao de compra</t>
+        </is>
+      </c>
+      <c r="B105" s="3" t="inlineStr"/>
+      <c r="C105" s="3" t="inlineStr"/>
+      <c r="D105" s="3" t="inlineStr"/>
+      <c r="E105" s="4" t="inlineStr"/>
+      <c r="F105" s="7" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="H105" s="11" t="n"/>
+      <c r="I105" s="7" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="K105" s="11" t="n"/>
+      <c r="L105" s="7" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="N105" s="11" t="n"/>
+      <c r="O105" s="7" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="Q105" s="11" t="n"/>
+      <c r="R105" s="7" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="T105" s="11" t="n"/>
+      <c r="U105" s="3" t="n"/>
+      <c r="V105" s="3" t="n"/>
+      <c r="W105" s="4" t="n"/>
+      <c r="X105" s="3" t="n"/>
+      <c r="Y105" s="3" t="n"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="3" t="inlineStr">
+        <is>
+          <t>Unidade da quantidade oferecida na proposta</t>
+        </is>
+      </c>
+      <c r="B106" s="3" t="inlineStr"/>
+      <c r="C106" s="3" t="inlineStr"/>
+      <c r="D106" s="3" t="inlineStr"/>
+      <c r="E106" s="4" t="inlineStr"/>
+      <c r="F106" s="7" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="H106" s="11" t="n"/>
+      <c r="I106" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="K106" s="11" t="n"/>
+      <c r="L106" s="7" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="N106" s="11" t="n"/>
+      <c r="O106" s="7" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
+      <c r="Q106" s="11" t="n"/>
+      <c r="R106" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T106" s="11" t="n"/>
+      <c r="U106" s="3" t="n"/>
+      <c r="V106" s="3" t="n"/>
+      <c r="W106" s="4" t="n"/>
+      <c r="X106" s="3" t="n"/>
+      <c r="Y106" s="3" t="n"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="inlineStr">
+        <is>
+          <t>Preco unitario oferecido na proposta</t>
+        </is>
+      </c>
+      <c r="B107" s="3" t="inlineStr"/>
+      <c r="C107" s="3" t="inlineStr"/>
+      <c r="D107" s="3" t="inlineStr"/>
+      <c r="E107" s="4" t="inlineStr"/>
+      <c r="F107" s="7" t="inlineStr">
+        <is>
+          <t>112.26</t>
+        </is>
+      </c>
+      <c r="H107" s="11" t="n"/>
+      <c r="I107" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="K107" s="11" t="n"/>
+      <c r="L107" s="7" t="inlineStr">
+        <is>
+          <t>435.4</t>
+        </is>
+      </c>
+      <c r="N107" s="11" t="n"/>
+      <c r="O107" s="7" t="inlineStr">
+        <is>
+          <t>433.386</t>
+        </is>
+      </c>
+      <c r="Q107" s="11" t="n"/>
+      <c r="R107" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T107" s="11" t="n"/>
+      <c r="U107" s="3" t="n"/>
+      <c r="V107" s="3" t="n"/>
+      <c r="W107" s="4" t="n"/>
+      <c r="X107" s="3" t="n"/>
+      <c r="Y107" s="3" t="n"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="inlineStr">
+        <is>
+          <t>Preco unitario ajustado (para quando sao diferentes as unidades da requisicao e da proposta)</t>
+        </is>
+      </c>
+      <c r="B108" s="3" t="inlineStr"/>
+      <c r="C108" s="3" t="inlineStr"/>
+      <c r="D108" s="3" t="inlineStr"/>
+      <c r="E108" s="4" t="inlineStr"/>
+      <c r="F108" s="7" t="inlineStr">
+        <is>
+          <t>112.26</t>
+        </is>
+      </c>
+      <c r="H108" s="11" t="n"/>
+      <c r="I108" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="K108" s="11" t="n"/>
+      <c r="L108" s="7" t="inlineStr">
+        <is>
+          <t>72.57</t>
+        </is>
+      </c>
+      <c r="N108" s="11" t="n"/>
+      <c r="O108" s="7" t="inlineStr">
+        <is>
+          <t>72.231</t>
+        </is>
+      </c>
+      <c r="Q108" s="11" t="n"/>
+      <c r="R108" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T108" s="11" t="n"/>
+      <c r="U108" s="3" t="n"/>
+      <c r="V108" s="3" t="n"/>
+      <c r="W108" s="4" t="n"/>
+      <c r="X108" s="3" t="n"/>
+      <c r="Y108" s="3" t="n"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="inlineStr">
+        <is>
+          <t>Posicao em que o produto aparece na proposta</t>
+        </is>
+      </c>
+      <c r="B109" s="3" t="inlineStr"/>
+      <c r="C109" s="3" t="inlineStr"/>
+      <c r="D109" s="3" t="inlineStr"/>
+      <c r="E109" s="4" t="inlineStr"/>
+      <c r="F109" s="7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H109" s="11" t="n"/>
+      <c r="I109" s="7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K109" s="11" t="n"/>
+      <c r="L109" s="7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N109" s="11" t="n"/>
+      <c r="O109" s="7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q109" s="11" t="n"/>
+      <c r="R109" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T109" s="11" t="n"/>
+      <c r="U109" s="3" t="n"/>
+      <c r="V109" s="3" t="n"/>
+      <c r="W109" s="4" t="n"/>
+      <c r="X109" s="3" t="n"/>
+      <c r="Y109" s="3" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="inlineStr"/>
+      <c r="B110" s="3" t="inlineStr"/>
+      <c r="C110" s="3" t="inlineStr"/>
+      <c r="D110" s="3" t="inlineStr"/>
+      <c r="E110" s="4" t="inlineStr"/>
+      <c r="F110" s="7" t="inlineStr"/>
+      <c r="H110" s="11" t="n"/>
+      <c r="I110" s="7" t="inlineStr"/>
+      <c r="K110" s="11" t="n"/>
+      <c r="L110" s="7" t="inlineStr"/>
+      <c r="N110" s="11" t="n"/>
+      <c r="O110" s="7" t="inlineStr"/>
+      <c r="Q110" s="11" t="n"/>
+      <c r="R110" s="7" t="inlineStr"/>
+      <c r="T110" s="11" t="n"/>
+      <c r="U110" s="3" t="n"/>
+      <c r="V110" s="3" t="n"/>
+      <c r="W110" s="4" t="n"/>
+      <c r="X110" s="3" t="n"/>
+      <c r="Y110" s="3" t="n"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>Produto demandado 6</t>
+        </is>
+      </c>
+      <c r="B111" s="3" t="inlineStr"/>
+      <c r="C111" s="3" t="inlineStr"/>
+      <c r="D111" s="3" t="inlineStr"/>
+      <c r="E111" s="4" t="inlineStr"/>
+      <c r="F111" s="7" t="inlineStr"/>
+      <c r="H111" s="11" t="n"/>
+      <c r="I111" s="7" t="inlineStr"/>
+      <c r="K111" s="11" t="n"/>
+      <c r="L111" s="7" t="inlineStr"/>
+      <c r="N111" s="11" t="n"/>
+      <c r="O111" s="7" t="inlineStr"/>
+      <c r="Q111" s="11" t="n"/>
+      <c r="R111" s="7" t="inlineStr"/>
+      <c r="T111" s="11" t="n"/>
+      <c r="U111" s="3" t="n"/>
+      <c r="V111" s="3" t="n"/>
+      <c r="W111" s="4" t="n"/>
+      <c r="X111" s="3" t="n"/>
+      <c r="Y111" s="3" t="n"/>
+    </row>
+    <row r="112" ht="90" customHeight="1">
+      <c r="A112" s="15" t="inlineStr">
+        <is>
+          <t>Descricao do produto demandado na requisicao de compra</t>
+        </is>
+      </c>
+      <c r="B112" s="7" t="inlineStr"/>
+      <c r="C112" s="7" t="inlineStr"/>
+      <c r="D112" s="7" t="inlineStr"/>
+      <c r="E112" s="12" t="inlineStr"/>
+      <c r="F112" s="7" t="inlineStr">
+        <is>
+          <t>Descrição: Tubo Esgoto; Material: Pvc; Diametro Nominal: 250 Mm; Cor: Ocre; Conexao: Jei; Norma: Nbr 7362; Fabricante: Tigre</t>
+        </is>
+      </c>
+      <c r="G112" s="16" t="n"/>
+      <c r="H112" s="17" t="n"/>
+      <c r="I112" s="7" t="inlineStr">
+        <is>
+          <t>Descrição: Tubo Esgoto; Material: Pvc; Diametro Nominal: 250 Mm; Cor: Ocre; Conexao: Jei; Norma: Nbr 7362; Fabricante: Tigre</t>
+        </is>
+      </c>
+      <c r="J112" s="16" t="n"/>
+      <c r="K112" s="17" t="n"/>
+      <c r="L112" s="7" t="inlineStr">
+        <is>
+          <t>Descrição: Tubo Esgoto; Material: Pvc; Diametro Nominal: 250 Mm; Cor: Ocre; Conexao: Jei; Norma: Nbr 7362; Fabricante: Tigre</t>
+        </is>
+      </c>
+      <c r="M112" s="16" t="n"/>
+      <c r="N112" s="17" t="n"/>
+      <c r="O112" s="7" t="inlineStr">
+        <is>
+          <t>Descrição: Tubo Esgoto; Material: Pvc; Diametro Nominal: 250 Mm; Cor: Ocre; Conexao: Jei; Norma: Nbr 7362; Fabricante: Tigre</t>
+        </is>
+      </c>
+      <c r="P112" s="16" t="n"/>
+      <c r="Q112" s="17" t="n"/>
+      <c r="R112" s="7" t="inlineStr">
+        <is>
+          <t>Descrição: Tubo Esgoto; Material: Pvc; Diametro Nominal: 250 Mm; Cor: Ocre; Conexao: Jei; Norma: Nbr 7362; Fabricante: Tigre</t>
+        </is>
+      </c>
+      <c r="S112" s="16" t="n"/>
+      <c r="T112" s="17" t="n"/>
+      <c r="U112" s="3" t="n"/>
+      <c r="V112" s="3" t="n"/>
+      <c r="W112" s="4" t="n"/>
+      <c r="X112" s="3" t="n"/>
+      <c r="Y112" s="3" t="n"/>
+    </row>
+    <row r="113" ht="90" customHeight="1">
+      <c r="A113" s="15" t="inlineStr">
+        <is>
+          <t>Descricao do produto oferecido na proposta (o qual a IA associou a este produto demandado)</t>
+        </is>
+      </c>
+      <c r="B113" s="7" t="inlineStr"/>
+      <c r="C113" s="7" t="inlineStr"/>
+      <c r="D113" s="7" t="inlineStr"/>
+      <c r="E113" s="12" t="inlineStr"/>
+      <c r="F113" s="7" t="inlineStr">
+        <is>
+          <t>Tubo Coletor 250Mm X 6M Amanco</t>
+        </is>
+      </c>
+      <c r="G113" s="16" t="n"/>
+      <c r="H113" s="17" t="n"/>
+      <c r="I113" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="J113" s="16" t="n"/>
+      <c r="K113" s="17" t="n"/>
+      <c r="L113" s="7" t="inlineStr">
+        <is>
+          <t>Tubo Pvc Vinilfort Jei 250 Mm Corr</t>
+        </is>
+      </c>
+      <c r="M113" s="16" t="n"/>
+      <c r="N113" s="17" t="n"/>
+      <c r="O113" s="7" t="inlineStr">
+        <is>
+          <t>Tubo Pvc Ocre 250Mm 6Mt</t>
+        </is>
+      </c>
+      <c r="P113" s="16" t="n"/>
+      <c r="Q113" s="17" t="n"/>
+      <c r="R113" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="S113" s="16" t="n"/>
+      <c r="T113" s="17" t="n"/>
+      <c r="U113" s="3" t="n"/>
+      <c r="V113" s="3" t="n"/>
+      <c r="W113" s="4" t="n"/>
+      <c r="X113" s="3" t="n"/>
+      <c r="Y113" s="3" t="n"/>
+    </row>
+    <row r="114" ht="90" customHeight="1">
+      <c r="A114" s="15" t="inlineStr">
+        <is>
+          <t>Raciocinio usado pela IA para associar este produto demandado com este produto oferecido</t>
+        </is>
+      </c>
+      <c r="B114" s="7" t="inlineStr"/>
+      <c r="C114" s="7" t="inlineStr"/>
+      <c r="D114" s="7" t="inlineStr"/>
+      <c r="E114" s="12" t="inlineStr"/>
+      <c r="F114" s="7" t="inlineStr">
+        <is>
+          <t>A associação foi feita pois o produto oferecido tem descrição similar (TUBO COLETOR vs TUBO ESGOTO), mesmo diâmetro (250MM) e mesma quantidade (150). O fabricante difere (AMANCO vs TIGRE).</t>
+        </is>
+      </c>
+      <c r="G114" s="16" t="n"/>
+      <c r="H114" s="17" t="n"/>
+      <c r="I114" s="7" t="inlineStr">
+        <is>
+          <t>Nenhum produto ofertado atingiu a semelhança mínima de 39%. O produto mais próximo (item 006, 'TUBO COLETOR 250MM X 6M AMANCO') teve semelhança de 37.5%, pois apesar de corresponder em diâmetro, tipo (considerando 'coletor' como 'esgoto') e valor de quantidade, falhou em especificações importantes como fabricante ('AMANCO' vs 'TIGRE' solicitado), cor, conexão e norma.</t>
+        </is>
+      </c>
+      <c r="J114" s="16" t="n"/>
+      <c r="K114" s="17" t="n"/>
+      <c r="L114" s="7" t="inlineStr">
+        <is>
+          <t>A associação foi feita com base na correspondência de múltiplas especificações: tipo ('TUBO PVC'), diâmetro (250mm), conexão ('JEI') e quantidade total (25 barras de 6m = 150m), que corresponde exatamente à quantidade demandada.</t>
+        </is>
+      </c>
+      <c r="M114" s="16" t="n"/>
+      <c r="N114" s="17" t="n"/>
+      <c r="O114" s="7" t="inlineStr">
+        <is>
+          <t>A associação foi feita com base na alta semelhança (63%). O material (PVC), diâmetro (250mm), cor (OCRE) e a quantidade total (150m) são compatíveis. A única divergência notável é o fabricante ('CORR PLASTIK' vs 'TIGRE').</t>
+        </is>
+      </c>
+      <c r="P114" s="16" t="n"/>
+      <c r="Q114" s="17" t="n"/>
+      <c r="R114" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="S114" s="16" t="n"/>
+      <c r="T114" s="17" t="n"/>
+      <c r="U114" s="3" t="n"/>
+      <c r="V114" s="3" t="n"/>
+      <c r="W114" s="4" t="n"/>
+      <c r="X114" s="3" t="n"/>
+      <c r="Y114" s="3" t="n"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="inlineStr">
+        <is>
+          <t>Semelhanca entre o produto demandado e o produto oferecido</t>
+        </is>
+      </c>
+      <c r="B115" s="3" t="inlineStr"/>
+      <c r="C115" s="3" t="inlineStr"/>
+      <c r="D115" s="3" t="inlineStr"/>
+      <c r="E115" s="4" t="inlineStr"/>
+      <c r="F115" s="7" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="H115" s="11" t="n"/>
+      <c r="I115" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="K115" s="11" t="n"/>
+      <c r="L115" s="7" t="inlineStr">
+        <is>
+          <t>63%</t>
+        </is>
+      </c>
+      <c r="N115" s="11" t="n"/>
+      <c r="O115" s="7" t="inlineStr">
+        <is>
+          <t>63%</t>
+        </is>
+      </c>
+      <c r="Q115" s="11" t="n"/>
+      <c r="R115" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T115" s="11" t="n"/>
+      <c r="U115" s="3" t="n"/>
+      <c r="V115" s="3" t="n"/>
+      <c r="W115" s="4" t="n"/>
+      <c r="X115" s="3" t="n"/>
+      <c r="Y115" s="3" t="n"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="inlineStr">
+        <is>
+          <t>Quantidade demandada na requisicao de compra</t>
+        </is>
+      </c>
+      <c r="B116" s="3" t="inlineStr"/>
+      <c r="C116" s="3" t="inlineStr"/>
+      <c r="D116" s="3" t="inlineStr"/>
+      <c r="E116" s="4" t="inlineStr"/>
+      <c r="F116" s="7" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="H116" s="11" t="n"/>
+      <c r="I116" s="7" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="K116" s="11" t="n"/>
+      <c r="L116" s="7" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="N116" s="11" t="n"/>
+      <c r="O116" s="7" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="Q116" s="11" t="n"/>
+      <c r="R116" s="7" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="T116" s="11" t="n"/>
+      <c r="U116" s="3" t="n"/>
+      <c r="V116" s="3" t="n"/>
+      <c r="W116" s="4" t="n"/>
+      <c r="X116" s="3" t="n"/>
+      <c r="Y116" s="3" t="n"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="inlineStr">
+        <is>
+          <t>Quantidade oferecida na proposta</t>
+        </is>
+      </c>
+      <c r="B117" s="3" t="inlineStr"/>
+      <c r="C117" s="3" t="inlineStr"/>
+      <c r="D117" s="3" t="inlineStr"/>
+      <c r="E117" s="4" t="inlineStr"/>
+      <c r="F117" s="7" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="H117" s="11" t="n"/>
+      <c r="I117" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="K117" s="11" t="n"/>
+      <c r="L117" s="7" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="N117" s="11" t="n"/>
+      <c r="O117" s="7" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q117" s="11" t="n"/>
+      <c r="R117" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T117" s="11" t="n"/>
+      <c r="U117" s="3" t="n"/>
+      <c r="V117" s="3" t="n"/>
+      <c r="W117" s="4" t="n"/>
+      <c r="X117" s="3" t="n"/>
+      <c r="Y117" s="3" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="3" t="inlineStr">
+        <is>
+          <t>Unidade da quantidade demandada na requisicao de compra</t>
+        </is>
+      </c>
+      <c r="B118" s="3" t="inlineStr"/>
+      <c r="C118" s="3" t="inlineStr"/>
+      <c r="D118" s="3" t="inlineStr"/>
+      <c r="E118" s="4" t="inlineStr"/>
+      <c r="F118" s="7" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="H118" s="11" t="n"/>
+      <c r="I118" s="7" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="K118" s="11" t="n"/>
+      <c r="L118" s="7" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="N118" s="11" t="n"/>
+      <c r="O118" s="7" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="Q118" s="11" t="n"/>
+      <c r="R118" s="7" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="T118" s="11" t="n"/>
+      <c r="U118" s="3" t="n"/>
+      <c r="V118" s="3" t="n"/>
+      <c r="W118" s="4" t="n"/>
+      <c r="X118" s="3" t="n"/>
+      <c r="Y118" s="3" t="n"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="inlineStr">
+        <is>
+          <t>Unidade da quantidade oferecida na proposta</t>
+        </is>
+      </c>
+      <c r="B119" s="3" t="inlineStr"/>
+      <c r="C119" s="3" t="inlineStr"/>
+      <c r="D119" s="3" t="inlineStr"/>
+      <c r="E119" s="4" t="inlineStr"/>
+      <c r="F119" s="7" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="H119" s="11" t="n"/>
+      <c r="I119" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="K119" s="11" t="n"/>
+      <c r="L119" s="7" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="N119" s="11" t="n"/>
+      <c r="O119" s="7" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
+      <c r="Q119" s="11" t="n"/>
+      <c r="R119" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T119" s="11" t="n"/>
+      <c r="U119" s="3" t="n"/>
+      <c r="V119" s="3" t="n"/>
+      <c r="W119" s="4" t="n"/>
+      <c r="X119" s="3" t="n"/>
+      <c r="Y119" s="3" t="n"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="3" t="inlineStr">
+        <is>
+          <t>Preco unitario oferecido na proposta</t>
+        </is>
+      </c>
+      <c r="B120" s="3" t="inlineStr"/>
+      <c r="C120" s="3" t="inlineStr"/>
+      <c r="D120" s="3" t="inlineStr"/>
+      <c r="E120" s="4" t="inlineStr"/>
+      <c r="F120" s="7" t="inlineStr">
+        <is>
+          <t>196.81</t>
+        </is>
+      </c>
+      <c r="H120" s="11" t="n"/>
+      <c r="I120" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="K120" s="11" t="n"/>
+      <c r="L120" s="7" t="inlineStr">
+        <is>
+          <t>729.26</t>
+        </is>
+      </c>
+      <c r="N120" s="11" t="n"/>
+      <c r="O120" s="7" t="inlineStr">
+        <is>
+          <t>725.818</t>
+        </is>
+      </c>
+      <c r="Q120" s="11" t="n"/>
+      <c r="R120" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T120" s="11" t="n"/>
+      <c r="U120" s="3" t="n"/>
+      <c r="V120" s="3" t="n"/>
+      <c r="W120" s="4" t="n"/>
+      <c r="X120" s="3" t="n"/>
+      <c r="Y120" s="3" t="n"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="3" t="inlineStr">
+        <is>
+          <t>Preco unitario ajustado (para quando sao diferentes as unidades da requisicao e da proposta)</t>
+        </is>
+      </c>
+      <c r="B121" s="3" t="inlineStr"/>
+      <c r="C121" s="3" t="inlineStr"/>
+      <c r="D121" s="3" t="inlineStr"/>
+      <c r="E121" s="4" t="inlineStr"/>
+      <c r="F121" s="7" t="inlineStr">
+        <is>
+          <t>196.81</t>
+        </is>
+      </c>
+      <c r="H121" s="11" t="n"/>
+      <c r="I121" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="K121" s="11" t="n"/>
+      <c r="L121" s="7" t="inlineStr">
+        <is>
+          <t>121.54</t>
+        </is>
+      </c>
+      <c r="N121" s="11" t="n"/>
+      <c r="O121" s="7" t="inlineStr">
+        <is>
+          <t>120.97</t>
+        </is>
+      </c>
+      <c r="Q121" s="11" t="n"/>
+      <c r="R121" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T121" s="11" t="n"/>
+      <c r="U121" s="3" t="n"/>
+      <c r="V121" s="3" t="n"/>
+      <c r="W121" s="4" t="n"/>
+      <c r="X121" s="3" t="n"/>
+      <c r="Y121" s="3" t="n"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="3" t="inlineStr">
+        <is>
+          <t>Posicao em que o produto aparece na proposta</t>
+        </is>
+      </c>
+      <c r="B122" s="3" t="inlineStr"/>
+      <c r="C122" s="3" t="inlineStr"/>
+      <c r="D122" s="3" t="inlineStr"/>
+      <c r="E122" s="4" t="inlineStr"/>
+      <c r="F122" s="7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H122" s="11" t="n"/>
+      <c r="I122" s="7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K122" s="11" t="n"/>
+      <c r="L122" s="7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N122" s="11" t="n"/>
+      <c r="O122" s="7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="Q122" s="11" t="n"/>
+      <c r="R122" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T122" s="11" t="n"/>
+      <c r="U122" s="3" t="n"/>
+      <c r="V122" s="3" t="n"/>
+      <c r="W122" s="4" t="n"/>
+      <c r="X122" s="3" t="n"/>
+      <c r="Y122" s="3" t="n"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="inlineStr"/>
+      <c r="B123" s="3" t="inlineStr"/>
+      <c r="C123" s="3" t="inlineStr"/>
+      <c r="D123" s="3" t="inlineStr"/>
+      <c r="E123" s="4" t="inlineStr"/>
+      <c r="F123" s="7" t="inlineStr"/>
+      <c r="H123" s="11" t="n"/>
+      <c r="I123" s="7" t="inlineStr"/>
+      <c r="K123" s="11" t="n"/>
+      <c r="L123" s="7" t="inlineStr"/>
+      <c r="N123" s="11" t="n"/>
+      <c r="O123" s="7" t="inlineStr"/>
+      <c r="Q123" s="11" t="n"/>
+      <c r="R123" s="7" t="inlineStr"/>
+      <c r="T123" s="11" t="n"/>
+      <c r="U123" s="3" t="n"/>
+      <c r="V123" s="3" t="n"/>
+      <c r="W123" s="4" t="n"/>
+      <c r="X123" s="3" t="n"/>
+      <c r="Y123" s="3" t="n"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>Produto demandado 7</t>
+        </is>
+      </c>
+      <c r="B124" s="3" t="inlineStr"/>
+      <c r="C124" s="3" t="inlineStr"/>
+      <c r="D124" s="3" t="inlineStr"/>
+      <c r="E124" s="4" t="inlineStr"/>
+      <c r="F124" s="7" t="inlineStr"/>
+      <c r="H124" s="11" t="n"/>
+      <c r="I124" s="7" t="inlineStr"/>
+      <c r="K124" s="11" t="n"/>
+      <c r="L124" s="7" t="inlineStr"/>
+      <c r="N124" s="11" t="n"/>
+      <c r="O124" s="7" t="inlineStr"/>
+      <c r="Q124" s="11" t="n"/>
+      <c r="R124" s="7" t="inlineStr"/>
+      <c r="T124" s="11" t="n"/>
+      <c r="U124" s="3" t="n"/>
+      <c r="V124" s="3" t="n"/>
+      <c r="W124" s="4" t="n"/>
+      <c r="X124" s="3" t="n"/>
+      <c r="Y124" s="3" t="n"/>
+    </row>
+    <row r="125" ht="90" customHeight="1">
+      <c r="A125" s="15" t="inlineStr">
+        <is>
+          <t>Descricao do produto demandado na requisicao de compra</t>
+        </is>
+      </c>
+      <c r="B125" s="7" t="inlineStr"/>
+      <c r="C125" s="7" t="inlineStr"/>
+      <c r="D125" s="7" t="inlineStr"/>
+      <c r="E125" s="12" t="inlineStr"/>
+      <c r="F125" s="7" t="inlineStr">
+        <is>
+          <t>Descrição: Tubo Esgoto; Material: Pvc; Diametro Nominal: 300 Mm; Cor: Ocre; Conexao: Jei; Norma: Nbr 7362; Fabricante: Tigre</t>
+        </is>
+      </c>
+      <c r="G125" s="16" t="n"/>
+      <c r="H125" s="17" t="n"/>
+      <c r="I125" s="7" t="inlineStr">
+        <is>
+          <t>Descrição: Tubo Esgoto; Material: Pvc; Diametro Nominal: 300 Mm; Cor: Ocre; Conexao: Jei; Norma: Nbr 7362; Fabricante: Tigre</t>
+        </is>
+      </c>
+      <c r="J125" s="16" t="n"/>
+      <c r="K125" s="17" t="n"/>
+      <c r="L125" s="7" t="inlineStr">
+        <is>
+          <t>Descrição: Tubo Esgoto; Material: Pvc; Diametro Nominal: 300 Mm; Cor: Ocre; Conexao: Jei; Norma: Nbr 7362; Fabricante: Tigre</t>
+        </is>
+      </c>
+      <c r="M125" s="16" t="n"/>
+      <c r="N125" s="17" t="n"/>
+      <c r="O125" s="7" t="inlineStr">
+        <is>
+          <t>Descrição: Tubo Esgoto; Material: Pvc; Diametro Nominal: 300 Mm; Cor: Ocre; Conexao: Jei; Norma: Nbr 7362; Fabricante: Tigre</t>
+        </is>
+      </c>
+      <c r="P125" s="16" t="n"/>
+      <c r="Q125" s="17" t="n"/>
+      <c r="R125" s="7" t="inlineStr">
+        <is>
+          <t>Descrição: Tubo Esgoto; Material: Pvc; Diametro Nominal: 300 Mm; Cor: Ocre; Conexao: Jei; Norma: Nbr 7362; Fabricante: Tigre</t>
+        </is>
+      </c>
+      <c r="S125" s="16" t="n"/>
+      <c r="T125" s="17" t="n"/>
+      <c r="U125" s="3" t="n"/>
+      <c r="V125" s="3" t="n"/>
+      <c r="W125" s="4" t="n"/>
+      <c r="X125" s="3" t="n"/>
+      <c r="Y125" s="3" t="n"/>
+    </row>
+    <row r="126" ht="90" customHeight="1">
+      <c r="A126" s="15" t="inlineStr">
+        <is>
+          <t>Descricao do produto oferecido na proposta (o qual a IA associou a este produto demandado)</t>
+        </is>
+      </c>
+      <c r="B126" s="7" t="inlineStr"/>
+      <c r="C126" s="7" t="inlineStr"/>
+      <c r="D126" s="7" t="inlineStr"/>
+      <c r="E126" s="12" t="inlineStr"/>
+      <c r="F126" s="7" t="inlineStr">
+        <is>
+          <t>Tubo Coletor 300Mm X 6M Amanco</t>
+        </is>
+      </c>
+      <c r="G126" s="16" t="n"/>
+      <c r="H126" s="17" t="n"/>
+      <c r="I126" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="J126" s="16" t="n"/>
+      <c r="K126" s="17" t="n"/>
+      <c r="L126" s="7" t="inlineStr">
+        <is>
+          <t>Tubo Pvc Vinilfort Jei 300 Mm Corr</t>
+        </is>
+      </c>
+      <c r="M126" s="16" t="n"/>
+      <c r="N126" s="17" t="n"/>
+      <c r="O126" s="7" t="inlineStr">
+        <is>
+          <t>Tubo Pvc Ocre 300Mm 6Mt</t>
+        </is>
+      </c>
+      <c r="P126" s="16" t="n"/>
+      <c r="Q126" s="17" t="n"/>
+      <c r="R126" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="S126" s="16" t="n"/>
+      <c r="T126" s="17" t="n"/>
+      <c r="U126" s="3" t="n"/>
+      <c r="V126" s="3" t="n"/>
+      <c r="W126" s="4" t="n"/>
+      <c r="X126" s="3" t="n"/>
+      <c r="Y126" s="3" t="n"/>
+    </row>
+    <row r="127" ht="90" customHeight="1">
+      <c r="A127" s="15" t="inlineStr">
+        <is>
+          <t>Raciocinio usado pela IA para associar este produto demandado com este produto oferecido</t>
+        </is>
+      </c>
+      <c r="B127" s="7" t="inlineStr"/>
+      <c r="C127" s="7" t="inlineStr"/>
+      <c r="D127" s="7" t="inlineStr"/>
+      <c r="E127" s="12" t="inlineStr"/>
+      <c r="F127" s="7" t="inlineStr">
+        <is>
+          <t>A associação foi feita pois o produto oferecido tem descrição similar (TUBO COLETOR vs TUBO ESGOTO), mesmo diâmetro (300MM) e mesma quantidade (30). O fabricante difere (AMANCO vs TIGRE).</t>
+        </is>
+      </c>
+      <c r="G127" s="16" t="n"/>
+      <c r="H127" s="17" t="n"/>
+      <c r="I127" s="7" t="inlineStr">
+        <is>
+          <t>Nenhum produto ofertado atingiu a semelhança mínima de 39%. O produto mais próximo (item 007, 'TUBO COLETOR 300MM X 6M AMANCO') teve semelhança de 37.5%, pois apesar de corresponder em diâmetro, tipo (considerando 'coletor' como 'esgoto') e valor de quantidade, falhou em especificações importantes como fabricante ('AMANCO' vs 'TIGRE' solicitado), cor, conexão e norma.</t>
+        </is>
+      </c>
+      <c r="J127" s="16" t="n"/>
+      <c r="K127" s="17" t="n"/>
+      <c r="L127" s="7" t="inlineStr">
+        <is>
+          <t>A associação foi feita com base na correspondência de múltiplas especificações: tipo ('TUBO PVC'), diâmetro (300mm), conexão ('JEI') e quantidade total (5 barras de 6m = 30m), que corresponde exatamente à quantidade demandada.</t>
+        </is>
+      </c>
+      <c r="M127" s="16" t="n"/>
+      <c r="N127" s="17" t="n"/>
+      <c r="O127" s="7" t="inlineStr">
+        <is>
+          <t>A associação foi feita com base na alta semelhança (63%). O material (PVC), diâmetro (300mm), cor (OCRE) e a quantidade total (30m) são compatíveis. A única divergência notável é o fabricante ('CORR PLASTIK' vs 'TIGRE').</t>
+        </is>
+      </c>
+      <c r="P127" s="16" t="n"/>
+      <c r="Q127" s="17" t="n"/>
+      <c r="R127" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="S127" s="16" t="n"/>
+      <c r="T127" s="17" t="n"/>
+      <c r="U127" s="3" t="n"/>
+      <c r="V127" s="3" t="n"/>
+      <c r="W127" s="4" t="n"/>
+      <c r="X127" s="3" t="n"/>
+      <c r="Y127" s="3" t="n"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="3" t="inlineStr">
+        <is>
+          <t>Semelhanca entre o produto demandado e o produto oferecido</t>
+        </is>
+      </c>
+      <c r="B128" s="3" t="inlineStr"/>
+      <c r="C128" s="3" t="inlineStr"/>
+      <c r="D128" s="3" t="inlineStr"/>
+      <c r="E128" s="4" t="inlineStr"/>
+      <c r="F128" s="7" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="H128" s="11" t="n"/>
+      <c r="I128" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="K128" s="11" t="n"/>
+      <c r="L128" s="7" t="inlineStr">
+        <is>
+          <t>63%</t>
+        </is>
+      </c>
+      <c r="N128" s="11" t="n"/>
+      <c r="O128" s="7" t="inlineStr">
+        <is>
+          <t>63%</t>
+        </is>
+      </c>
+      <c r="Q128" s="11" t="n"/>
+      <c r="R128" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T128" s="11" t="n"/>
+      <c r="U128" s="3" t="n"/>
+      <c r="V128" s="3" t="n"/>
+      <c r="W128" s="4" t="n"/>
+      <c r="X128" s="3" t="n"/>
+      <c r="Y128" s="3" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="3" t="inlineStr">
+        <is>
+          <t>Quantidade demandada na requisicao de compra</t>
+        </is>
+      </c>
+      <c r="B129" s="3" t="inlineStr"/>
+      <c r="C129" s="3" t="inlineStr"/>
+      <c r="D129" s="3" t="inlineStr"/>
+      <c r="E129" s="4" t="inlineStr"/>
+      <c r="F129" s="7" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H129" s="11" t="n"/>
+      <c r="I129" s="7" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K129" s="11" t="n"/>
+      <c r="L129" s="7" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="N129" s="11" t="n"/>
+      <c r="O129" s="7" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="Q129" s="11" t="n"/>
+      <c r="R129" s="7" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="T129" s="11" t="n"/>
+      <c r="U129" s="3" t="n"/>
+      <c r="V129" s="3" t="n"/>
+      <c r="W129" s="4" t="n"/>
+      <c r="X129" s="3" t="n"/>
+      <c r="Y129" s="3" t="n"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="3" t="inlineStr">
+        <is>
+          <t>Quantidade oferecida na proposta</t>
+        </is>
+      </c>
+      <c r="B130" s="3" t="inlineStr"/>
+      <c r="C130" s="3" t="inlineStr"/>
+      <c r="D130" s="3" t="inlineStr"/>
+      <c r="E130" s="4" t="inlineStr"/>
+      <c r="F130" s="7" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="H130" s="11" t="n"/>
+      <c r="I130" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="K130" s="11" t="n"/>
+      <c r="L130" s="7" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N130" s="11" t="n"/>
+      <c r="O130" s="7" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="Q130" s="11" t="n"/>
+      <c r="R130" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T130" s="11" t="n"/>
+      <c r="U130" s="3" t="n"/>
+      <c r="V130" s="3" t="n"/>
+      <c r="W130" s="4" t="n"/>
+      <c r="X130" s="3" t="n"/>
+      <c r="Y130" s="3" t="n"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="3" t="inlineStr">
+        <is>
+          <t>Unidade da quantidade demandada na requisicao de compra</t>
+        </is>
+      </c>
+      <c r="B131" s="3" t="inlineStr"/>
+      <c r="C131" s="3" t="inlineStr"/>
+      <c r="D131" s="3" t="inlineStr"/>
+      <c r="E131" s="4" t="inlineStr"/>
+      <c r="F131" s="7" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="H131" s="11" t="n"/>
+      <c r="I131" s="7" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="K131" s="11" t="n"/>
+      <c r="L131" s="7" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="N131" s="11" t="n"/>
+      <c r="O131" s="7" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="Q131" s="11" t="n"/>
+      <c r="R131" s="7" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="T131" s="11" t="n"/>
+      <c r="U131" s="3" t="n"/>
+      <c r="V131" s="3" t="n"/>
+      <c r="W131" s="4" t="n"/>
+      <c r="X131" s="3" t="n"/>
+      <c r="Y131" s="3" t="n"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="3" t="inlineStr">
+        <is>
+          <t>Unidade da quantidade oferecida na proposta</t>
+        </is>
+      </c>
+      <c r="B132" s="3" t="inlineStr"/>
+      <c r="C132" s="3" t="inlineStr"/>
+      <c r="D132" s="3" t="inlineStr"/>
+      <c r="E132" s="4" t="inlineStr"/>
+      <c r="F132" s="7" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="H132" s="11" t="n"/>
+      <c r="I132" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="K132" s="11" t="n"/>
+      <c r="L132" s="7" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="N132" s="11" t="n"/>
+      <c r="O132" s="7" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
+      <c r="Q132" s="11" t="n"/>
+      <c r="R132" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T132" s="11" t="n"/>
+      <c r="U132" s="3" t="n"/>
+      <c r="V132" s="3" t="n"/>
+      <c r="W132" s="4" t="n"/>
+      <c r="X132" s="3" t="n"/>
+      <c r="Y132" s="3" t="n"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="3" t="inlineStr">
+        <is>
+          <t>Preco unitario oferecido na proposta</t>
+        </is>
+      </c>
+      <c r="B133" s="3" t="inlineStr"/>
+      <c r="C133" s="3" t="inlineStr"/>
+      <c r="D133" s="3" t="inlineStr"/>
+      <c r="E133" s="4" t="inlineStr"/>
+      <c r="F133" s="7" t="inlineStr">
+        <is>
+          <t>312.28</t>
+        </is>
+      </c>
+      <c r="H133" s="11" t="n"/>
+      <c r="I133" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="K133" s="11" t="n"/>
+      <c r="L133" s="7" t="inlineStr">
+        <is>
+          <t>1118.43</t>
+        </is>
+      </c>
+      <c r="N133" s="11" t="n"/>
+      <c r="O133" s="7" t="inlineStr">
+        <is>
+          <t>1113.281</t>
+        </is>
+      </c>
+      <c r="Q133" s="11" t="n"/>
+      <c r="R133" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T133" s="11" t="n"/>
+      <c r="U133" s="3" t="n"/>
+      <c r="V133" s="3" t="n"/>
+      <c r="W133" s="4" t="n"/>
+      <c r="X133" s="3" t="n"/>
+      <c r="Y133" s="3" t="n"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="3" t="inlineStr">
+        <is>
+          <t>Preco unitario ajustado (para quando sao diferentes as unidades da requisicao e da proposta)</t>
+        </is>
+      </c>
+      <c r="B134" s="3" t="inlineStr"/>
+      <c r="C134" s="3" t="inlineStr"/>
+      <c r="D134" s="3" t="inlineStr"/>
+      <c r="E134" s="4" t="inlineStr"/>
+      <c r="F134" s="7" t="inlineStr">
+        <is>
+          <t>312.28</t>
+        </is>
+      </c>
+      <c r="H134" s="11" t="n"/>
+      <c r="I134" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="K134" s="11" t="n"/>
+      <c r="L134" s="7" t="inlineStr">
+        <is>
+          <t>186.41</t>
+        </is>
+      </c>
+      <c r="N134" s="11" t="n"/>
+      <c r="O134" s="7" t="inlineStr">
+        <is>
+          <t>185.547</t>
+        </is>
+      </c>
+      <c r="Q134" s="11" t="n"/>
+      <c r="R134" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T134" s="11" t="n"/>
+      <c r="U134" s="3" t="n"/>
+      <c r="V134" s="3" t="n"/>
+      <c r="W134" s="4" t="n"/>
+      <c r="X134" s="3" t="n"/>
+      <c r="Y134" s="3" t="n"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="3" t="inlineStr">
+        <is>
+          <t>Posicao em que o produto aparece na proposta</t>
+        </is>
+      </c>
+      <c r="B135" s="3" t="inlineStr"/>
+      <c r="C135" s="3" t="inlineStr"/>
+      <c r="D135" s="3" t="inlineStr"/>
+      <c r="E135" s="4" t="inlineStr"/>
+      <c r="F135" s="7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H135" s="11" t="n"/>
+      <c r="I135" s="7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K135" s="11" t="n"/>
+      <c r="L135" s="7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N135" s="11" t="n"/>
+      <c r="O135" s="7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="Q135" s="11" t="n"/>
+      <c r="R135" s="7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="T135" s="11" t="n"/>
+      <c r="U135" s="3" t="n"/>
+      <c r="V135" s="3" t="n"/>
+      <c r="W135" s="4" t="n"/>
+      <c r="X135" s="3" t="n"/>
+      <c r="Y135" s="3" t="n"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="3" t="inlineStr"/>
+      <c r="B136" s="3" t="inlineStr"/>
+      <c r="C136" s="3" t="inlineStr"/>
+      <c r="D136" s="3" t="inlineStr"/>
+      <c r="E136" s="4" t="inlineStr"/>
+      <c r="F136" s="7" t="inlineStr"/>
+      <c r="H136" s="11" t="n"/>
+      <c r="I136" s="7" t="inlineStr"/>
+      <c r="K136" s="11" t="n"/>
+      <c r="L136" s="7" t="inlineStr"/>
+      <c r="N136" s="11" t="n"/>
+      <c r="O136" s="7" t="inlineStr"/>
+      <c r="Q136" s="11" t="n"/>
+      <c r="R136" s="7" t="inlineStr"/>
+      <c r="T136" s="11" t="n"/>
+      <c r="U136" s="3" t="n"/>
+      <c r="V136" s="3" t="n"/>
+      <c r="W136" s="4" t="n"/>
+      <c r="X136" s="3" t="n"/>
+      <c r="Y136" s="3" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="545">
     <mergeCell ref="I54:K54"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="O112:Q112"/>
+    <mergeCell ref="I125:K125"/>
     <mergeCell ref="L42:N42"/>
-    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I112:K112"/>
     <mergeCell ref="F45:H45"/>
-    <mergeCell ref="O44:Q44"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="L126:N126"/>
+    <mergeCell ref="R110:T110"/>
     <mergeCell ref="I56:K56"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="O114:Q114"/>
+    <mergeCell ref="I127:K127"/>
+    <mergeCell ref="F109:H109"/>
+    <mergeCell ref="I114:K114"/>
     <mergeCell ref="F47:H47"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="O134:Q134"/>
     <mergeCell ref="O51:Q51"/>
-    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="O109:Q109"/>
     <mergeCell ref="O47:Q47"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="O56:Q56"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="R75:T75"/>
+    <mergeCell ref="F111:H111"/>
+    <mergeCell ref="L100:N100"/>
+    <mergeCell ref="R62:T62"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="R72:T72"/>
+    <mergeCell ref="O76:Q76"/>
     <mergeCell ref="I59:K59"/>
-    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="L108:N108"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="L131:N131"/>
     <mergeCell ref="I49:K49"/>
+    <mergeCell ref="O77:Q77"/>
     <mergeCell ref="L32:N32"/>
     <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="L103:N103"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="R88:T88"/>
     <mergeCell ref="L47:N47"/>
-    <mergeCell ref="O39:Q39"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I113:K113"/>
+    <mergeCell ref="I100:K100"/>
+    <mergeCell ref="R90:T90"/>
+    <mergeCell ref="F114:H114"/>
+    <mergeCell ref="I115:K115"/>
+    <mergeCell ref="R65:T65"/>
     <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I102:K102"/>
     <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="R129:T129"/>
     <mergeCell ref="O59:Q59"/>
-    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="L129:N129"/>
+    <mergeCell ref="I62:K62"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="L123:N123"/>
     <mergeCell ref="O46:Q46"/>
+    <mergeCell ref="O95:Q95"/>
     <mergeCell ref="L50:N50"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="O52:Q52"/>
+    <mergeCell ref="O89:Q89"/>
+    <mergeCell ref="R131:T131"/>
+    <mergeCell ref="O64:Q64"/>
+    <mergeCell ref="O61:Q61"/>
+    <mergeCell ref="I64:K64"/>
+    <mergeCell ref="F130:H130"/>
     <mergeCell ref="O48:Q48"/>
     <mergeCell ref="I51:K51"/>
     <mergeCell ref="L52:N52"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="F117:H117"/>
+    <mergeCell ref="O72:Q72"/>
+    <mergeCell ref="I128:K128"/>
+    <mergeCell ref="F132:H132"/>
+    <mergeCell ref="F119:H119"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="F112:H112"/>
+    <mergeCell ref="R84:T84"/>
+    <mergeCell ref="F127:H127"/>
+    <mergeCell ref="L116:N116"/>
+    <mergeCell ref="R78:T78"/>
+    <mergeCell ref="L78:N78"/>
+    <mergeCell ref="L118:N118"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="R80:T80"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="I75:K75"/>
+    <mergeCell ref="L117:N117"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="L119:N119"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="I123:K123"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="F105:H105"/>
+    <mergeCell ref="I110:K110"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="O67:Q67"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="F107:H107"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="R93:T93"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="O96:Q96"/>
+    <mergeCell ref="L66:N66"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="I136:K136"/>
+    <mergeCell ref="I70:K70"/>
+    <mergeCell ref="O98:Q98"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="I129:K129"/>
+    <mergeCell ref="L130:N130"/>
+    <mergeCell ref="L68:N68"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="F133:H133"/>
+    <mergeCell ref="I134:K134"/>
+    <mergeCell ref="I71:K71"/>
+    <mergeCell ref="I131:K131"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="L132:N132"/>
+    <mergeCell ref="F135:H135"/>
+    <mergeCell ref="I58:K58"/>
+    <mergeCell ref="R86:T86"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="F122:H122"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="R125:T125"/>
+    <mergeCell ref="I83:K83"/>
+    <mergeCell ref="R106:T106"/>
+    <mergeCell ref="R81:T81"/>
+    <mergeCell ref="O91:Q91"/>
+    <mergeCell ref="O82:Q82"/>
+    <mergeCell ref="O57:Q57"/>
+    <mergeCell ref="I60:K60"/>
+    <mergeCell ref="F88:H88"/>
+    <mergeCell ref="O111:Q111"/>
+    <mergeCell ref="I124:K124"/>
+    <mergeCell ref="O86:Q86"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="I126:K126"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="R99:T99"/>
+    <mergeCell ref="F110:H110"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="L74:N74"/>
+    <mergeCell ref="R101:T101"/>
+    <mergeCell ref="R113:T113"/>
+    <mergeCell ref="R100:T100"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="O104:Q104"/>
+    <mergeCell ref="L69:N69"/>
+    <mergeCell ref="O70:Q70"/>
+    <mergeCell ref="I79:K79"/>
+    <mergeCell ref="I73:K73"/>
+    <mergeCell ref="R77:T77"/>
+    <mergeCell ref="F136:H136"/>
+    <mergeCell ref="R127:T127"/>
+    <mergeCell ref="I74:K74"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="O101:Q101"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="O130:Q130"/>
+    <mergeCell ref="O117:Q117"/>
+    <mergeCell ref="O83:Q83"/>
+    <mergeCell ref="O132:Q132"/>
+    <mergeCell ref="L87:N87"/>
+    <mergeCell ref="R49:T49"/>
+    <mergeCell ref="O125:Q125"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="L88:N88"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="I92:K92"/>
+    <mergeCell ref="O127:Q127"/>
+    <mergeCell ref="F93:H93"/>
+    <mergeCell ref="L113:N113"/>
+    <mergeCell ref="R115:T115"/>
+    <mergeCell ref="R102:T102"/>
     <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="L115:N115"/>
+    <mergeCell ref="R52:T52"/>
+    <mergeCell ref="L77:N77"/>
+    <mergeCell ref="R39:T39"/>
+    <mergeCell ref="O78:Q78"/>
+    <mergeCell ref="I81:K81"/>
+    <mergeCell ref="O105:Q105"/>
+    <mergeCell ref="I105:K105"/>
+    <mergeCell ref="O120:Q120"/>
+    <mergeCell ref="R103:T103"/>
+    <mergeCell ref="O107:Q107"/>
+    <mergeCell ref="I120:K120"/>
     <mergeCell ref="L37:N37"/>
     <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="I101:K101"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="F104:H104"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="O69:Q69"/>
+    <mergeCell ref="R70:T70"/>
+    <mergeCell ref="F106:H106"/>
+    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="O133:Q133"/>
+    <mergeCell ref="R134:T134"/>
+    <mergeCell ref="R50:T50"/>
+    <mergeCell ref="R121:T121"/>
+    <mergeCell ref="L96:N96"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="O135:Q135"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="I94:K94"/>
+    <mergeCell ref="O122:Q122"/>
+    <mergeCell ref="L65:N65"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I108:K108"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="I95:K95"/>
+    <mergeCell ref="R123:T123"/>
+    <mergeCell ref="I89:K89"/>
+    <mergeCell ref="F99:H99"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="R124:T124"/>
+    <mergeCell ref="R118:T118"/>
+    <mergeCell ref="O54:Q54"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="R55:T55"/>
+    <mergeCell ref="R126:T126"/>
+    <mergeCell ref="I121:K121"/>
+    <mergeCell ref="F125:H125"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="L109:N109"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="L84:N84"/>
+    <mergeCell ref="L122:N122"/>
+    <mergeCell ref="O123:Q123"/>
+    <mergeCell ref="O110:Q110"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="O60:Q60"/>
+    <mergeCell ref="L80:N80"/>
+    <mergeCell ref="F120:H120"/>
+    <mergeCell ref="R71:T71"/>
+    <mergeCell ref="R58:T58"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="R73:T73"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="L98:N98"/>
+    <mergeCell ref="R60:T60"/>
+    <mergeCell ref="O136:Q136"/>
+    <mergeCell ref="O92:Q92"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="L106:N106"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="O65:Q65"/>
+    <mergeCell ref="I103:K103"/>
+    <mergeCell ref="I97:K97"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="O44:Q44"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="I96:K96"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="F100:H100"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="I111:K111"/>
+    <mergeCell ref="F115:H115"/>
+    <mergeCell ref="I98:K98"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="O62:Q62"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="O56:Q56"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="O129:Q129"/>
+    <mergeCell ref="R46:T46"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="I63:K63"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="O85:Q85"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="L111:N111"/>
+    <mergeCell ref="O131:Q131"/>
+    <mergeCell ref="R48:T48"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="L125:N125"/>
+    <mergeCell ref="F128:H128"/>
+    <mergeCell ref="R79:T79"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="L112:N112"/>
+    <mergeCell ref="I116:K116"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="F113:H113"/>
+    <mergeCell ref="R74:T74"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="O84:Q84"/>
+    <mergeCell ref="O75:Q75"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="L114:N114"/>
+    <mergeCell ref="R76:T76"/>
+    <mergeCell ref="I118:K118"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="O80:Q80"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="O52:Q52"/>
+    <mergeCell ref="O79:Q79"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L105:N105"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="I119:K119"/>
+    <mergeCell ref="O81:Q81"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="R92:T92"/>
+    <mergeCell ref="F116:H116"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="L67:N67"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="R94:T94"/>
+    <mergeCell ref="F118:H118"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="R87:T87"/>
     <mergeCell ref="F55:H55"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="O49:Q49"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="O63:Q63"/>
+    <mergeCell ref="L133:N133"/>
+    <mergeCell ref="I66:K66"/>
+    <mergeCell ref="L127:N127"/>
+    <mergeCell ref="R89:T89"/>
+    <mergeCell ref="O99:Q99"/>
     <mergeCell ref="I53:K53"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="O43:Q43"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="R51:T51"/>
+    <mergeCell ref="L64:N64"/>
+    <mergeCell ref="F129:H129"/>
+    <mergeCell ref="I68:K68"/>
+    <mergeCell ref="I130:K130"/>
+    <mergeCell ref="I117:K117"/>
     <mergeCell ref="I55:K55"/>
-    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="F121:H121"/>
     <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="O42:Q42"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I67:K67"/>
+    <mergeCell ref="L128:N128"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="F131:H131"/>
+    <mergeCell ref="O94:Q94"/>
+    <mergeCell ref="I132:K132"/>
     <mergeCell ref="I48:K48"/>
     <mergeCell ref="F58:H58"/>
     <mergeCell ref="F52:H52"/>
     <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="O106:Q106"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="L82:N82"/>
+    <mergeCell ref="R44:T44"/>
+    <mergeCell ref="O53:Q53"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="L75:N75"/>
+    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="L121:N121"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="I122:K122"/>
+    <mergeCell ref="F126:H126"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="R95:T95"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="I107:K107"/>
+    <mergeCell ref="O71:Q71"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="O58:Q58"/>
+    <mergeCell ref="R97:T97"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="R96:T96"/>
+    <mergeCell ref="L72:N72"/>
+    <mergeCell ref="O73:Q73"/>
+    <mergeCell ref="O100:Q100"/>
+    <mergeCell ref="R136:T136"/>
+    <mergeCell ref="O66:Q66"/>
+    <mergeCell ref="O115:Q115"/>
+    <mergeCell ref="I69:K69"/>
+    <mergeCell ref="L70:N70"/>
+    <mergeCell ref="R98:T98"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="O102:Q102"/>
+    <mergeCell ref="O68:Q68"/>
+    <mergeCell ref="I77:K77"/>
+    <mergeCell ref="I133:K133"/>
+    <mergeCell ref="L134:N134"/>
+    <mergeCell ref="R63:T63"/>
+    <mergeCell ref="F124:H124"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="I135:K135"/>
+    <mergeCell ref="O97:Q97"/>
+    <mergeCell ref="R108:T108"/>
+    <mergeCell ref="I72:K72"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="R83:T83"/>
+    <mergeCell ref="O128:Q128"/>
+    <mergeCell ref="L83:N83"/>
+    <mergeCell ref="R45:T45"/>
+    <mergeCell ref="I87:K87"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="R91:T91"/>
+    <mergeCell ref="R85:T85"/>
+    <mergeCell ref="R109:T109"/>
+    <mergeCell ref="L85:N85"/>
+    <mergeCell ref="R47:T47"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="I88:K88"/>
+    <mergeCell ref="I82:K82"/>
+    <mergeCell ref="F92:H92"/>
+    <mergeCell ref="L124:N124"/>
+    <mergeCell ref="O90:Q90"/>
+    <mergeCell ref="I65:K65"/>
+    <mergeCell ref="R111:T111"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="L71:N71"/>
+    <mergeCell ref="O103:Q103"/>
+    <mergeCell ref="R104:T104"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="R114:T114"/>
+    <mergeCell ref="F101:H101"/>
+    <mergeCell ref="O118:Q118"/>
+    <mergeCell ref="L73:N73"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="R116:T116"/>
+    <mergeCell ref="R66:T66"/>
+    <mergeCell ref="R53:T53"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="I78:K78"/>
+    <mergeCell ref="R130:T130"/>
+    <mergeCell ref="R68:T68"/>
+    <mergeCell ref="R117:T117"/>
+    <mergeCell ref="O121:Q121"/>
+    <mergeCell ref="R61:T61"/>
+    <mergeCell ref="R132:T132"/>
+    <mergeCell ref="L86:N86"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="O87:Q87"/>
+    <mergeCell ref="I90:K90"/>
+    <mergeCell ref="R119:T119"/>
+    <mergeCell ref="L135:N135"/>
+    <mergeCell ref="L101:N101"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O116:Q116"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="I91:K91"/>
+    <mergeCell ref="I85:K85"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="O49:Q49"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="O93:Q93"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I93:K93"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F97:H97"/>
+    <mergeCell ref="O113:Q113"/>
+    <mergeCell ref="L104:N104"/>
+    <mergeCell ref="R54:T54"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="L79:N79"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="R112:T112"/>
+    <mergeCell ref="O42:Q42"/>
+    <mergeCell ref="R122:T122"/>
+    <mergeCell ref="R56:T56"/>
+    <mergeCell ref="O126:Q126"/>
+    <mergeCell ref="R105:T105"/>
+    <mergeCell ref="L81:N81"/>
     <mergeCell ref="L56:N56"/>
     <mergeCell ref="I38:K38"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I109:K109"/>
+    <mergeCell ref="O119:Q119"/>
+    <mergeCell ref="R120:T120"/>
+    <mergeCell ref="I84:K84"/>
+    <mergeCell ref="R107:T107"/>
+    <mergeCell ref="L110:N110"/>
     <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="F123:H123"/>
     <mergeCell ref="I40:K40"/>
     <mergeCell ref="F44:H44"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="O53:Q53"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I57:K57"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="O54:Q54"/>
+    <mergeCell ref="I86:K86"/>
+    <mergeCell ref="I80:K80"/>
+    <mergeCell ref="R67:T67"/>
+    <mergeCell ref="I104:K104"/>
+    <mergeCell ref="F108:H108"/>
+    <mergeCell ref="R59:T59"/>
+    <mergeCell ref="O108:Q108"/>
+    <mergeCell ref="R69:T69"/>
+    <mergeCell ref="I106:K106"/>
+    <mergeCell ref="R133:T133"/>
     <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="O88:Q88"/>
+    <mergeCell ref="L136:N136"/>
     <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="L92:N92"/>
     <mergeCell ref="L30:N30"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="I58:K58"/>
+    <mergeCell ref="O124:Q124"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="L102:N102"/>
+    <mergeCell ref="O74:Q74"/>
+    <mergeCell ref="R135:T135"/>
+    <mergeCell ref="L29:N29"/>
     <mergeCell ref="I33:K33"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="L94:N94"/>
     <mergeCell ref="O55:Q55"/>
+    <mergeCell ref="F134:H134"/>
     <mergeCell ref="O40:Q40"/>
     <mergeCell ref="L44:N44"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="O58:Q58"/>
     <mergeCell ref="L31:N31"/>
-    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F96:H96"/>
     <mergeCell ref="I35:K35"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="O60:Q60"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="O57:Q57"/>
-    <mergeCell ref="I60:K60"/>
+    <mergeCell ref="F98:H98"/>
+    <mergeCell ref="I99:K99"/>
+    <mergeCell ref="R64:T64"/>
     <mergeCell ref="I30:K30"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="L120:N120"/>
+    <mergeCell ref="R82:T82"/>
     <mergeCell ref="I46:K46"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="L107:N107"/>
+    <mergeCell ref="R57:T57"/>
+    <mergeCell ref="R128:T128"/>
+    <mergeCell ref="I61:K61"/>
     <mergeCell ref="O45:Q45"/>
-    <mergeCell ref="L43:N43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
